--- a/com_srccheck/translates_pl_en_de.xlsx
+++ b/com_srccheck/translates_pl_en_de.xlsx
@@ -69,12 +69,6 @@
     <t>Source Check</t>
   </si>
   <si>
-    <t>GNU General Public License version 2 or later; see LICENSE.txt</t>
-  </si>
-  <si>
-    <t>Copyright (C) 2005 - 2018 Open Source Matters, Inc. All rights reserved.</t>
-  </si>
-  <si>
     <t>Source Check is a component that verifies if Joomla files have changed.</t>
   </si>
   <si>
@@ -418,6 +412,12 @@
   </si>
   <si>
     <t>Filtruj po rezultacie weryfikacji</t>
+  </si>
+  <si>
+    <t>GNU General Public License version 3, or later</t>
+  </si>
+  <si>
+    <t>Copyright (C) 2020 Green Line. All Rights Reserved.</t>
   </si>
 </sst>
 </file>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -802,10 +802,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -813,10 +813,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -824,10 +824,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -835,10 +835,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -846,10 +846,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -857,10 +857,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -868,10 +868,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -879,10 +879,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -890,10 +890,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -901,10 +901,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -955,106 +955,106 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1065,266 +1065,266 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/com_srccheck/translates_pl_en_de.xlsx
+++ b/com_srccheck/translates_pl_en_de.xlsx
@@ -4,19 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="37680" windowHeight="18465"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="37680" windowHeight="18465" tabRatio="912"/>
   </bookViews>
   <sheets>
-    <sheet name="sys.ini" sheetId="1" r:id="rId1"/>
-    <sheet name="ini" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="de-DE.com_srccheck.sys.ini" sheetId="7" r:id="rId1"/>
+    <sheet name="de-DE.com_srccheck.ini" sheetId="8" r:id="rId2"/>
+    <sheet name="pl-PL.com_srccheck.sys.ini" sheetId="6" r:id="rId3"/>
+    <sheet name="pl-PL.com_srccheck.ini" sheetId="5" r:id="rId4"/>
+    <sheet name="en-GB.com_srccheck.sys.ini" sheetId="4" r:id="rId5"/>
+    <sheet name="en-GB.com_srccheck.ini" sheetId="3" r:id="rId6"/>
+    <sheet name="sys.ini" sheetId="1" r:id="rId7"/>
+    <sheet name="ini" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="136">
   <si>
     <t>key</t>
   </si>
@@ -69,12 +74,6 @@
     <t>Source Check</t>
   </si>
   <si>
-    <t>GNU General Public License version 2 or later; see LICENSE.txt</t>
-  </si>
-  <si>
-    <t>Copyright (C) 2005 - 2018 Open Source Matters, Inc. All rights reserved.</t>
-  </si>
-  <si>
     <t>Source Check is a component that verifies if Joomla files have changed.</t>
   </si>
   <si>
@@ -418,13 +417,25 @@
   </si>
   <si>
     <t>Filtruj po rezultacie weryfikacji</t>
+  </si>
+  <si>
+    <t>Value to file</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>GNU General Public License version 3, or later.</t>
+  </si>
+  <si>
+    <t>Copyright (C) 2020 Green Line. All Rights Reserved.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +448,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <family val="1"/>
       <charset val="238"/>
     </font>
   </fonts>
@@ -460,10 +478,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -758,164 +777,2060 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="98.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A2,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B2+1),"= """,sys.ini!E2,"""")</f>
+        <v>COM_SRCCHECK                         = ""</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A3,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B3+1),"= """,sys.ini!E3,"""")</f>
+        <v>COM_LICENSE                          = ""</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A4,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B4+1),"= """,sys.ini!E4,"""")</f>
+        <v>COM_COPYRIGHT                        = ""</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A5,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B5+1),"= """,sys.ini!E5,"""")</f>
+        <v>COM_SRCCHECK_DESCRIPTION             = ""</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A6,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B6+1),"= """,sys.ini!E6,"""")</f>
+        <v>COM_SRCCHECK_UNINSTALL_TEXT          = ""</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A7,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B7+1),"= """,sys.ini!E7,"""")</f>
+        <v>COM_SRCCHECK_UPDATE_TEXT             = ""</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A8,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B8+1),"= """,sys.ini!E8,"""")</f>
+        <v>COM_SRCCHECK_PREFLIGHT_INSTALL_TEXT  = ""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A9,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B9+1),"= """,sys.ini!E9,"""")</f>
+        <v>COM_SRCCHECK_POSTFLIGHT_INSTALL_TEXT = ""</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A10,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B10+1),"= """,sys.ini!E10,"""")</f>
+        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT   = ""</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A11,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B11+1),"= """,sys.ini!E11,"""")</f>
+        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT  = ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A12,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B12+1),"= """,sys.ini!E12,"""")</f>
+        <v>COM_SRCCHECK_INSTALL_TEXT            = ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A13,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B13+1),"= """,sys.ini!E13,"""")</f>
+        <v>COM_SRCCHECK_MENU                    = ""</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A14,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B14+1),"= """,sys.ini!E14,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B15+1),"= """,sys.ini!E15,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A16,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B16+1),"= """,sys.ini!E16,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A17,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B17+1),"= """,sys.ini!E17,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A18,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B18+1),"= """,sys.ini!E18,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A19,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B19+1),"= """,sys.ini!E19,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A20,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B20+1),"= """,sys.ini!E20,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A21,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B21+1),"= """,sys.ini!E21,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A22,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B22+1),"= """,sys.ini!E22,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A23,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B23+1),"= """,sys.ini!E23,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A24,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B24+1),"= """,sys.ini!E24,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A25,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B25+1),"= """,sys.ini!E25,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A26,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B26+1),"= """,sys.ini!E26,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A27,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B27+1),"= """,sys.ini!E27,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A28,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B28+1),"= """,sys.ini!E28,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A29,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B29+1),"= """,sys.ini!E29,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A30,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B30+1),"= """,sys.ini!E30,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A31,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B31+1),"= """,sys.ini!E31,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="105.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="str">
+        <f>CONCATENATE(ini!A2,REPT(" ",MAX(ini!B:B)-ini!B2+1),"= """,ini!E2,"""")</f>
+        <v>COM_SRCCHECK_TOTALCOUNT_FILES          = ""</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="str">
+        <f>CONCATENATE(ini!A3,REPT(" ",MAX(ini!B:B)-ini!B3+1),"= """,ini!E3,"""")</f>
+        <v>COM_SRCCHECK_NEW_FILES                 = ""</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="str">
+        <f>CONCATENATE(ini!A4,REPT(" ",MAX(ini!B:B)-ini!B4+1),"= """,ini!E4,"""")</f>
+        <v>COM_SRCCHECK_DELETED_FILES             = ""</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="str">
+        <f>CONCATENATE(ini!A5,REPT(" ",MAX(ini!B:B)-ini!B5+1),"= """,ini!E5,"""")</f>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_POSITIVE   = ""</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="str">
+        <f>CONCATENATE(ini!A6,REPT(" ",MAX(ini!B:B)-ini!B6+1),"= """,ini!E6,"""")</f>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_NEGATIVE   = ""</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="str">
+        <f>CONCATENATE(ini!A7,REPT(" ",MAX(ini!B:B)-ini!B7+1),"= """,ini!E7,"""")</f>
+        <v>COM_SRCCHECK_LAST_CHECK_TIME           = ""</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="str">
+        <f>CONCATENATE(ini!A8,REPT(" ",MAX(ini!B:B)-ini!B8+1),"= """,ini!E8,"""")</f>
+        <v>COM_SRCCHECK_USER_ID                   = ""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="str">
+        <f>CONCATENATE(ini!A9,REPT(" ",MAX(ini!B:B)-ini!B9+1),"= """,ini!E9,"""")</f>
+        <v>COM_SRCCHECK_USER_LOGIN                = ""</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="str">
+        <f>CONCATENATE(ini!A10,REPT(" ",MAX(ini!B:B)-ini!B10+1),"= """,ini!E10,"""")</f>
+        <v>COM_SRCCHECK_USER_NAME                 = ""</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="str">
+        <f>CONCATENATE(ini!A11,REPT(" ",MAX(ini!B:B)-ini!B11+1),"= """,ini!E11,"""")</f>
+        <v>COM_SRCCHECH_MANAGER_TITLE             = ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="str">
+        <f>CONCATENATE(ini!A12,REPT(" ",MAX(ini!B:B)-ini!B12+1),"= """,ini!E12,"""")</f>
+        <v>COM_SRCCHECK_BTN_VERIFY                = ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="str">
+        <f>CONCATENATE(ini!A13,REPT(" ",MAX(ini!B:B)-ini!B13+1),"= """,ini!E13,"""")</f>
+        <v>COM_SRCCHECK_BTN_VALID                 = ""</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="str">
+        <f>CONCATENATE(ini!A14,REPT(" ",MAX(ini!B:B)-ini!B14+1),"= """,ini!E14,"""")</f>
+        <v>COM_SRCCHECK_BTN_ERASE                 = ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="str">
+        <f>CONCATENATE(ini!A15,REPT(" ",MAX(ini!B:B)-ini!B15+1),"= """,ini!E15,"""")</f>
+        <v>COM_SRCCHECK_SUBMENU_SUMMARY           = ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="str">
+        <f>CONCATENATE(ini!A16,REPT(" ",MAX(ini!B:B)-ini!B16+1),"= """,ini!E16,"""")</f>
+        <v>COM_SRCCHECK_SUBMENU_MANAGE            = ""</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="str">
+        <f>CONCATENATE(ini!A17,REPT(" ",MAX(ini!B:B)-ini!B17+1),"= """,ini!E17,"""")</f>
+        <v>COM_SRCCHECK_ADMINISTRATION            = ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="str">
+        <f>CONCATENATE(ini!A18,REPT(" ",MAX(ini!B:B)-ini!B18+1),"= """,ini!E18,"""")</f>
+        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE     = ""</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="str">
+        <f>CONCATENATE(ini!A19,REPT(" ",MAX(ini!B:B)-ini!B19+1),"= """,ini!E19,"""")</f>
+        <v>COM_SRECCHECK_NUM                      = ""</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="str">
+        <f>CONCATENATE(ini!A20,REPT(" ",MAX(ini!B:B)-ini!B20+1),"= """,ini!E20,"""")</f>
+        <v>COM_SRCCHECK_PATH                      = ""</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="str">
+        <f>CONCATENATE(ini!A21,REPT(" ",MAX(ini!B:B)-ini!B21+1),"= """,ini!E21,"""")</f>
+        <v>COM_SRCCHECK_FILENAME                  = ""</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="str">
+        <f>CONCATENATE(ini!A22,REPT(" ",MAX(ini!B:B)-ini!B22+1),"= """,ini!E22,"""")</f>
+        <v>COM_SRCCHECK_STATUS                    = ""</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="str">
+        <f>CONCATENATE(ini!A23,REPT(" ",MAX(ini!B:B)-ini!B23+1),"= """,ini!E23,"""")</f>
+        <v>COM_SRCCHECK_VERYFIED_STATUS_FILE      = ""</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="str">
+        <f>CONCATENATE(ini!A24,REPT(" ",MAX(ini!B:B)-ini!B24+1),"= """,ini!E24,"""")</f>
+        <v>COM_SRCCHECK_NEW_STATUS_FILE           = ""</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="str">
+        <f>CONCATENATE(ini!A25,REPT(" ",MAX(ini!B:B)-ini!B25+1),"= """,ini!E25,"""")</f>
+        <v>COM_SRCCHECK_VALID_STATUS_FILE         = ""</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="str">
+        <f>CONCATENATE(ini!A26,REPT(" ",MAX(ini!B:B)-ini!B26+1),"= """,ini!E26,"""")</f>
+        <v>COM_SRCCHECK_DELETED_STATUS_FILE       = ""</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="str">
+        <f>CONCATENATE(ini!A27,REPT(" ",MAX(ini!B:B)-ini!B27+1),"= """,ini!E27,"""")</f>
+        <v>COM_SRCCHECK_INVALID_STATUS_FILE       = ""</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="str">
+        <f>CONCATENATE(ini!A28,REPT(" ",MAX(ini!B:B)-ini!B28+1),"= """,ini!E28,"""")</f>
+        <v>COM_SRCCHECK_VERYFIED                  = ""</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="str">
+        <f>CONCATENATE(ini!A29,REPT(" ",MAX(ini!B:B)-ini!B29+1),"= """,ini!E29,"""")</f>
+        <v>COM_SRCCHECK_UNEXPECTED_STATUS_FILE    = ""</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="str">
+        <f>CONCATENATE(ini!A30,REPT(" ",MAX(ini!B:B)-ini!B30+1),"= """,ini!E30,"""")</f>
+        <v>COM_SRCCHECK_MANAGE_FILTER             = ""</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="str">
+        <f>CONCATENATE(ini!A31,REPT(" ",MAX(ini!B:B)-ini!B31+1),"= """,ini!E31,"""")</f>
+        <v>COM_SRCCHECK_FILTER_SELECT_STATUS_FILE = ""</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="str">
+        <f>CONCATENATE(ini!A32,REPT(" ",MAX(ini!B:B)-ini!B32+1),"= """,ini!E32,"""")</f>
+        <v>COM_SRCCHECK_FILTER_SELECT_VERYFIED    = ""</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="str">
+        <f>CONCATENATE(ini!A33,REPT(" ",MAX(ini!B:B)-ini!B33+1),"= """,ini!E33,"""")</f>
+        <v>COM_SRCCHECK_SEARCH_PATH_FILE          = ""</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="str">
+        <f>CONCATENATE(ini!A34,REPT(" ",MAX(ini!B:B)-ini!B34+1),"= """,ini!E34,"""")</f>
+        <v>COM_SRCCHECK_FILTER_FILE_STATUS        = ""</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="str">
+        <f>CONCATENATE(ini!A35,REPT(" ",MAX(ini!B:B)-ini!B35+1),"= """,ini!E35,"""")</f>
+        <v>COM_SRCCHECK_FILTER_FILE_VERYFIED      = ""</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="str">
+        <f>CONCATENATE(ini!A36,REPT(" ",MAX(ini!B:B)-ini!B36+1),"= """,ini!E36,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="str">
+        <f>CONCATENATE(ini!A37,REPT(" ",MAX(ini!B:B)-ini!B37+1),"= """,ini!E37,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="str">
+        <f>CONCATENATE(ini!A38,REPT(" ",MAX(ini!B:B)-ini!B38+1),"= """,ini!E38,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="str">
+        <f>CONCATENATE(ini!A39,REPT(" ",MAX(ini!B:B)-ini!B39+1),"= """,ini!E39,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="str">
+        <f>CONCATENATE(ini!A40,REPT(" ",MAX(ini!B:B)-ini!B40+1),"= """,ini!E40,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3" t="str">
+        <f>CONCATENATE(ini!A41,REPT(" ",MAX(ini!B:B)-ini!B41+1),"= """,ini!E41,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="str">
+        <f>CONCATENATE(ini!A42,REPT(" ",MAX(ini!B:B)-ini!B42+1),"= """,ini!E42,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3" t="str">
+        <f>CONCATENATE(ini!A43,REPT(" ",MAX(ini!B:B)-ini!B43+1),"= """,ini!E43,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="3" t="str">
+        <f>CONCATENATE(ini!A44,REPT(" ",MAX(ini!B:B)-ini!B44+1),"= """,ini!E44,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="3" t="str">
+        <f>CONCATENATE(ini!A45,REPT(" ",MAX(ini!B:B)-ini!B45+1),"= """,ini!E45,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="3" t="str">
+        <f>CONCATENATE(ini!A46,REPT(" ",MAX(ini!B:B)-ini!B46+1),"= """,ini!E46,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3" t="str">
+        <f>CONCATENATE(ini!A47,REPT(" ",MAX(ini!B:B)-ini!B47+1),"= """,ini!E47,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3" t="str">
+        <f>CONCATENATE(ini!A48,REPT(" ",MAX(ini!B:B)-ini!B48+1),"= """,ini!E48,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3" t="str">
+        <f>CONCATENATE(ini!A49,REPT(" ",MAX(ini!B:B)-ini!B49+1),"= """,ini!E49,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="3" t="str">
+        <f>CONCATENATE(ini!A50,REPT(" ",MAX(ini!B:B)-ini!B50+1),"= """,ini!E50,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3" t="str">
+        <f>CONCATENATE(ini!A51,REPT(" ",MAX(ini!B:B)-ini!B51+1),"= """,ini!E51,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="3" t="str">
+        <f>CONCATENATE(ini!A52,REPT(" ",MAX(ini!B:B)-ini!B52+1),"= """,ini!E52,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="3" t="str">
+        <f>CONCATENATE(ini!A53,REPT(" ",MAX(ini!B:B)-ini!B53+1),"= """,ini!E53,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="3" t="str">
+        <f>CONCATENATE(ini!A54,REPT(" ",MAX(ini!B:B)-ini!B54+1),"= """,ini!E54,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="str">
+        <f>CONCATENATE(ini!A55,REPT(" ",MAX(ini!B:B)-ini!B55+1),"= """,ini!E55,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="3" t="str">
+        <f>CONCATENATE(ini!A56,REPT(" ",MAX(ini!B:B)-ini!B56+1),"= """,ini!E56,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="3" t="str">
+        <f>CONCATENATE(ini!A57,REPT(" ",MAX(ini!B:B)-ini!B57+1),"= """,ini!E57,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="98.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A2,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B2+1),"= """,sys.ini!C2,"""")</f>
+        <v>COM_SRCCHECK                         = "Source Check"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A3,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B3+1),"= """,sys.ini!C3,"""")</f>
+        <v>COM_LICENSE                          = "GNU General Public License version 3, or later."</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A4,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B4+1),"= """,sys.ini!C4,"""")</f>
+        <v>COM_COPYRIGHT                        = "Copyright (C) 2020 Green Line. All Rights Reserved."</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A5,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B5+1),"= """,sys.ini!C5,"""")</f>
+        <v>COM_SRCCHECK_DESCRIPTION             = "Source Check jest komponentem weryfikującym czy któreś pliki systemu Joomla nie zostału zmienione."</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A6,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B6+1),"= """,sys.ini!C6,"""")</f>
+        <v>COM_SRCCHECK_UNINSTALL_TEXT          = "Komponenet Source Check został odinstalowany. Twoja Joomla jest zagrożona !!!"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A7,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B7+1),"= """,sys.ini!C7,"""")</f>
+        <v>COM_SRCCHECK_UPDATE_TEXT             = "Aktualizacja komponentu Source Check."</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A8,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B8+1),"= """,sys.ini!C8,"""")</f>
+        <v>COM_SRCCHECK_PREFLIGHT_INSTALL_TEXT  = "Trwa pierwsza weryfikacja plików."</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A9,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B9+1),"= """,sys.ini!C9,"""")</f>
+        <v>COM_SRCCHECK_POSTFLIGHT_INSTALL_TEXT = "Zakończona pierwsząweryfikację plików."</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A10,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B10+1),"= """,sys.ini!C10,"""")</f>
+        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT   = "Rozpoczęcie aktualizacji komponentu Source Check."</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A11,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B11+1),"= """,sys.ini!C11,"""")</f>
+        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT  = "Zakończono aktualizacji komponentu Source Check."</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A12,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B12+1),"= """,sys.ini!C12,"""")</f>
+        <v>COM_SRCCHECK_INSTALL_TEXT            = "Skrypt inicjujący komponent Source Check."</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A13,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B13+1),"= """,sys.ini!C13,"""")</f>
+        <v>COM_SRCCHECK_MENU                    = "Source Check"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A14,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B14+1),"= """,sys.ini!C14,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B15+1),"= """,sys.ini!C15,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A16,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B16+1),"= """,sys.ini!C16,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A17,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B17+1),"= """,sys.ini!C17,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A18,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B18+1),"= """,sys.ini!C18,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A19,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B19+1),"= """,sys.ini!C19,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A20,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B20+1),"= """,sys.ini!C20,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A21,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B21+1),"= """,sys.ini!C21,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A22,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B22+1),"= """,sys.ini!C22,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A23,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B23+1),"= """,sys.ini!C23,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A24,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B24+1),"= """,sys.ini!C24,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A25,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B25+1),"= """,sys.ini!C25,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A26,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B26+1),"= """,sys.ini!C26,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A27,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B27+1),"= """,sys.ini!C27,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A28,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B28+1),"= """,sys.ini!C28,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A29,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B29+1),"= """,sys.ini!C29,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A30,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B30+1),"= """,sys.ini!C30,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A31,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B31+1),"= """,sys.ini!C31,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="105.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="str">
+        <f>CONCATENATE(ini!A2,REPT(" ",MAX(ini!B:B)-ini!B2+1),"= """,ini!C2,"""")</f>
+        <v>COM_SRCCHECK_TOTALCOUNT_FILES          = "Ilość zweryfikowanych plików:"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="str">
+        <f>CONCATENATE(ini!A3,REPT(" ",MAX(ini!B:B)-ini!B3+1),"= """,ini!C3,"""")</f>
+        <v>COM_SRCCHECK_NEW_FILES                 = "Ilość nowych plików:"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="str">
+        <f>CONCATENATE(ini!A4,REPT(" ",MAX(ini!B:B)-ini!B4+1),"= """,ini!C4,"""")</f>
+        <v>COM_SRCCHECK_DELETED_FILES             = "Ilość usuniętych plików:"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="str">
+        <f>CONCATENATE(ini!A5,REPT(" ",MAX(ini!B:B)-ini!B5+1),"= """,ini!C5,"""")</f>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_POSITIVE   = "Ilość plików zweryfikowanych poprawnie:"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="str">
+        <f>CONCATENATE(ini!A6,REPT(" ",MAX(ini!B:B)-ini!B6+1),"= """,ini!C6,"""")</f>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_NEGATIVE   = "Ilość plików zweryfikowanych niepoprawnie:"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="str">
+        <f>CONCATENATE(ini!A7,REPT(" ",MAX(ini!B:B)-ini!B7+1),"= """,ini!C7,"""")</f>
+        <v>COM_SRCCHECK_LAST_CHECK_TIME           = "Data ostatniej weryfikacji:"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="str">
+        <f>CONCATENATE(ini!A8,REPT(" ",MAX(ini!B:B)-ini!B8+1),"= """,ini!C8,"""")</f>
+        <v>COM_SRCCHECK_USER_ID                   = "Identyfikator użytkowniaka który ostatnio weryfikował:"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="str">
+        <f>CONCATENATE(ini!A9,REPT(" ",MAX(ini!B:B)-ini!B9+1),"= """,ini!C9,"""")</f>
+        <v>COM_SRCCHECK_USER_LOGIN                = "Login użytkowniaka który ostatnio weryfikował:"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="str">
+        <f>CONCATENATE(ini!A10,REPT(" ",MAX(ini!B:B)-ini!B10+1),"= """,ini!C10,"""")</f>
+        <v>COM_SRCCHECK_USER_NAME                 = "Nazwa użytkowniaka który ostatnio weryfikował:"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="str">
+        <f>CONCATENATE(ini!A11,REPT(" ",MAX(ini!B:B)-ini!B11+1),"= """,ini!C11,"""")</f>
+        <v>COM_SRCCHECH_MANAGER_TITLE             = "Source Check"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="str">
+        <f>CONCATENATE(ini!A12,REPT(" ",MAX(ini!B:B)-ini!B12+1),"= """,ini!C12,"""")</f>
+        <v>COM_SRCCHECK_BTN_VERIFY                = "Weryfikuj"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="str">
+        <f>CONCATENATE(ini!A13,REPT(" ",MAX(ini!B:B)-ini!B13+1),"= """,ini!C13,"""")</f>
+        <v>COM_SRCCHECK_BTN_VALID                 = "Zaakceptuj plik[i]"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="str">
+        <f>CONCATENATE(ini!A14,REPT(" ",MAX(ini!B:B)-ini!B14+1),"= """,ini!C14,"""")</f>
+        <v>COM_SRCCHECK_BTN_ERASE                 = "Usuń plik[i]"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="str">
+        <f>CONCATENATE(ini!A15,REPT(" ",MAX(ini!B:B)-ini!B15+1),"= """,ini!C15,"""")</f>
+        <v>COM_SRCCHECK_SUBMENU_SUMMARY           = "Podsumowanie"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="str">
+        <f>CONCATENATE(ini!A16,REPT(" ",MAX(ini!B:B)-ini!B16+1),"= """,ini!C16,"""")</f>
+        <v>COM_SRCCHECK_SUBMENU_MANAGE            = "Zarządzaj"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="str">
+        <f>CONCATENATE(ini!A17,REPT(" ",MAX(ini!B:B)-ini!B17+1),"= """,ini!C17,"""")</f>
+        <v>COM_SRCCHECK_ADMINISTRATION            = "Source Check: Podsumowanie"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="str">
+        <f>CONCATENATE(ini!A18,REPT(" ",MAX(ini!B:B)-ini!B18+1),"= """,ini!C18,"""")</f>
+        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE     = "Source Check: Zarządzaj"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="str">
+        <f>CONCATENATE(ini!A19,REPT(" ",MAX(ini!B:B)-ini!B19+1),"= """,ini!C19,"""")</f>
+        <v>COM_SRECCHECK_NUM                      = "#"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="str">
+        <f>CONCATENATE(ini!A20,REPT(" ",MAX(ini!B:B)-ini!B20+1),"= """,ini!C20,"""")</f>
+        <v>COM_SRCCHECK_PATH                      = "Ścieżka pliku"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="str">
+        <f>CONCATENATE(ini!A21,REPT(" ",MAX(ini!B:B)-ini!B21+1),"= """,ini!C21,"""")</f>
+        <v>COM_SRCCHECK_FILENAME                  = "Nazwa pliku"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="str">
+        <f>CONCATENATE(ini!A22,REPT(" ",MAX(ini!B:B)-ini!B22+1),"= """,ini!C22,"""")</f>
+        <v>COM_SRCCHECK_STATUS                    = "Status pliku"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="str">
+        <f>CONCATENATE(ini!A23,REPT(" ",MAX(ini!B:B)-ini!B23+1),"= """,ini!C23,"""")</f>
+        <v>COM_SRCCHECK_VERYFIED_STATUS_FILE      = "Zweryfikowany"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="str">
+        <f>CONCATENATE(ini!A24,REPT(" ",MAX(ini!B:B)-ini!B24+1),"= """,ini!C24,"""")</f>
+        <v>COM_SRCCHECK_NEW_STATUS_FILE           = "Nowy plik"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="str">
+        <f>CONCATENATE(ini!A25,REPT(" ",MAX(ini!B:B)-ini!B25+1),"= """,ini!C25,"""")</f>
+        <v>COM_SRCCHECK_VALID_STATUS_FILE         = "Poprawny"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="str">
+        <f>CONCATENATE(ini!A26,REPT(" ",MAX(ini!B:B)-ini!B26+1),"= """,ini!C26,"""")</f>
+        <v>COM_SRCCHECK_DELETED_STATUS_FILE       = "Usunięty plik"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="str">
+        <f>CONCATENATE(ini!A27,REPT(" ",MAX(ini!B:B)-ini!B27+1),"= """,ini!C27,"""")</f>
+        <v>COM_SRCCHECK_INVALID_STATUS_FILE       = "Niepoprawny"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="str">
+        <f>CONCATENATE(ini!A28,REPT(" ",MAX(ini!B:B)-ini!B28+1),"= """,ini!C28,"""")</f>
+        <v>COM_SRCCHECK_VERYFIED                  = "Rezultat weryfikacji"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="str">
+        <f>CONCATENATE(ini!A29,REPT(" ",MAX(ini!B:B)-ini!B29+1),"= """,ini!C29,"""")</f>
+        <v>COM_SRCCHECK_UNEXPECTED_STATUS_FILE    = "Nieoczekiwany"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="str">
+        <f>CONCATENATE(ini!A30,REPT(" ",MAX(ini!B:B)-ini!B30+1),"= """,ini!C30,"""")</f>
+        <v>COM_SRCCHECK_MANAGE_FILTER             = "Filtry"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="str">
+        <f>CONCATENATE(ini!A31,REPT(" ",MAX(ini!B:B)-ini!B31+1),"= """,ini!C31,"""")</f>
+        <v>COM_SRCCHECK_FILTER_SELECT_STATUS_FILE = "- Wybierz status pliku -"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="str">
+        <f>CONCATENATE(ini!A32,REPT(" ",MAX(ini!B:B)-ini!B32+1),"= """,ini!C32,"""")</f>
+        <v>COM_SRCCHECK_FILTER_SELECT_VERYFIED    = "- Wybierz rezultat weryfikacji -"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="str">
+        <f>CONCATENATE(ini!A33,REPT(" ",MAX(ini!B:B)-ini!B33+1),"= """,ini!C33,"""")</f>
+        <v>COM_SRCCHECK_SEARCH_PATH_FILE          = "Szukaj w ścieżkach dostępu i nazwach plików"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="str">
+        <f>CONCATENATE(ini!A34,REPT(" ",MAX(ini!B:B)-ini!B34+1),"= """,ini!C34,"""")</f>
+        <v>COM_SRCCHECK_FILTER_FILE_STATUS        = "Filtruj po statusie pliku"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="str">
+        <f>CONCATENATE(ini!A35,REPT(" ",MAX(ini!B:B)-ini!B35+1),"= """,ini!C35,"""")</f>
+        <v>COM_SRCCHECK_FILTER_FILE_VERYFIED      = "Filtruj po rezultacie weryfikacji"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="str">
+        <f>CONCATENATE(ini!A36,REPT(" ",MAX(ini!B:B)-ini!B36+1),"= """,ini!C36,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="str">
+        <f>CONCATENATE(ini!A37,REPT(" ",MAX(ini!B:B)-ini!B37+1),"= """,ini!C37,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="str">
+        <f>CONCATENATE(ini!A38,REPT(" ",MAX(ini!B:B)-ini!B38+1),"= """,ini!C38,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="str">
+        <f>CONCATENATE(ini!A39,REPT(" ",MAX(ini!B:B)-ini!B39+1),"= """,ini!C39,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="str">
+        <f>CONCATENATE(ini!A40,REPT(" ",MAX(ini!B:B)-ini!B40+1),"= """,ini!C40,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3" t="str">
+        <f>CONCATENATE(ini!A41,REPT(" ",MAX(ini!B:B)-ini!B41+1),"= """,ini!C41,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="str">
+        <f>CONCATENATE(ini!A42,REPT(" ",MAX(ini!B:B)-ini!B42+1),"= """,ini!C42,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3" t="str">
+        <f>CONCATENATE(ini!A43,REPT(" ",MAX(ini!B:B)-ini!B43+1),"= """,ini!C43,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="3" t="str">
+        <f>CONCATENATE(ini!A44,REPT(" ",MAX(ini!B:B)-ini!B44+1),"= """,ini!C44,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="3" t="str">
+        <f>CONCATENATE(ini!A45,REPT(" ",MAX(ini!B:B)-ini!B45+1),"= """,ini!C45,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="3" t="str">
+        <f>CONCATENATE(ini!A46,REPT(" ",MAX(ini!B:B)-ini!B46+1),"= """,ini!C46,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3" t="str">
+        <f>CONCATENATE(ini!A47,REPT(" ",MAX(ini!B:B)-ini!B47+1),"= """,ini!C47,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3" t="str">
+        <f>CONCATENATE(ini!A48,REPT(" ",MAX(ini!B:B)-ini!B48+1),"= """,ini!C48,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3" t="str">
+        <f>CONCATENATE(ini!A49,REPT(" ",MAX(ini!B:B)-ini!B49+1),"= """,ini!C49,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="3" t="str">
+        <f>CONCATENATE(ini!A50,REPT(" ",MAX(ini!B:B)-ini!B50+1),"= """,ini!C50,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3" t="str">
+        <f>CONCATENATE(ini!A51,REPT(" ",MAX(ini!B:B)-ini!B51+1),"= """,ini!C51,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="3" t="str">
+        <f>CONCATENATE(ini!A52,REPT(" ",MAX(ini!B:B)-ini!B52+1),"= """,ini!C52,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="3" t="str">
+        <f>CONCATENATE(ini!A53,REPT(" ",MAX(ini!B:B)-ini!B53+1),"= """,ini!C53,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="3" t="str">
+        <f>CONCATENATE(ini!A54,REPT(" ",MAX(ini!B:B)-ini!B54+1),"= """,ini!C54,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="str">
+        <f>CONCATENATE(ini!A55,REPT(" ",MAX(ini!B:B)-ini!B55+1),"= """,ini!C55,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="3" t="str">
+        <f>CONCATENATE(ini!A56,REPT(" ",MAX(ini!B:B)-ini!B56+1),"= """,ini!C56,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="3" t="str">
+        <f>CONCATENATE(ini!A57,REPT(" ",MAX(ini!B:B)-ini!B57+1),"= """,ini!C57,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="98.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A2,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B2+1),"= """,sys.ini!D2,"""")</f>
+        <v>COM_SRCCHECK                         = "Source Check"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A3,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B3+1),"= """,sys.ini!D3,"""")</f>
+        <v>COM_LICENSE                          = "GNU General Public License version 3, or later."</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A4,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B4+1),"= """,sys.ini!D4,"""")</f>
+        <v>COM_COPYRIGHT                        = "Copyright (C) 2020 Green Line. All Rights Reserved."</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A5,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B5+1),"= """,sys.ini!D5,"""")</f>
+        <v>COM_SRCCHECK_DESCRIPTION             = "Source Check is a component that verifies if Joomla files have changed."</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A6,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B6+1),"= """,sys.ini!D6,"""")</f>
+        <v>COM_SRCCHECK_UNINSTALL_TEXT          = "Source Check uninstall successful. Your joomla is under threat!!!"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A7,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B7+1),"= """,sys.ini!D7,"""")</f>
+        <v>COM_SRCCHECK_UPDATE_TEXT             = "Upgrade Source Check component."</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A8,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B8+1),"= """,sys.ini!D8,"""")</f>
+        <v>COM_SRCCHECK_PREFLIGHT_INSTALL_TEXT  = "The first verification in progress"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A9,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B9+1),"= """,sys.ini!D9,"""")</f>
+        <v>COM_SRCCHECK_POSTFLIGHT_INSTALL_TEXT = "The first verification completed"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A10,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B10+1),"= """,sys.ini!D10,"""")</f>
+        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT   = "Upgrade Source Check component START"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A11,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B11+1),"= """,sys.ini!D11,"""")</f>
+        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT  = "Upgrade Source Check component ENDED"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A12,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B12+1),"= """,sys.ini!D12,"""")</f>
+        <v>COM_SRCCHECK_INSTALL_TEXT            = "Source Check initialization script."</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A13,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B13+1),"= """,sys.ini!D13,"""")</f>
+        <v>COM_SRCCHECK_MENU                    = "Source Check"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A14,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B14+1),"= """,sys.ini!D14,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B15+1),"= """,sys.ini!D15,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A16,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B16+1),"= """,sys.ini!D16,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A17,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B17+1),"= """,sys.ini!D17,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A18,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B18+1),"= """,sys.ini!D18,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A19,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B19+1),"= """,sys.ini!D19,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A20,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B20+1),"= """,sys.ini!D20,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A21,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B21+1),"= """,sys.ini!D21,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A22,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B22+1),"= """,sys.ini!D22,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A23,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B23+1),"= """,sys.ini!D23,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A24,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B24+1),"= """,sys.ini!D24,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A25,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B25+1),"= """,sys.ini!D25,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A26,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B26+1),"= """,sys.ini!D26,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A27,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B27+1),"= """,sys.ini!D27,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A28,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B28+1),"= """,sys.ini!D28,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A29,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B29+1),"= """,sys.ini!D29,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A30,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B30+1),"= """,sys.ini!D30,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A31,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B31+1),"= """,sys.ini!D31,"""")</f>
+        <v xml:space="preserve">                                     = ""</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="105.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="str">
+        <f>CONCATENATE(ini!A2,REPT(" ",MAX(ini!B:B)-ini!B2+1),"= """,ini!D2,"""")</f>
+        <v>COM_SRCCHECK_TOTALCOUNT_FILES          = "Number of verified files:"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="str">
+        <f>CONCATENATE(ini!A3,REPT(" ",MAX(ini!B:B)-ini!B3+1),"= """,ini!D3,"""")</f>
+        <v>COM_SRCCHECK_NEW_FILES                 = "Number of new files:"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="str">
+        <f>CONCATENATE(ini!A4,REPT(" ",MAX(ini!B:B)-ini!B4+1),"= """,ini!D4,"""")</f>
+        <v>COM_SRCCHECK_DELETED_FILES             = "Number of deleted files:"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="str">
+        <f>CONCATENATE(ini!A5,REPT(" ",MAX(ini!B:B)-ini!B5+1),"= """,ini!D5,"""")</f>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_POSITIVE   = "Number of files verified correctly:"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="str">
+        <f>CONCATENATE(ini!A6,REPT(" ",MAX(ini!B:B)-ini!B6+1),"= """,ini!D6,"""")</f>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_NEGATIVE   = "Number of files verified incorrectly:"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="str">
+        <f>CONCATENATE(ini!A7,REPT(" ",MAX(ini!B:B)-ini!B7+1),"= """,ini!D7,"""")</f>
+        <v>COM_SRCCHECK_LAST_CHECK_TIME           = "Date of last check:"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="str">
+        <f>CONCATENATE(ini!A8,REPT(" ",MAX(ini!B:B)-ini!B8+1),"= """,ini!D8,"""")</f>
+        <v>COM_SRCCHECK_USER_ID                   = "Last checked user ID:"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="str">
+        <f>CONCATENATE(ini!A9,REPT(" ",MAX(ini!B:B)-ini!B9+1),"= """,ini!D9,"""")</f>
+        <v>COM_SRCCHECK_USER_LOGIN                = "Last checked user login:"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="str">
+        <f>CONCATENATE(ini!A10,REPT(" ",MAX(ini!B:B)-ini!B10+1),"= """,ini!D10,"""")</f>
+        <v>COM_SRCCHECK_USER_NAME                 = "Last checked user name:"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="str">
+        <f>CONCATENATE(ini!A11,REPT(" ",MAX(ini!B:B)-ini!B11+1),"= """,ini!D11,"""")</f>
+        <v>COM_SRCCHECH_MANAGER_TITLE             = "Source Check"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="str">
+        <f>CONCATENATE(ini!A12,REPT(" ",MAX(ini!B:B)-ini!B12+1),"= """,ini!D12,"""")</f>
+        <v>COM_SRCCHECK_BTN_VERIFY                = "Verify"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="str">
+        <f>CONCATENATE(ini!A13,REPT(" ",MAX(ini!B:B)-ini!B13+1),"= """,ini!D13,"""")</f>
+        <v>COM_SRCCHECK_BTN_VALID                 = "Accept file[s]"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="str">
+        <f>CONCATENATE(ini!A14,REPT(" ",MAX(ini!B:B)-ini!B14+1),"= """,ini!D14,"""")</f>
+        <v>COM_SRCCHECK_BTN_ERASE                 = "Erase file[s]"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="str">
+        <f>CONCATENATE(ini!A15,REPT(" ",MAX(ini!B:B)-ini!B15+1),"= """,ini!D15,"""")</f>
+        <v>COM_SRCCHECK_SUBMENU_SUMMARY           = "Summary"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="str">
+        <f>CONCATENATE(ini!A16,REPT(" ",MAX(ini!B:B)-ini!B16+1),"= """,ini!D16,"""")</f>
+        <v>COM_SRCCHECK_SUBMENU_MANAGE            = "Manage"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="str">
+        <f>CONCATENATE(ini!A17,REPT(" ",MAX(ini!B:B)-ini!B17+1),"= """,ini!D17,"""")</f>
+        <v>COM_SRCCHECK_ADMINISTRATION            = "Source Check: Summary"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="str">
+        <f>CONCATENATE(ini!A18,REPT(" ",MAX(ini!B:B)-ini!B18+1),"= """,ini!D18,"""")</f>
+        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE     = "Source Check: Manage"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="str">
+        <f>CONCATENATE(ini!A19,REPT(" ",MAX(ini!B:B)-ini!B19+1),"= """,ini!D19,"""")</f>
+        <v>COM_SRECCHECK_NUM                      = "#"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="str">
+        <f>CONCATENATE(ini!A20,REPT(" ",MAX(ini!B:B)-ini!B20+1),"= """,ini!D20,"""")</f>
+        <v>COM_SRCCHECK_PATH                      = "Path"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="str">
+        <f>CONCATENATE(ini!A21,REPT(" ",MAX(ini!B:B)-ini!B21+1),"= """,ini!D21,"""")</f>
+        <v>COM_SRCCHECK_FILENAME                  = "File Name"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="str">
+        <f>CONCATENATE(ini!A22,REPT(" ",MAX(ini!B:B)-ini!B22+1),"= """,ini!D22,"""")</f>
+        <v>COM_SRCCHECK_STATUS                    = "File Status"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="str">
+        <f>CONCATENATE(ini!A23,REPT(" ",MAX(ini!B:B)-ini!B23+1),"= """,ini!D23,"""")</f>
+        <v>COM_SRCCHECK_VERYFIED_STATUS_FILE      = "Veryfied"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="str">
+        <f>CONCATENATE(ini!A24,REPT(" ",MAX(ini!B:B)-ini!B24+1),"= """,ini!D24,"""")</f>
+        <v>COM_SRCCHECK_NEW_STATUS_FILE           = "New file"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="str">
+        <f>CONCATENATE(ini!A25,REPT(" ",MAX(ini!B:B)-ini!B25+1),"= """,ini!D25,"""")</f>
+        <v>COM_SRCCHECK_VALID_STATUS_FILE         = "Valid"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="str">
+        <f>CONCATENATE(ini!A26,REPT(" ",MAX(ini!B:B)-ini!B26+1),"= """,ini!D26,"""")</f>
+        <v>COM_SRCCHECK_DELETED_STATUS_FILE       = "Deleted file"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="str">
+        <f>CONCATENATE(ini!A27,REPT(" ",MAX(ini!B:B)-ini!B27+1),"= """,ini!D27,"""")</f>
+        <v>COM_SRCCHECK_INVALID_STATUS_FILE       = "Invalid"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="str">
+        <f>CONCATENATE(ini!A28,REPT(" ",MAX(ini!B:B)-ini!B28+1),"= """,ini!D28,"""")</f>
+        <v>COM_SRCCHECK_VERYFIED                  = "Veryfication's Result"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="str">
+        <f>CONCATENATE(ini!A29,REPT(" ",MAX(ini!B:B)-ini!B29+1),"= """,ini!D29,"""")</f>
+        <v>COM_SRCCHECK_UNEXPECTED_STATUS_FILE    = "Unexpected"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="str">
+        <f>CONCATENATE(ini!A30,REPT(" ",MAX(ini!B:B)-ini!B30+1),"= """,ini!D30,"""")</f>
+        <v>COM_SRCCHECK_MANAGE_FILTER             = "Filters"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="str">
+        <f>CONCATENATE(ini!A31,REPT(" ",MAX(ini!B:B)-ini!B31+1),"= """,ini!D31,"""")</f>
+        <v>COM_SRCCHECK_FILTER_SELECT_STATUS_FILE = "- Select File Status -"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="str">
+        <f>CONCATENATE(ini!A32,REPT(" ",MAX(ini!B:B)-ini!B32+1),"= """,ini!D32,"""")</f>
+        <v>COM_SRCCHECK_FILTER_SELECT_VERYFIED    = "- Select Veryfication's Result -"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="str">
+        <f>CONCATENATE(ini!A33,REPT(" ",MAX(ini!B:B)-ini!B33+1),"= """,ini!D33,"""")</f>
+        <v>COM_SRCCHECK_SEARCH_PATH_FILE          = "Search in Paths and Filenames"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="str">
+        <f>CONCATENATE(ini!A34,REPT(" ",MAX(ini!B:B)-ini!B34+1),"= """,ini!D34,"""")</f>
+        <v>COM_SRCCHECK_FILTER_FILE_STATUS        = "Filter by file status"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="str">
+        <f>CONCATENATE(ini!A35,REPT(" ",MAX(ini!B:B)-ini!B35+1),"= """,ini!D35,"""")</f>
+        <v>COM_SRCCHECK_FILTER_FILE_VERYFIED      = "Filter by file veryfication result"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="str">
+        <f>CONCATENATE(ini!A36,REPT(" ",MAX(ini!B:B)-ini!B36+1),"= """,ini!D36,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="str">
+        <f>CONCATENATE(ini!A37,REPT(" ",MAX(ini!B:B)-ini!B37+1),"= """,ini!D37,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="str">
+        <f>CONCATENATE(ini!A38,REPT(" ",MAX(ini!B:B)-ini!B38+1),"= """,ini!D38,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="str">
+        <f>CONCATENATE(ini!A39,REPT(" ",MAX(ini!B:B)-ini!B39+1),"= """,ini!D39,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="str">
+        <f>CONCATENATE(ini!A40,REPT(" ",MAX(ini!B:B)-ini!B40+1),"= """,ini!D40,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3" t="str">
+        <f>CONCATENATE(ini!A41,REPT(" ",MAX(ini!B:B)-ini!B41+1),"= """,ini!D41,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="str">
+        <f>CONCATENATE(ini!A42,REPT(" ",MAX(ini!B:B)-ini!B42+1),"= """,ini!D42,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3" t="str">
+        <f>CONCATENATE(ini!A43,REPT(" ",MAX(ini!B:B)-ini!B43+1),"= """,ini!D43,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="3" t="str">
+        <f>CONCATENATE(ini!A44,REPT(" ",MAX(ini!B:B)-ini!B44+1),"= """,ini!D44,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="3" t="str">
+        <f>CONCATENATE(ini!A45,REPT(" ",MAX(ini!B:B)-ini!B45+1),"= """,ini!D45,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="3" t="str">
+        <f>CONCATENATE(ini!A46,REPT(" ",MAX(ini!B:B)-ini!B46+1),"= """,ini!D46,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3" t="str">
+        <f>CONCATENATE(ini!A47,REPT(" ",MAX(ini!B:B)-ini!B47+1),"= """,ini!D47,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3" t="str">
+        <f>CONCATENATE(ini!A48,REPT(" ",MAX(ini!B:B)-ini!B48+1),"= """,ini!D48,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3" t="str">
+        <f>CONCATENATE(ini!A49,REPT(" ",MAX(ini!B:B)-ini!B49+1),"= """,ini!D49,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="3" t="str">
+        <f>CONCATENATE(ini!A50,REPT(" ",MAX(ini!B:B)-ini!B50+1),"= """,ini!D50,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3" t="str">
+        <f>CONCATENATE(ini!A51,REPT(" ",MAX(ini!B:B)-ini!B51+1),"= """,ini!D51,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="3" t="str">
+        <f>CONCATENATE(ini!A52,REPT(" ",MAX(ini!B:B)-ini!B52+1),"= """,ini!D52,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="3" t="str">
+        <f>CONCATENATE(ini!A53,REPT(" ",MAX(ini!B:B)-ini!B53+1),"= """,ini!D53,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="3" t="str">
+        <f>CONCATENATE(ini!A54,REPT(" ",MAX(ini!B:B)-ini!B54+1),"= """,ini!D54,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="str">
+        <f>CONCATENATE(ini!A55,REPT(" ",MAX(ini!B:B)-ini!B55+1),"= """,ini!D55,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="3" t="str">
+        <f>CONCATENATE(ini!A56,REPT(" ",MAX(ini!B:B)-ini!B56+1),"= """,ini!D56,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="3" t="str">
+        <f>CONCATENATE(ini!A57,REPT(" ",MAX(ini!B:B)-ini!B57+1),"= """,ini!D57,"""")</f>
+        <v xml:space="preserve">                                       = ""</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
+      <c r="B2">
+        <f>LEN(A2)</f>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
+      <c r="B3">
+        <f t="shared" ref="B3:B38" si="0">LEN(A3)</f>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>32</v>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -923,424 +2838,606 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.25" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="46.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.5" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <f>LEN(A2)</f>
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B44" si="0">LEN(A3)</f>
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>88</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>90</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>102</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>103</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
         <v>106</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
         <v>111</v>
       </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
         <v>112</v>
       </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
         <v>113</v>
       </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
         <v>114</v>
       </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="D20" t="s">
         <v>57</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
         <v>115</v>
       </c>
-      <c r="C19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
         <v>116</v>
       </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
         <v>117</v>
       </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
         <v>121</v>
       </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
         <v>122</v>
       </c>
-      <c r="C26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
         <v>123</v>
       </c>
-      <c r="C27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
         <v>124</v>
       </c>
-      <c r="C28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>78</v>
       </c>
-      <c r="B30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>129</v>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>130</v>
+        <v>79</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
         <v>82</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
         <v>131</v>
       </c>
-      <c r="C33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D35" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" t="s">
-        <v>87</v>
+    <row r="36" spans="1:4">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/com_srccheck/translates_pl_en_de.xlsx
+++ b/com_srccheck/translates_pl_en_de.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="37680" windowHeight="18465" tabRatio="912"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="37680" windowHeight="18465" tabRatio="912" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="de-DE.com_srccheck.sys.ini" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="148">
   <si>
     <t>key</t>
   </si>
@@ -429,6 +429,42 @@
   </si>
   <si>
     <t>Copyright (C) 2020 Green Line. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_PERMISSION_VERIFY</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_PERMISSION_DESC_VERIFY</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_PERMISSION_VALID</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_PERMISSION_DESC_VALID</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_PERMISSION_ERASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM_SRCCHECK_PERMISSION_DESC_ERASE        </t>
+  </si>
+  <si>
+    <t>Uprawnienia do operacji akceptujacej poprawność plików.</t>
+  </si>
+  <si>
+    <t>Uprawnienia do operacji uruchamiajacej weryfikację plików.</t>
+  </si>
+  <si>
+    <t>Uprawnienia do operacji usówającej z historii sprawdzeń skasowane pliki.</t>
+  </si>
+  <si>
+    <t>Allow users to the operation that runs the file verification.</t>
+  </si>
+  <si>
+    <t>Allow users to the operation accepting the correctness of files.</t>
+  </si>
+  <si>
+    <t>Allow users to the operation to erase deleted files from the check history.</t>
   </si>
 </sst>
 </file>
@@ -779,7 +815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -1001,337 +1037,337 @@
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="str">
         <f>CONCATENATE(ini!A2,REPT(" ",MAX(ini!B:B)-ini!B2+1),"= """,ini!E2,"""")</f>
-        <v>COM_SRCCHECK_TOTALCOUNT_FILES          = ""</v>
+        <v>COM_SRCCHECK_TOTALCOUNT_FILES              = ""</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="str">
         <f>CONCATENATE(ini!A3,REPT(" ",MAX(ini!B:B)-ini!B3+1),"= """,ini!E3,"""")</f>
-        <v>COM_SRCCHECK_NEW_FILES                 = ""</v>
+        <v>COM_SRCCHECK_NEW_FILES                     = ""</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="str">
         <f>CONCATENATE(ini!A4,REPT(" ",MAX(ini!B:B)-ini!B4+1),"= """,ini!E4,"""")</f>
-        <v>COM_SRCCHECK_DELETED_FILES             = ""</v>
+        <v>COM_SRCCHECK_DELETED_FILES                 = ""</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="str">
         <f>CONCATENATE(ini!A5,REPT(" ",MAX(ini!B:B)-ini!B5+1),"= """,ini!E5,"""")</f>
-        <v>COM_SRCCHECK_COUNT_VERYFIED_POSITIVE   = ""</v>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_POSITIVE       = ""</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="str">
         <f>CONCATENATE(ini!A6,REPT(" ",MAX(ini!B:B)-ini!B6+1),"= """,ini!E6,"""")</f>
-        <v>COM_SRCCHECK_COUNT_VERYFIED_NEGATIVE   = ""</v>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_NEGATIVE       = ""</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(ini!A7,REPT(" ",MAX(ini!B:B)-ini!B7+1),"= """,ini!E7,"""")</f>
-        <v>COM_SRCCHECK_LAST_CHECK_TIME           = ""</v>
+        <v>COM_SRCCHECK_LAST_CHECK_TIME               = ""</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="str">
         <f>CONCATENATE(ini!A8,REPT(" ",MAX(ini!B:B)-ini!B8+1),"= """,ini!E8,"""")</f>
-        <v>COM_SRCCHECK_USER_ID                   = ""</v>
+        <v>COM_SRCCHECK_USER_ID                       = ""</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="str">
         <f>CONCATENATE(ini!A9,REPT(" ",MAX(ini!B:B)-ini!B9+1),"= """,ini!E9,"""")</f>
-        <v>COM_SRCCHECK_USER_LOGIN                = ""</v>
+        <v>COM_SRCCHECK_USER_LOGIN                    = ""</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(ini!A10,REPT(" ",MAX(ini!B:B)-ini!B10+1),"= """,ini!E10,"""")</f>
-        <v>COM_SRCCHECK_USER_NAME                 = ""</v>
+        <v>COM_SRCCHECK_USER_NAME                     = ""</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(ini!A11,REPT(" ",MAX(ini!B:B)-ini!B11+1),"= """,ini!E11,"""")</f>
-        <v>COM_SRCCHECH_MANAGER_TITLE             = ""</v>
+        <v>COM_SRCCHECH_MANAGER_TITLE                 = ""</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(ini!A12,REPT(" ",MAX(ini!B:B)-ini!B12+1),"= """,ini!E12,"""")</f>
-        <v>COM_SRCCHECK_BTN_VERIFY                = ""</v>
+        <v>COM_SRCCHECK_BTN_VERIFY                    = ""</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(ini!A13,REPT(" ",MAX(ini!B:B)-ini!B13+1),"= """,ini!E13,"""")</f>
-        <v>COM_SRCCHECK_BTN_VALID                 = ""</v>
+        <v>COM_SRCCHECK_BTN_VALID                     = ""</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="str">
         <f>CONCATENATE(ini!A14,REPT(" ",MAX(ini!B:B)-ini!B14+1),"= """,ini!E14,"""")</f>
-        <v>COM_SRCCHECK_BTN_ERASE                 = ""</v>
+        <v>COM_SRCCHECK_BTN_ERASE                     = ""</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="str">
         <f>CONCATENATE(ini!A15,REPT(" ",MAX(ini!B:B)-ini!B15+1),"= """,ini!E15,"""")</f>
-        <v>COM_SRCCHECK_SUBMENU_SUMMARY           = ""</v>
+        <v>COM_SRCCHECK_SUBMENU_SUMMARY               = ""</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="str">
         <f>CONCATENATE(ini!A16,REPT(" ",MAX(ini!B:B)-ini!B16+1),"= """,ini!E16,"""")</f>
-        <v>COM_SRCCHECK_SUBMENU_MANAGE            = ""</v>
+        <v>COM_SRCCHECK_SUBMENU_MANAGE                = ""</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
         <f>CONCATENATE(ini!A17,REPT(" ",MAX(ini!B:B)-ini!B17+1),"= """,ini!E17,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION            = ""</v>
+        <v>COM_SRCCHECK_ADMINISTRATION                = ""</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
         <f>CONCATENATE(ini!A18,REPT(" ",MAX(ini!B:B)-ini!B18+1),"= """,ini!E18,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE     = ""</v>
+        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE         = ""</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="str">
         <f>CONCATENATE(ini!A19,REPT(" ",MAX(ini!B:B)-ini!B19+1),"= """,ini!E19,"""")</f>
-        <v>COM_SRECCHECK_NUM                      = ""</v>
+        <v>COM_SRECCHECK_NUM                          = ""</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="str">
         <f>CONCATENATE(ini!A20,REPT(" ",MAX(ini!B:B)-ini!B20+1),"= """,ini!E20,"""")</f>
-        <v>COM_SRCCHECK_PATH                      = ""</v>
+        <v>COM_SRCCHECK_PATH                          = ""</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="str">
         <f>CONCATENATE(ini!A21,REPT(" ",MAX(ini!B:B)-ini!B21+1),"= """,ini!E21,"""")</f>
-        <v>COM_SRCCHECK_FILENAME                  = ""</v>
+        <v>COM_SRCCHECK_FILENAME                      = ""</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="str">
         <f>CONCATENATE(ini!A22,REPT(" ",MAX(ini!B:B)-ini!B22+1),"= """,ini!E22,"""")</f>
-        <v>COM_SRCCHECK_STATUS                    = ""</v>
+        <v>COM_SRCCHECK_STATUS                        = ""</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="str">
         <f>CONCATENATE(ini!A23,REPT(" ",MAX(ini!B:B)-ini!B23+1),"= """,ini!E23,"""")</f>
-        <v>COM_SRCCHECK_VERYFIED_STATUS_FILE      = ""</v>
+        <v>COM_SRCCHECK_VERYFIED_STATUS_FILE          = ""</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="str">
         <f>CONCATENATE(ini!A24,REPT(" ",MAX(ini!B:B)-ini!B24+1),"= """,ini!E24,"""")</f>
-        <v>COM_SRCCHECK_NEW_STATUS_FILE           = ""</v>
+        <v>COM_SRCCHECK_NEW_STATUS_FILE               = ""</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="str">
         <f>CONCATENATE(ini!A25,REPT(" ",MAX(ini!B:B)-ini!B25+1),"= """,ini!E25,"""")</f>
-        <v>COM_SRCCHECK_VALID_STATUS_FILE         = ""</v>
+        <v>COM_SRCCHECK_VALID_STATUS_FILE             = ""</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="str">
         <f>CONCATENATE(ini!A26,REPT(" ",MAX(ini!B:B)-ini!B26+1),"= """,ini!E26,"""")</f>
-        <v>COM_SRCCHECK_DELETED_STATUS_FILE       = ""</v>
+        <v>COM_SRCCHECK_DELETED_STATUS_FILE           = ""</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="str">
         <f>CONCATENATE(ini!A27,REPT(" ",MAX(ini!B:B)-ini!B27+1),"= """,ini!E27,"""")</f>
-        <v>COM_SRCCHECK_INVALID_STATUS_FILE       = ""</v>
+        <v>COM_SRCCHECK_INVALID_STATUS_FILE           = ""</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="str">
         <f>CONCATENATE(ini!A28,REPT(" ",MAX(ini!B:B)-ini!B28+1),"= """,ini!E28,"""")</f>
-        <v>COM_SRCCHECK_VERYFIED                  = ""</v>
+        <v>COM_SRCCHECK_VERYFIED                      = ""</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="str">
         <f>CONCATENATE(ini!A29,REPT(" ",MAX(ini!B:B)-ini!B29+1),"= """,ini!E29,"""")</f>
-        <v>COM_SRCCHECK_UNEXPECTED_STATUS_FILE    = ""</v>
+        <v>COM_SRCCHECK_UNEXPECTED_STATUS_FILE        = ""</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="str">
         <f>CONCATENATE(ini!A30,REPT(" ",MAX(ini!B:B)-ini!B30+1),"= """,ini!E30,"""")</f>
-        <v>COM_SRCCHECK_MANAGE_FILTER             = ""</v>
+        <v>COM_SRCCHECK_MANAGE_FILTER                 = ""</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="str">
         <f>CONCATENATE(ini!A31,REPT(" ",MAX(ini!B:B)-ini!B31+1),"= """,ini!E31,"""")</f>
-        <v>COM_SRCCHECK_FILTER_SELECT_STATUS_FILE = ""</v>
+        <v>COM_SRCCHECK_FILTER_SELECT_STATUS_FILE     = ""</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="str">
         <f>CONCATENATE(ini!A32,REPT(" ",MAX(ini!B:B)-ini!B32+1),"= """,ini!E32,"""")</f>
-        <v>COM_SRCCHECK_FILTER_SELECT_VERYFIED    = ""</v>
+        <v>COM_SRCCHECK_FILTER_SELECT_VERYFIED        = ""</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="str">
         <f>CONCATENATE(ini!A33,REPT(" ",MAX(ini!B:B)-ini!B33+1),"= """,ini!E33,"""")</f>
-        <v>COM_SRCCHECK_SEARCH_PATH_FILE          = ""</v>
+        <v>COM_SRCCHECK_SEARCH_PATH_FILE              = ""</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="str">
         <f>CONCATENATE(ini!A34,REPT(" ",MAX(ini!B:B)-ini!B34+1),"= """,ini!E34,"""")</f>
-        <v>COM_SRCCHECK_FILTER_FILE_STATUS        = ""</v>
+        <v>COM_SRCCHECK_FILTER_FILE_STATUS            = ""</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="str">
         <f>CONCATENATE(ini!A35,REPT(" ",MAX(ini!B:B)-ini!B35+1),"= """,ini!E35,"""")</f>
-        <v>COM_SRCCHECK_FILTER_FILE_VERYFIED      = ""</v>
+        <v>COM_SRCCHECK_FILTER_FILE_VERYFIED          = ""</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3" t="str">
         <f>CONCATENATE(ini!A36,REPT(" ",MAX(ini!B:B)-ini!B36+1),"= """,ini!E36,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_VERIFY             = ""</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="str">
         <f>CONCATENATE(ini!A37,REPT(" ",MAX(ini!B:B)-ini!B37+1),"= """,ini!E37,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_VERIFY        = ""</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="str">
         <f>CONCATENATE(ini!A38,REPT(" ",MAX(ini!B:B)-ini!B38+1),"= """,ini!E38,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_VALID              = ""</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="str">
         <f>CONCATENATE(ini!A39,REPT(" ",MAX(ini!B:B)-ini!B39+1),"= """,ini!E39,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_VALID         = ""</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="str">
         <f>CONCATENATE(ini!A40,REPT(" ",MAX(ini!B:B)-ini!B40+1),"= """,ini!E40,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_ERASE              = ""</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="str">
         <f>CONCATENATE(ini!A41,REPT(" ",MAX(ini!B:B)-ini!B41+1),"= """,ini!E41,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_ERASE         = ""</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="str">
         <f>CONCATENATE(ini!A42,REPT(" ",MAX(ini!B:B)-ini!B42+1),"= """,ini!E42,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="str">
         <f>CONCATENATE(ini!A43,REPT(" ",MAX(ini!B:B)-ini!B43+1),"= """,ini!E43,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="str">
         <f>CONCATENATE(ini!A44,REPT(" ",MAX(ini!B:B)-ini!B44+1),"= """,ini!E44,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3" t="str">
         <f>CONCATENATE(ini!A45,REPT(" ",MAX(ini!B:B)-ini!B45+1),"= """,ini!E45,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="str">
         <f>CONCATENATE(ini!A46,REPT(" ",MAX(ini!B:B)-ini!B46+1),"= """,ini!E46,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="3" t="str">
         <f>CONCATENATE(ini!A47,REPT(" ",MAX(ini!B:B)-ini!B47+1),"= """,ini!E47,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="3" t="str">
         <f>CONCATENATE(ini!A48,REPT(" ",MAX(ini!B:B)-ini!B48+1),"= """,ini!E48,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="3" t="str">
         <f>CONCATENATE(ini!A49,REPT(" ",MAX(ini!B:B)-ini!B49+1),"= """,ini!E49,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="3" t="str">
         <f>CONCATENATE(ini!A50,REPT(" ",MAX(ini!B:B)-ini!B50+1),"= """,ini!E50,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="3" t="str">
         <f>CONCATENATE(ini!A51,REPT(" ",MAX(ini!B:B)-ini!B51+1),"= """,ini!E51,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="3" t="str">
         <f>CONCATENATE(ini!A52,REPT(" ",MAX(ini!B:B)-ini!B52+1),"= """,ini!E52,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="3" t="str">
         <f>CONCATENATE(ini!A53,REPT(" ",MAX(ini!B:B)-ini!B53+1),"= """,ini!E53,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="3" t="str">
         <f>CONCATENATE(ini!A54,REPT(" ",MAX(ini!B:B)-ini!B54+1),"= """,ini!E54,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="3" t="str">
         <f>CONCATENATE(ini!A55,REPT(" ",MAX(ini!B:B)-ini!B55+1),"= """,ini!E55,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="3" t="str">
         <f>CONCATENATE(ini!A56,REPT(" ",MAX(ini!B:B)-ini!B56+1),"= """,ini!E56,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="3" t="str">
         <f>CONCATENATE(ini!A57,REPT(" ",MAX(ini!B:B)-ini!B57+1),"= """,ini!E57,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1585,7 @@
   <dimension ref="A1:A57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A35"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1565,337 +1601,337 @@
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="str">
         <f>CONCATENATE(ini!A2,REPT(" ",MAX(ini!B:B)-ini!B2+1),"= """,ini!C2,"""")</f>
-        <v>COM_SRCCHECK_TOTALCOUNT_FILES          = "Ilość zweryfikowanych plików:"</v>
+        <v>COM_SRCCHECK_TOTALCOUNT_FILES              = "Ilość zweryfikowanych plików:"</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="str">
         <f>CONCATENATE(ini!A3,REPT(" ",MAX(ini!B:B)-ini!B3+1),"= """,ini!C3,"""")</f>
-        <v>COM_SRCCHECK_NEW_FILES                 = "Ilość nowych plików:"</v>
+        <v>COM_SRCCHECK_NEW_FILES                     = "Ilość nowych plików:"</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="str">
         <f>CONCATENATE(ini!A4,REPT(" ",MAX(ini!B:B)-ini!B4+1),"= """,ini!C4,"""")</f>
-        <v>COM_SRCCHECK_DELETED_FILES             = "Ilość usuniętych plików:"</v>
+        <v>COM_SRCCHECK_DELETED_FILES                 = "Ilość usuniętych plików:"</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="str">
         <f>CONCATENATE(ini!A5,REPT(" ",MAX(ini!B:B)-ini!B5+1),"= """,ini!C5,"""")</f>
-        <v>COM_SRCCHECK_COUNT_VERYFIED_POSITIVE   = "Ilość plików zweryfikowanych poprawnie:"</v>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_POSITIVE       = "Ilość plików zweryfikowanych poprawnie:"</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="str">
         <f>CONCATENATE(ini!A6,REPT(" ",MAX(ini!B:B)-ini!B6+1),"= """,ini!C6,"""")</f>
-        <v>COM_SRCCHECK_COUNT_VERYFIED_NEGATIVE   = "Ilość plików zweryfikowanych niepoprawnie:"</v>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_NEGATIVE       = "Ilość plików zweryfikowanych niepoprawnie:"</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(ini!A7,REPT(" ",MAX(ini!B:B)-ini!B7+1),"= """,ini!C7,"""")</f>
-        <v>COM_SRCCHECK_LAST_CHECK_TIME           = "Data ostatniej weryfikacji:"</v>
+        <v>COM_SRCCHECK_LAST_CHECK_TIME               = "Data ostatniej weryfikacji:"</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="str">
         <f>CONCATENATE(ini!A8,REPT(" ",MAX(ini!B:B)-ini!B8+1),"= """,ini!C8,"""")</f>
-        <v>COM_SRCCHECK_USER_ID                   = "Identyfikator użytkowniaka który ostatnio weryfikował:"</v>
+        <v>COM_SRCCHECK_USER_ID                       = "Identyfikator użytkowniaka który ostatnio weryfikował:"</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="str">
         <f>CONCATENATE(ini!A9,REPT(" ",MAX(ini!B:B)-ini!B9+1),"= """,ini!C9,"""")</f>
-        <v>COM_SRCCHECK_USER_LOGIN                = "Login użytkowniaka który ostatnio weryfikował:"</v>
+        <v>COM_SRCCHECK_USER_LOGIN                    = "Login użytkowniaka który ostatnio weryfikował:"</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(ini!A10,REPT(" ",MAX(ini!B:B)-ini!B10+1),"= """,ini!C10,"""")</f>
-        <v>COM_SRCCHECK_USER_NAME                 = "Nazwa użytkowniaka który ostatnio weryfikował:"</v>
+        <v>COM_SRCCHECK_USER_NAME                     = "Nazwa użytkowniaka który ostatnio weryfikował:"</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(ini!A11,REPT(" ",MAX(ini!B:B)-ini!B11+1),"= """,ini!C11,"""")</f>
-        <v>COM_SRCCHECH_MANAGER_TITLE             = "Source Check"</v>
+        <v>COM_SRCCHECH_MANAGER_TITLE                 = "Source Check"</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(ini!A12,REPT(" ",MAX(ini!B:B)-ini!B12+1),"= """,ini!C12,"""")</f>
-        <v>COM_SRCCHECK_BTN_VERIFY                = "Weryfikuj"</v>
+        <v>COM_SRCCHECK_BTN_VERIFY                    = "Weryfikuj"</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(ini!A13,REPT(" ",MAX(ini!B:B)-ini!B13+1),"= """,ini!C13,"""")</f>
-        <v>COM_SRCCHECK_BTN_VALID                 = "Zaakceptuj plik[i]"</v>
+        <v>COM_SRCCHECK_BTN_VALID                     = "Zaakceptuj plik[i]"</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="str">
         <f>CONCATENATE(ini!A14,REPT(" ",MAX(ini!B:B)-ini!B14+1),"= """,ini!C14,"""")</f>
-        <v>COM_SRCCHECK_BTN_ERASE                 = "Usuń plik[i]"</v>
+        <v>COM_SRCCHECK_BTN_ERASE                     = "Usuń plik[i]"</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="str">
         <f>CONCATENATE(ini!A15,REPT(" ",MAX(ini!B:B)-ini!B15+1),"= """,ini!C15,"""")</f>
-        <v>COM_SRCCHECK_SUBMENU_SUMMARY           = "Podsumowanie"</v>
+        <v>COM_SRCCHECK_SUBMENU_SUMMARY               = "Podsumowanie"</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="str">
         <f>CONCATENATE(ini!A16,REPT(" ",MAX(ini!B:B)-ini!B16+1),"= """,ini!C16,"""")</f>
-        <v>COM_SRCCHECK_SUBMENU_MANAGE            = "Zarządzaj"</v>
+        <v>COM_SRCCHECK_SUBMENU_MANAGE                = "Zarządzaj"</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
         <f>CONCATENATE(ini!A17,REPT(" ",MAX(ini!B:B)-ini!B17+1),"= """,ini!C17,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION            = "Source Check: Podsumowanie"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION                = "Source Check: Podsumowanie"</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
         <f>CONCATENATE(ini!A18,REPT(" ",MAX(ini!B:B)-ini!B18+1),"= """,ini!C18,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE     = "Source Check: Zarządzaj"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE         = "Source Check: Zarządzaj"</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="str">
         <f>CONCATENATE(ini!A19,REPT(" ",MAX(ini!B:B)-ini!B19+1),"= """,ini!C19,"""")</f>
-        <v>COM_SRECCHECK_NUM                      = "#"</v>
+        <v>COM_SRECCHECK_NUM                          = "#"</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="str">
         <f>CONCATENATE(ini!A20,REPT(" ",MAX(ini!B:B)-ini!B20+1),"= """,ini!C20,"""")</f>
-        <v>COM_SRCCHECK_PATH                      = "Ścieżka pliku"</v>
+        <v>COM_SRCCHECK_PATH                          = "Ścieżka pliku"</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="str">
         <f>CONCATENATE(ini!A21,REPT(" ",MAX(ini!B:B)-ini!B21+1),"= """,ini!C21,"""")</f>
-        <v>COM_SRCCHECK_FILENAME                  = "Nazwa pliku"</v>
+        <v>COM_SRCCHECK_FILENAME                      = "Nazwa pliku"</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="str">
         <f>CONCATENATE(ini!A22,REPT(" ",MAX(ini!B:B)-ini!B22+1),"= """,ini!C22,"""")</f>
-        <v>COM_SRCCHECK_STATUS                    = "Status pliku"</v>
+        <v>COM_SRCCHECK_STATUS                        = "Status pliku"</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="str">
         <f>CONCATENATE(ini!A23,REPT(" ",MAX(ini!B:B)-ini!B23+1),"= """,ini!C23,"""")</f>
-        <v>COM_SRCCHECK_VERYFIED_STATUS_FILE      = "Zweryfikowany"</v>
+        <v>COM_SRCCHECK_VERYFIED_STATUS_FILE          = "Zweryfikowany"</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="str">
         <f>CONCATENATE(ini!A24,REPT(" ",MAX(ini!B:B)-ini!B24+1),"= """,ini!C24,"""")</f>
-        <v>COM_SRCCHECK_NEW_STATUS_FILE           = "Nowy plik"</v>
+        <v>COM_SRCCHECK_NEW_STATUS_FILE               = "Nowy plik"</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="str">
         <f>CONCATENATE(ini!A25,REPT(" ",MAX(ini!B:B)-ini!B25+1),"= """,ini!C25,"""")</f>
-        <v>COM_SRCCHECK_VALID_STATUS_FILE         = "Poprawny"</v>
+        <v>COM_SRCCHECK_VALID_STATUS_FILE             = "Poprawny"</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="str">
         <f>CONCATENATE(ini!A26,REPT(" ",MAX(ini!B:B)-ini!B26+1),"= """,ini!C26,"""")</f>
-        <v>COM_SRCCHECK_DELETED_STATUS_FILE       = "Usunięty plik"</v>
+        <v>COM_SRCCHECK_DELETED_STATUS_FILE           = "Usunięty plik"</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="str">
         <f>CONCATENATE(ini!A27,REPT(" ",MAX(ini!B:B)-ini!B27+1),"= """,ini!C27,"""")</f>
-        <v>COM_SRCCHECK_INVALID_STATUS_FILE       = "Niepoprawny"</v>
+        <v>COM_SRCCHECK_INVALID_STATUS_FILE           = "Niepoprawny"</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="str">
         <f>CONCATENATE(ini!A28,REPT(" ",MAX(ini!B:B)-ini!B28+1),"= """,ini!C28,"""")</f>
-        <v>COM_SRCCHECK_VERYFIED                  = "Rezultat weryfikacji"</v>
+        <v>COM_SRCCHECK_VERYFIED                      = "Rezultat weryfikacji"</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="str">
         <f>CONCATENATE(ini!A29,REPT(" ",MAX(ini!B:B)-ini!B29+1),"= """,ini!C29,"""")</f>
-        <v>COM_SRCCHECK_UNEXPECTED_STATUS_FILE    = "Nieoczekiwany"</v>
+        <v>COM_SRCCHECK_UNEXPECTED_STATUS_FILE        = "Nieoczekiwany"</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="str">
         <f>CONCATENATE(ini!A30,REPT(" ",MAX(ini!B:B)-ini!B30+1),"= """,ini!C30,"""")</f>
-        <v>COM_SRCCHECK_MANAGE_FILTER             = "Filtry"</v>
+        <v>COM_SRCCHECK_MANAGE_FILTER                 = "Filtry"</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="str">
         <f>CONCATENATE(ini!A31,REPT(" ",MAX(ini!B:B)-ini!B31+1),"= """,ini!C31,"""")</f>
-        <v>COM_SRCCHECK_FILTER_SELECT_STATUS_FILE = "- Wybierz status pliku -"</v>
+        <v>COM_SRCCHECK_FILTER_SELECT_STATUS_FILE     = "- Wybierz status pliku -"</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="str">
         <f>CONCATENATE(ini!A32,REPT(" ",MAX(ini!B:B)-ini!B32+1),"= """,ini!C32,"""")</f>
-        <v>COM_SRCCHECK_FILTER_SELECT_VERYFIED    = "- Wybierz rezultat weryfikacji -"</v>
+        <v>COM_SRCCHECK_FILTER_SELECT_VERYFIED        = "- Wybierz rezultat weryfikacji -"</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="str">
         <f>CONCATENATE(ini!A33,REPT(" ",MAX(ini!B:B)-ini!B33+1),"= """,ini!C33,"""")</f>
-        <v>COM_SRCCHECK_SEARCH_PATH_FILE          = "Szukaj w ścieżkach dostępu i nazwach plików"</v>
+        <v>COM_SRCCHECK_SEARCH_PATH_FILE              = "Szukaj w ścieżkach dostępu i nazwach plików"</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="str">
         <f>CONCATENATE(ini!A34,REPT(" ",MAX(ini!B:B)-ini!B34+1),"= """,ini!C34,"""")</f>
-        <v>COM_SRCCHECK_FILTER_FILE_STATUS        = "Filtruj po statusie pliku"</v>
+        <v>COM_SRCCHECK_FILTER_FILE_STATUS            = "Filtruj po statusie pliku"</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="str">
         <f>CONCATENATE(ini!A35,REPT(" ",MAX(ini!B:B)-ini!B35+1),"= """,ini!C35,"""")</f>
-        <v>COM_SRCCHECK_FILTER_FILE_VERYFIED      = "Filtruj po rezultacie weryfikacji"</v>
+        <v>COM_SRCCHECK_FILTER_FILE_VERYFIED          = "Filtruj po rezultacie weryfikacji"</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3" t="str">
         <f>CONCATENATE(ini!A36,REPT(" ",MAX(ini!B:B)-ini!B36+1),"= """,ini!C36,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_VERIFY             = "Weryfikuj"</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="str">
         <f>CONCATENATE(ini!A37,REPT(" ",MAX(ini!B:B)-ini!B37+1),"= """,ini!C37,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_VERIFY        = "Uprawnienia do operacji uruchamiajacej weryfikację plików."</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="str">
         <f>CONCATENATE(ini!A38,REPT(" ",MAX(ini!B:B)-ini!B38+1),"= """,ini!C38,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_VALID              = "Zaakceptuj plik[i]"</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="str">
         <f>CONCATENATE(ini!A39,REPT(" ",MAX(ini!B:B)-ini!B39+1),"= """,ini!C39,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_VALID         = "Uprawnienia do operacji akceptujacej poprawność plików."</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="str">
         <f>CONCATENATE(ini!A40,REPT(" ",MAX(ini!B:B)-ini!B40+1),"= """,ini!C40,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_ERASE              = "Usuń plik[i]"</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="str">
         <f>CONCATENATE(ini!A41,REPT(" ",MAX(ini!B:B)-ini!B41+1),"= """,ini!C41,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_ERASE         = "Uprawnienia do operacji usówającej z historii sprawdzeń skasowane pliki."</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="str">
         <f>CONCATENATE(ini!A42,REPT(" ",MAX(ini!B:B)-ini!B42+1),"= """,ini!C42,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="str">
         <f>CONCATENATE(ini!A43,REPT(" ",MAX(ini!B:B)-ini!B43+1),"= """,ini!C43,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="str">
         <f>CONCATENATE(ini!A44,REPT(" ",MAX(ini!B:B)-ini!B44+1),"= """,ini!C44,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3" t="str">
         <f>CONCATENATE(ini!A45,REPT(" ",MAX(ini!B:B)-ini!B45+1),"= """,ini!C45,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="str">
         <f>CONCATENATE(ini!A46,REPT(" ",MAX(ini!B:B)-ini!B46+1),"= """,ini!C46,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="3" t="str">
         <f>CONCATENATE(ini!A47,REPT(" ",MAX(ini!B:B)-ini!B47+1),"= """,ini!C47,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="3" t="str">
         <f>CONCATENATE(ini!A48,REPT(" ",MAX(ini!B:B)-ini!B48+1),"= """,ini!C48,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="3" t="str">
         <f>CONCATENATE(ini!A49,REPT(" ",MAX(ini!B:B)-ini!B49+1),"= """,ini!C49,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="3" t="str">
         <f>CONCATENATE(ini!A50,REPT(" ",MAX(ini!B:B)-ini!B50+1),"= """,ini!C50,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="3" t="str">
         <f>CONCATENATE(ini!A51,REPT(" ",MAX(ini!B:B)-ini!B51+1),"= """,ini!C51,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="3" t="str">
         <f>CONCATENATE(ini!A52,REPT(" ",MAX(ini!B:B)-ini!B52+1),"= """,ini!C52,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="3" t="str">
         <f>CONCATENATE(ini!A53,REPT(" ",MAX(ini!B:B)-ini!B53+1),"= """,ini!C53,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="3" t="str">
         <f>CONCATENATE(ini!A54,REPT(" ",MAX(ini!B:B)-ini!B54+1),"= """,ini!C54,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="3" t="str">
         <f>CONCATENATE(ini!A55,REPT(" ",MAX(ini!B:B)-ini!B55+1),"= """,ini!C55,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="3" t="str">
         <f>CONCATENATE(ini!A56,REPT(" ",MAX(ini!B:B)-ini!B56+1),"= """,ini!C56,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="3" t="str">
         <f>CONCATENATE(ini!A57,REPT(" ",MAX(ini!B:B)-ini!B57+1),"= """,ini!C57,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
   </sheetData>
@@ -2114,7 +2150,7 @@
   <dimension ref="A1:A57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A35"/>
+      <selection activeCell="A41" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2130,337 +2166,337 @@
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="str">
         <f>CONCATENATE(ini!A2,REPT(" ",MAX(ini!B:B)-ini!B2+1),"= """,ini!D2,"""")</f>
-        <v>COM_SRCCHECK_TOTALCOUNT_FILES          = "Number of verified files:"</v>
+        <v>COM_SRCCHECK_TOTALCOUNT_FILES              = "Number of verified files:"</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="str">
         <f>CONCATENATE(ini!A3,REPT(" ",MAX(ini!B:B)-ini!B3+1),"= """,ini!D3,"""")</f>
-        <v>COM_SRCCHECK_NEW_FILES                 = "Number of new files:"</v>
+        <v>COM_SRCCHECK_NEW_FILES                     = "Number of new files:"</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="str">
         <f>CONCATENATE(ini!A4,REPT(" ",MAX(ini!B:B)-ini!B4+1),"= """,ini!D4,"""")</f>
-        <v>COM_SRCCHECK_DELETED_FILES             = "Number of deleted files:"</v>
+        <v>COM_SRCCHECK_DELETED_FILES                 = "Number of deleted files:"</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="str">
         <f>CONCATENATE(ini!A5,REPT(" ",MAX(ini!B:B)-ini!B5+1),"= """,ini!D5,"""")</f>
-        <v>COM_SRCCHECK_COUNT_VERYFIED_POSITIVE   = "Number of files verified correctly:"</v>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_POSITIVE       = "Number of files verified correctly:"</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="str">
         <f>CONCATENATE(ini!A6,REPT(" ",MAX(ini!B:B)-ini!B6+1),"= """,ini!D6,"""")</f>
-        <v>COM_SRCCHECK_COUNT_VERYFIED_NEGATIVE   = "Number of files verified incorrectly:"</v>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_NEGATIVE       = "Number of files verified incorrectly:"</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(ini!A7,REPT(" ",MAX(ini!B:B)-ini!B7+1),"= """,ini!D7,"""")</f>
-        <v>COM_SRCCHECK_LAST_CHECK_TIME           = "Date of last check:"</v>
+        <v>COM_SRCCHECK_LAST_CHECK_TIME               = "Date of last check:"</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="str">
         <f>CONCATENATE(ini!A8,REPT(" ",MAX(ini!B:B)-ini!B8+1),"= """,ini!D8,"""")</f>
-        <v>COM_SRCCHECK_USER_ID                   = "Last checked user ID:"</v>
+        <v>COM_SRCCHECK_USER_ID                       = "Last checked user ID:"</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="str">
         <f>CONCATENATE(ini!A9,REPT(" ",MAX(ini!B:B)-ini!B9+1),"= """,ini!D9,"""")</f>
-        <v>COM_SRCCHECK_USER_LOGIN                = "Last checked user login:"</v>
+        <v>COM_SRCCHECK_USER_LOGIN                    = "Last checked user login:"</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(ini!A10,REPT(" ",MAX(ini!B:B)-ini!B10+1),"= """,ini!D10,"""")</f>
-        <v>COM_SRCCHECK_USER_NAME                 = "Last checked user name:"</v>
+        <v>COM_SRCCHECK_USER_NAME                     = "Last checked user name:"</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(ini!A11,REPT(" ",MAX(ini!B:B)-ini!B11+1),"= """,ini!D11,"""")</f>
-        <v>COM_SRCCHECH_MANAGER_TITLE             = "Source Check"</v>
+        <v>COM_SRCCHECH_MANAGER_TITLE                 = "Source Check"</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(ini!A12,REPT(" ",MAX(ini!B:B)-ini!B12+1),"= """,ini!D12,"""")</f>
-        <v>COM_SRCCHECK_BTN_VERIFY                = "Verify"</v>
+        <v>COM_SRCCHECK_BTN_VERIFY                    = "Verify"</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(ini!A13,REPT(" ",MAX(ini!B:B)-ini!B13+1),"= """,ini!D13,"""")</f>
-        <v>COM_SRCCHECK_BTN_VALID                 = "Accept file[s]"</v>
+        <v>COM_SRCCHECK_BTN_VALID                     = "Accept file[s]"</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="str">
         <f>CONCATENATE(ini!A14,REPT(" ",MAX(ini!B:B)-ini!B14+1),"= """,ini!D14,"""")</f>
-        <v>COM_SRCCHECK_BTN_ERASE                 = "Erase file[s]"</v>
+        <v>COM_SRCCHECK_BTN_ERASE                     = "Erase file[s]"</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="str">
         <f>CONCATENATE(ini!A15,REPT(" ",MAX(ini!B:B)-ini!B15+1),"= """,ini!D15,"""")</f>
-        <v>COM_SRCCHECK_SUBMENU_SUMMARY           = "Summary"</v>
+        <v>COM_SRCCHECK_SUBMENU_SUMMARY               = "Summary"</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="str">
         <f>CONCATENATE(ini!A16,REPT(" ",MAX(ini!B:B)-ini!B16+1),"= """,ini!D16,"""")</f>
-        <v>COM_SRCCHECK_SUBMENU_MANAGE            = "Manage"</v>
+        <v>COM_SRCCHECK_SUBMENU_MANAGE                = "Manage"</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
         <f>CONCATENATE(ini!A17,REPT(" ",MAX(ini!B:B)-ini!B17+1),"= """,ini!D17,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION            = "Source Check: Summary"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION                = "Source Check: Summary"</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
         <f>CONCATENATE(ini!A18,REPT(" ",MAX(ini!B:B)-ini!B18+1),"= """,ini!D18,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE     = "Source Check: Manage"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE         = "Source Check: Manage"</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="str">
         <f>CONCATENATE(ini!A19,REPT(" ",MAX(ini!B:B)-ini!B19+1),"= """,ini!D19,"""")</f>
-        <v>COM_SRECCHECK_NUM                      = "#"</v>
+        <v>COM_SRECCHECK_NUM                          = "#"</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="str">
         <f>CONCATENATE(ini!A20,REPT(" ",MAX(ini!B:B)-ini!B20+1),"= """,ini!D20,"""")</f>
-        <v>COM_SRCCHECK_PATH                      = "Path"</v>
+        <v>COM_SRCCHECK_PATH                          = "Path"</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="str">
         <f>CONCATENATE(ini!A21,REPT(" ",MAX(ini!B:B)-ini!B21+1),"= """,ini!D21,"""")</f>
-        <v>COM_SRCCHECK_FILENAME                  = "File Name"</v>
+        <v>COM_SRCCHECK_FILENAME                      = "File Name"</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="str">
         <f>CONCATENATE(ini!A22,REPT(" ",MAX(ini!B:B)-ini!B22+1),"= """,ini!D22,"""")</f>
-        <v>COM_SRCCHECK_STATUS                    = "File Status"</v>
+        <v>COM_SRCCHECK_STATUS                        = "File Status"</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="str">
         <f>CONCATENATE(ini!A23,REPT(" ",MAX(ini!B:B)-ini!B23+1),"= """,ini!D23,"""")</f>
-        <v>COM_SRCCHECK_VERYFIED_STATUS_FILE      = "Veryfied"</v>
+        <v>COM_SRCCHECK_VERYFIED_STATUS_FILE          = "Veryfied"</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="str">
         <f>CONCATENATE(ini!A24,REPT(" ",MAX(ini!B:B)-ini!B24+1),"= """,ini!D24,"""")</f>
-        <v>COM_SRCCHECK_NEW_STATUS_FILE           = "New file"</v>
+        <v>COM_SRCCHECK_NEW_STATUS_FILE               = "New file"</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="str">
         <f>CONCATENATE(ini!A25,REPT(" ",MAX(ini!B:B)-ini!B25+1),"= """,ini!D25,"""")</f>
-        <v>COM_SRCCHECK_VALID_STATUS_FILE         = "Valid"</v>
+        <v>COM_SRCCHECK_VALID_STATUS_FILE             = "Valid"</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="str">
         <f>CONCATENATE(ini!A26,REPT(" ",MAX(ini!B:B)-ini!B26+1),"= """,ini!D26,"""")</f>
-        <v>COM_SRCCHECK_DELETED_STATUS_FILE       = "Deleted file"</v>
+        <v>COM_SRCCHECK_DELETED_STATUS_FILE           = "Deleted file"</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="str">
         <f>CONCATENATE(ini!A27,REPT(" ",MAX(ini!B:B)-ini!B27+1),"= """,ini!D27,"""")</f>
-        <v>COM_SRCCHECK_INVALID_STATUS_FILE       = "Invalid"</v>
+        <v>COM_SRCCHECK_INVALID_STATUS_FILE           = "Invalid"</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="str">
         <f>CONCATENATE(ini!A28,REPT(" ",MAX(ini!B:B)-ini!B28+1),"= """,ini!D28,"""")</f>
-        <v>COM_SRCCHECK_VERYFIED                  = "Veryfication's Result"</v>
+        <v>COM_SRCCHECK_VERYFIED                      = "Veryfication's Result"</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="str">
         <f>CONCATENATE(ini!A29,REPT(" ",MAX(ini!B:B)-ini!B29+1),"= """,ini!D29,"""")</f>
-        <v>COM_SRCCHECK_UNEXPECTED_STATUS_FILE    = "Unexpected"</v>
+        <v>COM_SRCCHECK_UNEXPECTED_STATUS_FILE        = "Unexpected"</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="str">
         <f>CONCATENATE(ini!A30,REPT(" ",MAX(ini!B:B)-ini!B30+1),"= """,ini!D30,"""")</f>
-        <v>COM_SRCCHECK_MANAGE_FILTER             = "Filters"</v>
+        <v>COM_SRCCHECK_MANAGE_FILTER                 = "Filters"</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="str">
         <f>CONCATENATE(ini!A31,REPT(" ",MAX(ini!B:B)-ini!B31+1),"= """,ini!D31,"""")</f>
-        <v>COM_SRCCHECK_FILTER_SELECT_STATUS_FILE = "- Select File Status -"</v>
+        <v>COM_SRCCHECK_FILTER_SELECT_STATUS_FILE     = "- Select File Status -"</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="str">
         <f>CONCATENATE(ini!A32,REPT(" ",MAX(ini!B:B)-ini!B32+1),"= """,ini!D32,"""")</f>
-        <v>COM_SRCCHECK_FILTER_SELECT_VERYFIED    = "- Select Veryfication's Result -"</v>
+        <v>COM_SRCCHECK_FILTER_SELECT_VERYFIED        = "- Select Veryfication's Result -"</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="str">
         <f>CONCATENATE(ini!A33,REPT(" ",MAX(ini!B:B)-ini!B33+1),"= """,ini!D33,"""")</f>
-        <v>COM_SRCCHECK_SEARCH_PATH_FILE          = "Search in Paths and Filenames"</v>
+        <v>COM_SRCCHECK_SEARCH_PATH_FILE              = "Search in Paths and Filenames"</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="str">
         <f>CONCATENATE(ini!A34,REPT(" ",MAX(ini!B:B)-ini!B34+1),"= """,ini!D34,"""")</f>
-        <v>COM_SRCCHECK_FILTER_FILE_STATUS        = "Filter by file status"</v>
+        <v>COM_SRCCHECK_FILTER_FILE_STATUS            = "Filter by file status"</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="str">
         <f>CONCATENATE(ini!A35,REPT(" ",MAX(ini!B:B)-ini!B35+1),"= """,ini!D35,"""")</f>
-        <v>COM_SRCCHECK_FILTER_FILE_VERYFIED      = "Filter by file veryfication result"</v>
+        <v>COM_SRCCHECK_FILTER_FILE_VERYFIED          = "Filter by file veryfication result"</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3" t="str">
         <f>CONCATENATE(ini!A36,REPT(" ",MAX(ini!B:B)-ini!B36+1),"= """,ini!D36,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_VERIFY             = "Verify"</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="str">
         <f>CONCATENATE(ini!A37,REPT(" ",MAX(ini!B:B)-ini!B37+1),"= """,ini!D37,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_VERIFY        = "Allow users to the operation that runs the file verification."</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="str">
         <f>CONCATENATE(ini!A38,REPT(" ",MAX(ini!B:B)-ini!B38+1),"= """,ini!D38,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_VALID              = "Accept file[s]"</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="str">
         <f>CONCATENATE(ini!A39,REPT(" ",MAX(ini!B:B)-ini!B39+1),"= """,ini!D39,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_VALID         = "Allow users to the operation accepting the correctness of files."</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="str">
         <f>CONCATENATE(ini!A40,REPT(" ",MAX(ini!B:B)-ini!B40+1),"= """,ini!D40,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_ERASE              = "Erase file[s]"</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="str">
         <f>CONCATENATE(ini!A41,REPT(" ",MAX(ini!B:B)-ini!B41+1),"= """,ini!D41,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_ERASE         = "Allow users to the operation to erase deleted files from the check history."</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="str">
         <f>CONCATENATE(ini!A42,REPT(" ",MAX(ini!B:B)-ini!B42+1),"= """,ini!D42,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="str">
         <f>CONCATENATE(ini!A43,REPT(" ",MAX(ini!B:B)-ini!B43+1),"= """,ini!D43,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="str">
         <f>CONCATENATE(ini!A44,REPT(" ",MAX(ini!B:B)-ini!B44+1),"= """,ini!D44,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3" t="str">
         <f>CONCATENATE(ini!A45,REPT(" ",MAX(ini!B:B)-ini!B45+1),"= """,ini!D45,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="str">
         <f>CONCATENATE(ini!A46,REPT(" ",MAX(ini!B:B)-ini!B46+1),"= """,ini!D46,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="3" t="str">
         <f>CONCATENATE(ini!A47,REPT(" ",MAX(ini!B:B)-ini!B47+1),"= """,ini!D47,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="3" t="str">
         <f>CONCATENATE(ini!A48,REPT(" ",MAX(ini!B:B)-ini!B48+1),"= """,ini!D48,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="3" t="str">
         <f>CONCATENATE(ini!A49,REPT(" ",MAX(ini!B:B)-ini!B49+1),"= """,ini!D49,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="3" t="str">
         <f>CONCATENATE(ini!A50,REPT(" ",MAX(ini!B:B)-ini!B50+1),"= """,ini!D50,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="3" t="str">
         <f>CONCATENATE(ini!A51,REPT(" ",MAX(ini!B:B)-ini!B51+1),"= """,ini!D51,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="3" t="str">
         <f>CONCATENATE(ini!A52,REPT(" ",MAX(ini!B:B)-ini!B52+1),"= """,ini!D52,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="3" t="str">
         <f>CONCATENATE(ini!A53,REPT(" ",MAX(ini!B:B)-ini!B53+1),"= """,ini!D53,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="3" t="str">
         <f>CONCATENATE(ini!A54,REPT(" ",MAX(ini!B:B)-ini!B54+1),"= """,ini!D54,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="3" t="str">
         <f>CONCATENATE(ini!A55,REPT(" ",MAX(ini!B:B)-ini!B55+1),"= """,ini!D55,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="3" t="str">
         <f>CONCATENATE(ini!A56,REPT(" ",MAX(ini!B:B)-ini!B56+1),"= """,ini!D56,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="3" t="str">
         <f>CONCATENATE(ini!A57,REPT(" ",MAX(ini!B:B)-ini!B57+1),"= """,ini!D57,"""")</f>
-        <v xml:space="preserve">                                       = ""</v>
+        <v xml:space="preserve">                                           = ""</v>
       </c>
     </row>
   </sheetData>
@@ -2842,15 +2878,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.25" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="46.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.375" customWidth="1"/>
   </cols>
@@ -3383,39 +3419,93 @@
       </c>
     </row>
     <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>138</v>
+      </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>140</v>
+      </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:4">

--- a/com_srccheck/translates_pl_en_de.xlsx
+++ b/com_srccheck/translates_pl_en_de.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="37680" windowHeight="18465" tabRatio="912" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="37680" windowHeight="18465" tabRatio="912"/>
   </bookViews>
   <sheets>
     <sheet name="de-DE.com_srccheck.sys.ini" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="194">
   <si>
     <t>key</t>
   </si>
@@ -465,6 +465,144 @@
   </si>
   <si>
     <t>Allow users to the operation to erase deleted files from the check history.</t>
+  </si>
+  <si>
+    <t>Anzahl der verifizierten Dateien:</t>
+  </si>
+  <si>
+    <t>Anzahl neuer Dateien:</t>
+  </si>
+  <si>
+    <t>Anzahl der gelöschten Dateien:</t>
+  </si>
+  <si>
+    <t>Anzahl der korrekt überprüften Dateien:</t>
+  </si>
+  <si>
+    <t>Anzahl der falsch verifizierten Dateien:</t>
+  </si>
+  <si>
+    <t>Datum der letzten Überprüfung:</t>
+  </si>
+  <si>
+    <t>Zuletzt überprüfte Benutzer-ID:</t>
+  </si>
+  <si>
+    <t>Das Login des Benutzers, der kürzlich überprüft hat:</t>
+  </si>
+  <si>
+    <t>Name des Benutzers, der kürzlich überprüft hat:</t>
+  </si>
+  <si>
+    <t>Quellenprüfung</t>
+  </si>
+  <si>
+    <t>Überprüfen</t>
+  </si>
+  <si>
+    <t>Datei (en) akzeptieren</t>
+  </si>
+  <si>
+    <t>Datei (en) löschen</t>
+  </si>
+  <si>
+    <t>Zusammenfassung</t>
+  </si>
+  <si>
+    <t>Verwalten</t>
+  </si>
+  <si>
+    <t>Quellenprüfung: Zusammenfassung</t>
+  </si>
+  <si>
+    <t>Quellenprüfung: Verwalten</t>
+  </si>
+  <si>
+    <t>Dateipfad</t>
+  </si>
+  <si>
+    <t>Dateiname</t>
+  </si>
+  <si>
+    <t>Dateistatus</t>
+  </si>
+  <si>
+    <t>Geprüft</t>
+  </si>
+  <si>
+    <t>Neue Datei</t>
+  </si>
+  <si>
+    <t>Richtig</t>
+  </si>
+  <si>
+    <t>Gelöschte Datei</t>
+  </si>
+  <si>
+    <t>Falsch</t>
+  </si>
+  <si>
+    <t>Ergebnis der Überprüfung</t>
+  </si>
+  <si>
+    <t>Unerwartet</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>- Wählen Sie den Dateistatus -</t>
+  </si>
+  <si>
+    <t>- Wählen Sie das Ergebnis von Veryfication aus. -</t>
+  </si>
+  <si>
+    <t>Suchen Sie in Pfaden und Dateinamen</t>
+  </si>
+  <si>
+    <t>Nach Dateistatus filtern</t>
+  </si>
+  <si>
+    <t>Filtern nach Dateifunktionierungsergebnis</t>
+  </si>
+  <si>
+    <t>GNU General Public License Version 3 oder höher.</t>
+  </si>
+  <si>
+    <t>Copyright (C) 2020 Green Linie. Alle Rechte vorbehalten.</t>
+  </si>
+  <si>
+    <t>Source Check ist eine Komponente, die überprüft, ob Joomla-Systemdateien geändert wurden.</t>
+  </si>
+  <si>
+    <t>Die Source Check-Komponente wurde deinstalliert. Dein Joomla ist gefährdet !!!</t>
+  </si>
+  <si>
+    <t>Source Check Komponentenaktualisierung.</t>
+  </si>
+  <si>
+    <t>Die erste Dateiverifizierung wird ausgeführt.</t>
+  </si>
+  <si>
+    <t>Erste Dateiverifizierung abgeschlossen.</t>
+  </si>
+  <si>
+    <t>Starten des Source Check-Komponenten-Upgrades.</t>
+  </si>
+  <si>
+    <t>Aktualisierung der Quellenprüfung abgeschlossen.</t>
+  </si>
+  <si>
+    <t>Initialisierungsskript für die Source Check-Komponente.</t>
+  </si>
+  <si>
+    <t>Berechtigung für den Vorgang, der die Dateiverifizierung ausführt.</t>
+  </si>
+  <si>
+    <t>Berechtigungen für den Vorgang, die die Richtigkeit von Dateien akzeptieren.</t>
+  </si>
+  <si>
+    <t>Berechtigung für den Vorgang zum Löschen gelöschter Dateien aus dem Prüfverlauf.</t>
   </si>
 </sst>
 </file>
@@ -815,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -833,73 +971,73 @@
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="str">
         <f>CONCATENATE(sys.ini!A2,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B2+1),"= """,sys.ini!E2,"""")</f>
-        <v>COM_SRCCHECK                         = ""</v>
+        <v>COM_SRCCHECK                         = "Quellenprüfung"</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="str">
         <f>CONCATENATE(sys.ini!A3,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B3+1),"= """,sys.ini!E3,"""")</f>
-        <v>COM_LICENSE                          = ""</v>
+        <v>COM_LICENSE                          = "GNU General Public License Version 3 oder höher."</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="str">
         <f>CONCATENATE(sys.ini!A4,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B4+1),"= """,sys.ini!E4,"""")</f>
-        <v>COM_COPYRIGHT                        = ""</v>
+        <v>COM_COPYRIGHT                        = "Copyright (C) 2020 Green Linie. Alle Rechte vorbehalten."</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="str">
         <f>CONCATENATE(sys.ini!A5,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B5+1),"= """,sys.ini!E5,"""")</f>
-        <v>COM_SRCCHECK_DESCRIPTION             = ""</v>
+        <v>COM_SRCCHECK_DESCRIPTION             = "Source Check ist eine Komponente, die überprüft, ob Joomla-Systemdateien geändert wurden."</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="str">
         <f>CONCATENATE(sys.ini!A6,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B6+1),"= """,sys.ini!E6,"""")</f>
-        <v>COM_SRCCHECK_UNINSTALL_TEXT          = ""</v>
+        <v>COM_SRCCHECK_UNINSTALL_TEXT          = "Die Source Check-Komponente wurde deinstalliert. Dein Joomla ist gefährdet !!!"</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(sys.ini!A7,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B7+1),"= """,sys.ini!E7,"""")</f>
-        <v>COM_SRCCHECK_UPDATE_TEXT             = ""</v>
+        <v>COM_SRCCHECK_UPDATE_TEXT             = "Source Check Komponentenaktualisierung."</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="str">
         <f>CONCATENATE(sys.ini!A8,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B8+1),"= """,sys.ini!E8,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_INSTALL_TEXT  = ""</v>
+        <v>COM_SRCCHECK_PREFLIGHT_INSTALL_TEXT  = "Die erste Dateiverifizierung wird ausgeführt."</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="str">
         <f>CONCATENATE(sys.ini!A9,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B9+1),"= """,sys.ini!E9,"""")</f>
-        <v>COM_SRCCHECK_POSTFLIGHT_INSTALL_TEXT = ""</v>
+        <v>COM_SRCCHECK_POSTFLIGHT_INSTALL_TEXT = "Erste Dateiverifizierung abgeschlossen."</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(sys.ini!A10,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B10+1),"= """,sys.ini!E10,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT   = ""</v>
+        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT   = "Starten des Source Check-Komponenten-Upgrades."</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(sys.ini!A11,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B11+1),"= """,sys.ini!E11,"""")</f>
-        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT  = ""</v>
+        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT  = "Aktualisierung der Quellenprüfung abgeschlossen."</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(sys.ini!A12,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B12+1),"= """,sys.ini!E12,"""")</f>
-        <v>COM_SRCCHECK_INSTALL_TEXT            = ""</v>
+        <v>COM_SRCCHECK_INSTALL_TEXT            = "Initialisierungsskript für die Source Check-Komponente."</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(sys.ini!A13,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B13+1),"= """,sys.ini!E13,"""")</f>
-        <v>COM_SRCCHECK_MENU                    = ""</v>
+        <v>COM_SRCCHECK_MENU                    = "Quellenprüfung"</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1021,7 +1159,7 @@
   <dimension ref="A1:A57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A57"/>
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1037,241 +1175,241 @@
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="str">
         <f>CONCATENATE(ini!A2,REPT(" ",MAX(ini!B:B)-ini!B2+1),"= """,ini!E2,"""")</f>
-        <v>COM_SRCCHECK_TOTALCOUNT_FILES              = ""</v>
+        <v>COM_SRCCHECK_TOTALCOUNT_FILES              = "Anzahl der verifizierten Dateien:"</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="str">
         <f>CONCATENATE(ini!A3,REPT(" ",MAX(ini!B:B)-ini!B3+1),"= """,ini!E3,"""")</f>
-        <v>COM_SRCCHECK_NEW_FILES                     = ""</v>
+        <v>COM_SRCCHECK_NEW_FILES                     = "Anzahl neuer Dateien:"</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="str">
         <f>CONCATENATE(ini!A4,REPT(" ",MAX(ini!B:B)-ini!B4+1),"= """,ini!E4,"""")</f>
-        <v>COM_SRCCHECK_DELETED_FILES                 = ""</v>
+        <v>COM_SRCCHECK_DELETED_FILES                 = "Anzahl der gelöschten Dateien:"</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="str">
         <f>CONCATENATE(ini!A5,REPT(" ",MAX(ini!B:B)-ini!B5+1),"= """,ini!E5,"""")</f>
-        <v>COM_SRCCHECK_COUNT_VERYFIED_POSITIVE       = ""</v>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_POSITIVE       = "Anzahl der korrekt überprüften Dateien:"</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="str">
         <f>CONCATENATE(ini!A6,REPT(" ",MAX(ini!B:B)-ini!B6+1),"= """,ini!E6,"""")</f>
-        <v>COM_SRCCHECK_COUNT_VERYFIED_NEGATIVE       = ""</v>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_NEGATIVE       = "Anzahl der falsch verifizierten Dateien:"</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(ini!A7,REPT(" ",MAX(ini!B:B)-ini!B7+1),"= """,ini!E7,"""")</f>
-        <v>COM_SRCCHECK_LAST_CHECK_TIME               = ""</v>
+        <v>COM_SRCCHECK_LAST_CHECK_TIME               = "Datum der letzten Überprüfung:"</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="str">
         <f>CONCATENATE(ini!A8,REPT(" ",MAX(ini!B:B)-ini!B8+1),"= """,ini!E8,"""")</f>
-        <v>COM_SRCCHECK_USER_ID                       = ""</v>
+        <v>COM_SRCCHECK_USER_ID                       = "Zuletzt überprüfte Benutzer-ID:"</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="str">
         <f>CONCATENATE(ini!A9,REPT(" ",MAX(ini!B:B)-ini!B9+1),"= """,ini!E9,"""")</f>
-        <v>COM_SRCCHECK_USER_LOGIN                    = ""</v>
+        <v>COM_SRCCHECK_USER_LOGIN                    = "Das Login des Benutzers, der kürzlich überprüft hat:"</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(ini!A10,REPT(" ",MAX(ini!B:B)-ini!B10+1),"= """,ini!E10,"""")</f>
-        <v>COM_SRCCHECK_USER_NAME                     = ""</v>
+        <v>COM_SRCCHECK_USER_NAME                     = "Name des Benutzers, der kürzlich überprüft hat:"</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(ini!A11,REPT(" ",MAX(ini!B:B)-ini!B11+1),"= """,ini!E11,"""")</f>
-        <v>COM_SRCCHECH_MANAGER_TITLE                 = ""</v>
+        <v>COM_SRCCHECH_MANAGER_TITLE                 = "Quellenprüfung"</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(ini!A12,REPT(" ",MAX(ini!B:B)-ini!B12+1),"= """,ini!E12,"""")</f>
-        <v>COM_SRCCHECK_BTN_VERIFY                    = ""</v>
+        <v>COM_SRCCHECK_BTN_VERIFY                    = "Überprüfen"</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(ini!A13,REPT(" ",MAX(ini!B:B)-ini!B13+1),"= """,ini!E13,"""")</f>
-        <v>COM_SRCCHECK_BTN_VALID                     = ""</v>
+        <v>COM_SRCCHECK_BTN_VALID                     = "Datei (en) akzeptieren"</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="str">
         <f>CONCATENATE(ini!A14,REPT(" ",MAX(ini!B:B)-ini!B14+1),"= """,ini!E14,"""")</f>
-        <v>COM_SRCCHECK_BTN_ERASE                     = ""</v>
+        <v>COM_SRCCHECK_BTN_ERASE                     = "Datei (en) löschen"</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="str">
         <f>CONCATENATE(ini!A15,REPT(" ",MAX(ini!B:B)-ini!B15+1),"= """,ini!E15,"""")</f>
-        <v>COM_SRCCHECK_SUBMENU_SUMMARY               = ""</v>
+        <v>COM_SRCCHECK_SUBMENU_SUMMARY               = "Zusammenfassung"</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="str">
         <f>CONCATENATE(ini!A16,REPT(" ",MAX(ini!B:B)-ini!B16+1),"= """,ini!E16,"""")</f>
-        <v>COM_SRCCHECK_SUBMENU_MANAGE                = ""</v>
+        <v>COM_SRCCHECK_SUBMENU_MANAGE                = "Verwalten"</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
         <f>CONCATENATE(ini!A17,REPT(" ",MAX(ini!B:B)-ini!B17+1),"= """,ini!E17,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION                = ""</v>
+        <v>COM_SRCCHECK_ADMINISTRATION                = "Quellenprüfung: Zusammenfassung"</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
         <f>CONCATENATE(ini!A18,REPT(" ",MAX(ini!B:B)-ini!B18+1),"= """,ini!E18,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE         = ""</v>
+        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE         = "Quellenprüfung: Verwalten"</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="str">
         <f>CONCATENATE(ini!A19,REPT(" ",MAX(ini!B:B)-ini!B19+1),"= """,ini!E19,"""")</f>
-        <v>COM_SRECCHECK_NUM                          = ""</v>
+        <v>COM_SRECCHECK_NUM                          = "#"</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="str">
         <f>CONCATENATE(ini!A20,REPT(" ",MAX(ini!B:B)-ini!B20+1),"= """,ini!E20,"""")</f>
-        <v>COM_SRCCHECK_PATH                          = ""</v>
+        <v>COM_SRCCHECK_PATH                          = "Dateipfad"</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="str">
         <f>CONCATENATE(ini!A21,REPT(" ",MAX(ini!B:B)-ini!B21+1),"= """,ini!E21,"""")</f>
-        <v>COM_SRCCHECK_FILENAME                      = ""</v>
+        <v>COM_SRCCHECK_FILENAME                      = "Dateiname"</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="str">
         <f>CONCATENATE(ini!A22,REPT(" ",MAX(ini!B:B)-ini!B22+1),"= """,ini!E22,"""")</f>
-        <v>COM_SRCCHECK_STATUS                        = ""</v>
+        <v>COM_SRCCHECK_STATUS                        = "Dateistatus"</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="str">
         <f>CONCATENATE(ini!A23,REPT(" ",MAX(ini!B:B)-ini!B23+1),"= """,ini!E23,"""")</f>
-        <v>COM_SRCCHECK_VERYFIED_STATUS_FILE          = ""</v>
+        <v>COM_SRCCHECK_VERYFIED_STATUS_FILE          = "Geprüft"</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="str">
         <f>CONCATENATE(ini!A24,REPT(" ",MAX(ini!B:B)-ini!B24+1),"= """,ini!E24,"""")</f>
-        <v>COM_SRCCHECK_NEW_STATUS_FILE               = ""</v>
+        <v>COM_SRCCHECK_NEW_STATUS_FILE               = "Neue Datei"</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="str">
         <f>CONCATENATE(ini!A25,REPT(" ",MAX(ini!B:B)-ini!B25+1),"= """,ini!E25,"""")</f>
-        <v>COM_SRCCHECK_VALID_STATUS_FILE             = ""</v>
+        <v>COM_SRCCHECK_VALID_STATUS_FILE             = "Richtig"</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="str">
         <f>CONCATENATE(ini!A26,REPT(" ",MAX(ini!B:B)-ini!B26+1),"= """,ini!E26,"""")</f>
-        <v>COM_SRCCHECK_DELETED_STATUS_FILE           = ""</v>
+        <v>COM_SRCCHECK_DELETED_STATUS_FILE           = "Gelöschte Datei"</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="str">
         <f>CONCATENATE(ini!A27,REPT(" ",MAX(ini!B:B)-ini!B27+1),"= """,ini!E27,"""")</f>
-        <v>COM_SRCCHECK_INVALID_STATUS_FILE           = ""</v>
+        <v>COM_SRCCHECK_INVALID_STATUS_FILE           = "Falsch"</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="str">
         <f>CONCATENATE(ini!A28,REPT(" ",MAX(ini!B:B)-ini!B28+1),"= """,ini!E28,"""")</f>
-        <v>COM_SRCCHECK_VERYFIED                      = ""</v>
+        <v>COM_SRCCHECK_VERYFIED                      = "Ergebnis der Überprüfung"</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="str">
         <f>CONCATENATE(ini!A29,REPT(" ",MAX(ini!B:B)-ini!B29+1),"= """,ini!E29,"""")</f>
-        <v>COM_SRCCHECK_UNEXPECTED_STATUS_FILE        = ""</v>
+        <v>COM_SRCCHECK_UNEXPECTED_STATUS_FILE        = "Unerwartet"</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="str">
         <f>CONCATENATE(ini!A30,REPT(" ",MAX(ini!B:B)-ini!B30+1),"= """,ini!E30,"""")</f>
-        <v>COM_SRCCHECK_MANAGE_FILTER                 = ""</v>
+        <v>COM_SRCCHECK_MANAGE_FILTER                 = "Filter"</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="str">
         <f>CONCATENATE(ini!A31,REPT(" ",MAX(ini!B:B)-ini!B31+1),"= """,ini!E31,"""")</f>
-        <v>COM_SRCCHECK_FILTER_SELECT_STATUS_FILE     = ""</v>
+        <v>COM_SRCCHECK_FILTER_SELECT_STATUS_FILE     = "- Wählen Sie den Dateistatus -"</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="str">
         <f>CONCATENATE(ini!A32,REPT(" ",MAX(ini!B:B)-ini!B32+1),"= """,ini!E32,"""")</f>
-        <v>COM_SRCCHECK_FILTER_SELECT_VERYFIED        = ""</v>
+        <v>COM_SRCCHECK_FILTER_SELECT_VERYFIED        = "- Wählen Sie das Ergebnis von Veryfication aus. -"</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="str">
         <f>CONCATENATE(ini!A33,REPT(" ",MAX(ini!B:B)-ini!B33+1),"= """,ini!E33,"""")</f>
-        <v>COM_SRCCHECK_SEARCH_PATH_FILE              = ""</v>
+        <v>COM_SRCCHECK_SEARCH_PATH_FILE              = "Suchen Sie in Pfaden und Dateinamen"</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="str">
         <f>CONCATENATE(ini!A34,REPT(" ",MAX(ini!B:B)-ini!B34+1),"= """,ini!E34,"""")</f>
-        <v>COM_SRCCHECK_FILTER_FILE_STATUS            = ""</v>
+        <v>COM_SRCCHECK_FILTER_FILE_STATUS            = "Nach Dateistatus filtern"</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="str">
         <f>CONCATENATE(ini!A35,REPT(" ",MAX(ini!B:B)-ini!B35+1),"= """,ini!E35,"""")</f>
-        <v>COM_SRCCHECK_FILTER_FILE_VERYFIED          = ""</v>
+        <v>COM_SRCCHECK_FILTER_FILE_VERYFIED          = "Filtern nach Dateifunktionierungsergebnis"</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3" t="str">
         <f>CONCATENATE(ini!A36,REPT(" ",MAX(ini!B:B)-ini!B36+1),"= """,ini!E36,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_VERIFY             = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_VERIFY             = "Überprüfen"</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="str">
         <f>CONCATENATE(ini!A37,REPT(" ",MAX(ini!B:B)-ini!B37+1),"= """,ini!E37,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_DESC_VERIFY        = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_VERIFY        = "Berechtigung für den Vorgang, der die Dateiverifizierung ausführt."</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="str">
         <f>CONCATENATE(ini!A38,REPT(" ",MAX(ini!B:B)-ini!B38+1),"= """,ini!E38,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_VALID              = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_VALID              = "Datei (en) akzeptieren"</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="str">
         <f>CONCATENATE(ini!A39,REPT(" ",MAX(ini!B:B)-ini!B39+1),"= """,ini!E39,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_DESC_VALID         = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_VALID         = "Berechtigungen für den Vorgang, die die Richtigkeit von Dateien akzeptieren."</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="str">
         <f>CONCATENATE(ini!A40,REPT(" ",MAX(ini!B:B)-ini!B40+1),"= """,ini!E40,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_ERASE              = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_ERASE              = "Datei (en) löschen"</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="str">
         <f>CONCATENATE(ini!A41,REPT(" ",MAX(ini!B:B)-ini!B41+1),"= """,ini!E41,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_DESC_ERASE         = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_ERASE         = "Berechtigung für den Vorgang zum Löschen gelöschter Dateien aus dem Prüfverlauf."</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -1372,6 +1510,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2510,7 +2649,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2519,7 +2658,7 @@
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="87.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="5" max="5" width="65.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
@@ -2553,6 +2692,9 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
+      <c r="E2" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -2568,6 +2710,9 @@
       <c r="D3" t="s">
         <v>134</v>
       </c>
+      <c r="E3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -2583,6 +2728,9 @@
       <c r="D4" t="s">
         <v>135</v>
       </c>
+      <c r="E4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -2598,6 +2746,9 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -2613,6 +2764,9 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
+      <c r="E6" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -2628,6 +2782,9 @@
       <c r="D7" t="s">
         <v>23</v>
       </c>
+      <c r="E7" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -2643,6 +2800,9 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
+      <c r="E8" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -2658,6 +2818,9 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
+      <c r="E9" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
@@ -2673,6 +2836,9 @@
       <c r="D10" t="s">
         <v>26</v>
       </c>
+      <c r="E10" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
@@ -2688,6 +2854,9 @@
       <c r="D11" t="s">
         <v>27</v>
       </c>
+      <c r="E11" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
@@ -2703,6 +2872,9 @@
       <c r="D12" t="s">
         <v>21</v>
       </c>
+      <c r="E12" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
@@ -2717,6 +2889,9 @@
       </c>
       <c r="D13" t="s">
         <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2878,17 +3053,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.25" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="46.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.375" customWidth="1"/>
+    <col min="3" max="3" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
@@ -2922,6 +3097,9 @@
       <c r="D2" t="s">
         <v>92</v>
       </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -2937,6 +3115,9 @@
       <c r="D3" t="s">
         <v>93</v>
       </c>
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -2952,6 +3133,9 @@
       <c r="D4" t="s">
         <v>94</v>
       </c>
+      <c r="E4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -2967,6 +3151,9 @@
       <c r="D5" t="s">
         <v>95</v>
       </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -2982,6 +3169,9 @@
       <c r="D6" t="s">
         <v>91</v>
       </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -2997,6 +3187,9 @@
       <c r="D7" t="s">
         <v>96</v>
       </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -3012,6 +3205,9 @@
       <c r="D8" t="s">
         <v>97</v>
       </c>
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -3027,6 +3223,9 @@
       <c r="D9" t="s">
         <v>98</v>
       </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
@@ -3042,6 +3241,9 @@
       <c r="D10" t="s">
         <v>99</v>
       </c>
+      <c r="E10" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
@@ -3057,6 +3259,9 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
+      <c r="E11" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
@@ -3072,6 +3277,9 @@
       <c r="D12" t="s">
         <v>44</v>
       </c>
+      <c r="E12" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
@@ -3087,6 +3295,9 @@
       <c r="D13" t="s">
         <v>106</v>
       </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
@@ -3102,6 +3313,9 @@
       <c r="D14" t="s">
         <v>108</v>
       </c>
+      <c r="E14" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
@@ -3117,6 +3331,9 @@
       <c r="D15" t="s">
         <v>48</v>
       </c>
+      <c r="E15" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
@@ -3132,8 +3349,11 @@
       <c r="D16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -3147,8 +3367,11 @@
       <c r="D17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -3162,8 +3385,11 @@
       <c r="D18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -3177,8 +3403,11 @@
       <c r="D19" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -3192,8 +3421,11 @@
       <c r="D20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -3207,8 +3439,11 @@
       <c r="D21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -3222,8 +3457,11 @@
       <c r="D22" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -3237,8 +3475,11 @@
       <c r="D23" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -3252,8 +3493,11 @@
       <c r="D24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -3267,8 +3511,11 @@
       <c r="D25" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -3282,8 +3529,11 @@
       <c r="D26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -3297,8 +3547,11 @@
       <c r="D27" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -3312,8 +3565,11 @@
       <c r="D28" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -3327,8 +3583,11 @@
       <c r="D29" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -3342,8 +3601,11 @@
       <c r="D30" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -3354,11 +3616,14 @@
       <c r="C31" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -3369,11 +3634,14 @@
       <c r="C32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -3387,8 +3655,11 @@
       <c r="D33" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -3402,8 +3673,11 @@
       <c r="D34" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -3417,8 +3691,11 @@
       <c r="D35" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>136</v>
       </c>
@@ -3432,8 +3709,11 @@
       <c r="D36" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -3447,8 +3727,11 @@
       <c r="D37" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -3462,8 +3745,11 @@
       <c r="D38" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -3477,8 +3763,11 @@
       <c r="D39" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>140</v>
       </c>
@@ -3492,8 +3781,11 @@
       <c r="D40" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>141</v>
       </c>
@@ -3507,20 +3799,23 @@
       <c r="D41" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="B42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="B43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="B44">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/com_srccheck/translates_pl_en_de.xlsx
+++ b/com_srccheck/translates_pl_en_de.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="37680" windowHeight="18465" tabRatio="912"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="37680" windowHeight="18465" tabRatio="912" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="de-DE.com_srccheck.sys.ini" sheetId="7" r:id="rId1"/>
@@ -71,57 +71,21 @@
     <t>COM_SRCCHECK_MENU</t>
   </si>
   <si>
-    <t>Source Check</t>
-  </si>
-  <si>
-    <t>Source Check is a component that verifies if Joomla files have changed.</t>
-  </si>
-  <si>
-    <t>Source Check uninstall successful. Your joomla is under threat!!!</t>
-  </si>
-  <si>
     <t>The first verification in progress</t>
   </si>
   <si>
     <t>The first verification completed</t>
   </si>
   <si>
-    <t>Source Check initialization script.</t>
-  </si>
-  <si>
-    <t>Source Check jest komponentem weryfikującym czy któreś pliki systemu Joomla nie zostału zmienione.</t>
-  </si>
-  <si>
-    <t>Upgrade Source Check component.</t>
-  </si>
-  <si>
     <t>Trwa pierwsza weryfikacja plików.</t>
   </si>
   <si>
     <t>Zakończona pierwsząweryfikację plików.</t>
   </si>
   <si>
-    <t>Upgrade Source Check component START</t>
-  </si>
-  <si>
-    <t>Upgrade Source Check component ENDED</t>
-  </si>
-  <si>
-    <t>Skrypt inicjujący komponent Source Check.</t>
-  </si>
-  <si>
-    <t>Zakończono aktualizacji komponentu Source Check.</t>
-  </si>
-  <si>
-    <t>Rozpoczęcie aktualizacji komponentu Source Check.</t>
-  </si>
-  <si>
     <t>Aktualizacja komponentu Source Check.</t>
   </si>
   <si>
-    <t>Komponenet Source Check został odinstalowany. Twoja Joomla jest zagrożona !!!</t>
-  </si>
-  <si>
     <t>COM_SRCCHECK_TOTALCOUNT_FILES</t>
   </si>
   <si>
@@ -179,15 +143,9 @@
     <t>COM_SRCCHECK_ADMINISTRATION</t>
   </si>
   <si>
-    <t>Source Check: Summary</t>
-  </si>
-  <si>
     <t>COM_SRCCHECK_ADMINISTRATION_MANAGE</t>
   </si>
   <si>
-    <t>Source Check: Manage</t>
-  </si>
-  <si>
     <t>COM_SRECCHECK_NUM</t>
   </si>
   <si>
@@ -356,12 +314,6 @@
     <t>Zarządzaj</t>
   </si>
   <si>
-    <t>Source Check: Podsumowanie</t>
-  </si>
-  <si>
-    <t>Source Check: Zarządzaj</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -494,9 +446,6 @@
     <t>Name des Benutzers, der kürzlich überprüft hat:</t>
   </si>
   <si>
-    <t>Quellenprüfung</t>
-  </si>
-  <si>
     <t>Überprüfen</t>
   </si>
   <si>
@@ -512,12 +461,6 @@
     <t>Verwalten</t>
   </si>
   <si>
-    <t>Quellenprüfung: Zusammenfassung</t>
-  </si>
-  <si>
-    <t>Quellenprüfung: Verwalten</t>
-  </si>
-  <si>
     <t>Dateipfad</t>
   </si>
   <si>
@@ -578,24 +521,12 @@
     <t>Die Source Check-Komponente wurde deinstalliert. Dein Joomla ist gefährdet !!!</t>
   </si>
   <si>
-    <t>Source Check Komponentenaktualisierung.</t>
-  </si>
-  <si>
     <t>Die erste Dateiverifizierung wird ausgeführt.</t>
   </si>
   <si>
     <t>Erste Dateiverifizierung abgeschlossen.</t>
   </si>
   <si>
-    <t>Starten des Source Check-Komponenten-Upgrades.</t>
-  </si>
-  <si>
-    <t>Aktualisierung der Quellenprüfung abgeschlossen.</t>
-  </si>
-  <si>
-    <t>Initialisierungsskript für die Source Check-Komponente.</t>
-  </si>
-  <si>
     <t>Berechtigung für den Vorgang, der die Dateiverifizierung ausführt.</t>
   </si>
   <si>
@@ -603,6 +534,75 @@
   </si>
   <si>
     <t>Berechtigung für den Vorgang zum Löschen gelöschter Dateien aus dem Prüfverlauf.</t>
+  </si>
+  <si>
+    <t>Source Files Check</t>
+  </si>
+  <si>
+    <t>Überprüfung der Quelldateien</t>
+  </si>
+  <si>
+    <t>Source Files Check: Podsumowanie</t>
+  </si>
+  <si>
+    <t>Source Files Check: Zarządzaj</t>
+  </si>
+  <si>
+    <t>Source Files Check: Summary</t>
+  </si>
+  <si>
+    <t>Source Files Check: Manage</t>
+  </si>
+  <si>
+    <t>Überprüfung der Quelldateien: Zusammenfassung</t>
+  </si>
+  <si>
+    <t>Überprüfung der Quelldateien: Verwalten</t>
+  </si>
+  <si>
+    <t>Source Files Check jest komponentem weryfikującym czy któreś pliki systemu Joomla nie zostału zmienione.</t>
+  </si>
+  <si>
+    <t>Komponenet Source Files Check został odinstalowany. Twoja Joomla jest zagrożona !!!</t>
+  </si>
+  <si>
+    <t>Rozpoczęcie aktualizacji komponentu Source Files Check.</t>
+  </si>
+  <si>
+    <t>Zakończono aktualizacji komponentu Source Files Check.</t>
+  </si>
+  <si>
+    <t>Skrypt inicjujący komponent Source Files Check.</t>
+  </si>
+  <si>
+    <t>Source Files Check initialization script.</t>
+  </si>
+  <si>
+    <t>Upgrade Source Files Check component ENDED</t>
+  </si>
+  <si>
+    <t>Upgrade Source Files Check component START</t>
+  </si>
+  <si>
+    <t>Upgrade Source Files Check component.</t>
+  </si>
+  <si>
+    <t>Source Files Check uninstall successful. Your joomla is under threat!!!</t>
+  </si>
+  <si>
+    <t>Source Files Check is a component that verifies if Joomla files have changed.</t>
+  </si>
+  <si>
+    <t>Überprüfung der Quelldateien Komponentenaktualisierung.</t>
+  </si>
+  <si>
+    <t>Starten des Überprüfung der Quelldateien Upgrades.</t>
+  </si>
+  <si>
+    <t>Aktualisierung der Überprüfung der Quelldateien abgeschlossen.</t>
+  </si>
+  <si>
+    <t>Initialisierungsskript für die Überprüfung der Quelldateien.</t>
   </si>
 </sst>
 </file>
@@ -953,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -965,13 +965,13 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="str">
         <f>CONCATENATE(sys.ini!A2,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B2+1),"= """,sys.ini!E2,"""")</f>
-        <v>COM_SRCCHECK                         = "Quellenprüfung"</v>
+        <v>COM_SRCCHECK                         = "Überprüfung der Quelldateien"</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1001,7 +1001,7 @@
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(sys.ini!A7,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B7+1),"= """,sys.ini!E7,"""")</f>
-        <v>COM_SRCCHECK_UPDATE_TEXT             = "Source Check Komponentenaktualisierung."</v>
+        <v>COM_SRCCHECK_UPDATE_TEXT             = "Überprüfung der Quelldateien Komponentenaktualisierung."</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1019,25 +1019,25 @@
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(sys.ini!A10,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B10+1),"= """,sys.ini!E10,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT   = "Starten des Source Check-Komponenten-Upgrades."</v>
+        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT   = "Starten des Überprüfung der Quelldateien Upgrades."</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(sys.ini!A11,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B11+1),"= """,sys.ini!E11,"""")</f>
-        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT  = "Aktualisierung der Quellenprüfung abgeschlossen."</v>
+        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT  = "Aktualisierung der Überprüfung der Quelldateien abgeschlossen."</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(sys.ini!A12,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B12+1),"= """,sys.ini!E12,"""")</f>
-        <v>COM_SRCCHECK_INSTALL_TEXT            = "Initialisierungsskript für die Source Check-Komponente."</v>
+        <v>COM_SRCCHECK_INSTALL_TEXT            = "Initialisierungsskript für die Überprüfung der Quelldateien."</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(sys.ini!A13,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B13+1),"= """,sys.ini!E13,"""")</f>
-        <v>COM_SRCCHECK_MENU                    = "Quellenprüfung"</v>
+        <v>COM_SRCCHECK_MENU                    = "Überprüfung der Quelldateien"</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1169,7 +1169,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1229,7 +1229,7 @@
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(ini!A11,REPT(" ",MAX(ini!B:B)-ini!B11+1),"= """,ini!E11,"""")</f>
-        <v>COM_SRCCHECH_MANAGER_TITLE                 = "Quellenprüfung"</v>
+        <v>COM_SRCCHECH_MANAGER_TITLE                 = "Überprüfung der Quelldateien"</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -1265,13 +1265,13 @@
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
         <f>CONCATENATE(ini!A17,REPT(" ",MAX(ini!B:B)-ini!B17+1),"= """,ini!E17,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION                = "Quellenprüfung: Zusammenfassung"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION                = "Überprüfung der Quelldateien: Zusammenfassung"</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
         <f>CONCATENATE(ini!A18,REPT(" ",MAX(ini!B:B)-ini!B18+1),"= """,ini!E18,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE         = "Quellenprüfung: Verwalten"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE         = "Überprüfung der Quelldateien: Verwalten"</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1530,13 +1530,13 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="str">
         <f>CONCATENATE(sys.ini!A2,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B2+1),"= """,sys.ini!C2,"""")</f>
-        <v>COM_SRCCHECK                         = "Source Check"</v>
+        <v>COM_SRCCHECK                         = "Source Files Check"</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1554,13 +1554,13 @@
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="str">
         <f>CONCATENATE(sys.ini!A5,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B5+1),"= """,sys.ini!C5,"""")</f>
-        <v>COM_SRCCHECK_DESCRIPTION             = "Source Check jest komponentem weryfikującym czy któreś pliki systemu Joomla nie zostału zmienione."</v>
+        <v>COM_SRCCHECK_DESCRIPTION             = "Source Files Check jest komponentem weryfikującym czy któreś pliki systemu Joomla nie zostału zmienione."</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="str">
         <f>CONCATENATE(sys.ini!A6,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B6+1),"= """,sys.ini!C6,"""")</f>
-        <v>COM_SRCCHECK_UNINSTALL_TEXT          = "Komponenet Source Check został odinstalowany. Twoja Joomla jest zagrożona !!!"</v>
+        <v>COM_SRCCHECK_UNINSTALL_TEXT          = "Komponenet Source Files Check został odinstalowany. Twoja Joomla jest zagrożona !!!"</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1584,25 +1584,25 @@
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(sys.ini!A10,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B10+1),"= """,sys.ini!C10,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT   = "Rozpoczęcie aktualizacji komponentu Source Check."</v>
+        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT   = "Rozpoczęcie aktualizacji komponentu Source Files Check."</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(sys.ini!A11,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B11+1),"= """,sys.ini!C11,"""")</f>
-        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT  = "Zakończono aktualizacji komponentu Source Check."</v>
+        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT  = "Zakończono aktualizacji komponentu Source Files Check."</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(sys.ini!A12,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B12+1),"= """,sys.ini!C12,"""")</f>
-        <v>COM_SRCCHECK_INSTALL_TEXT            = "Skrypt inicjujący komponent Source Check."</v>
+        <v>COM_SRCCHECK_INSTALL_TEXT            = "Skrypt inicjujący komponent Source Files Check."</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(sys.ini!A13,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B13+1),"= """,sys.ini!C13,"""")</f>
-        <v>COM_SRCCHECK_MENU                    = "Source Check"</v>
+        <v>COM_SRCCHECK_MENU                    = "Source Files Check"</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1734,7 +1734,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1794,7 +1794,7 @@
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(ini!A11,REPT(" ",MAX(ini!B:B)-ini!B11+1),"= """,ini!C11,"""")</f>
-        <v>COM_SRCCHECH_MANAGER_TITLE                 = "Source Check"</v>
+        <v>COM_SRCCHECH_MANAGER_TITLE                 = "Source Files Check"</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -1830,13 +1830,13 @@
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
         <f>CONCATENATE(ini!A17,REPT(" ",MAX(ini!B:B)-ini!B17+1),"= """,ini!C17,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION                = "Source Check: Podsumowanie"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION                = "Source Files Check: Podsumowanie"</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
         <f>CONCATENATE(ini!A18,REPT(" ",MAX(ini!B:B)-ini!B18+1),"= """,ini!C18,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE         = "Source Check: Zarządzaj"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE         = "Source Files Check: Zarządzaj"</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -2095,13 +2095,13 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="str">
         <f>CONCATENATE(sys.ini!A2,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B2+1),"= """,sys.ini!D2,"""")</f>
-        <v>COM_SRCCHECK                         = "Source Check"</v>
+        <v>COM_SRCCHECK                         = "Source Files Check"</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2119,19 +2119,19 @@
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="str">
         <f>CONCATENATE(sys.ini!A5,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B5+1),"= """,sys.ini!D5,"""")</f>
-        <v>COM_SRCCHECK_DESCRIPTION             = "Source Check is a component that verifies if Joomla files have changed."</v>
+        <v>COM_SRCCHECK_DESCRIPTION             = "Source Files Check is a component that verifies if Joomla files have changed."</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="str">
         <f>CONCATENATE(sys.ini!A6,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B6+1),"= """,sys.ini!D6,"""")</f>
-        <v>COM_SRCCHECK_UNINSTALL_TEXT          = "Source Check uninstall successful. Your joomla is under threat!!!"</v>
+        <v>COM_SRCCHECK_UNINSTALL_TEXT          = "Source Files Check uninstall successful. Your joomla is under threat!!!"</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(sys.ini!A7,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B7+1),"= """,sys.ini!D7,"""")</f>
-        <v>COM_SRCCHECK_UPDATE_TEXT             = "Upgrade Source Check component."</v>
+        <v>COM_SRCCHECK_UPDATE_TEXT             = "Upgrade Source Files Check component."</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2149,25 +2149,25 @@
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(sys.ini!A10,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B10+1),"= """,sys.ini!D10,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT   = "Upgrade Source Check component START"</v>
+        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT   = "Upgrade Source Files Check component START"</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(sys.ini!A11,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B11+1),"= """,sys.ini!D11,"""")</f>
-        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT  = "Upgrade Source Check component ENDED"</v>
+        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT  = "Upgrade Source Files Check component ENDED"</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(sys.ini!A12,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B12+1),"= """,sys.ini!D12,"""")</f>
-        <v>COM_SRCCHECK_INSTALL_TEXT            = "Source Check initialization script."</v>
+        <v>COM_SRCCHECK_INSTALL_TEXT            = "Source Files Check initialization script."</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(sys.ini!A13,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B13+1),"= """,sys.ini!D13,"""")</f>
-        <v>COM_SRCCHECK_MENU                    = "Source Check"</v>
+        <v>COM_SRCCHECK_MENU                    = "Source Files Check"</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -2288,8 +2288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A2:A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2299,7 +2299,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2359,7 +2359,7 @@
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(ini!A11,REPT(" ",MAX(ini!B:B)-ini!B11+1),"= """,ini!D11,"""")</f>
-        <v>COM_SRCCHECH_MANAGER_TITLE                 = "Source Check"</v>
+        <v>COM_SRCCHECH_MANAGER_TITLE                 = "Source Files Check"</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2395,13 +2395,13 @@
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
         <f>CONCATENATE(ini!A17,REPT(" ",MAX(ini!B:B)-ini!B17+1),"= """,ini!D17,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION                = "Source Check: Summary"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION                = "Source Files Check: Summary"</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
         <f>CONCATENATE(ini!A18,REPT(" ",MAX(ini!B:B)-ini!B18+1),"= """,ini!D18,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE         = "Source Check: Manage"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE         = "Source Files Check: Manage"</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -2649,7 +2649,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2687,13 +2687,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2705,13 +2705,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2723,13 +2723,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2741,13 +2741,13 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2759,13 +2759,13 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2777,13 +2777,13 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2795,13 +2795,13 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2813,13 +2813,13 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2831,13 +2831,13 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2849,13 +2849,13 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="E11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2867,13 +2867,13 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2885,13 +2885,13 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3054,12 +3054,12 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3085,722 +3085,722 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <f>LEN(A2)</f>
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B44" si="0">LEN(A3)</f>
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/com_srccheck/translates_pl_en_de.xlsx
+++ b/com_srccheck/translates_pl_en_de.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maciej Bednarski\Documents\NetBeansProjects\com_srccheck\com_srccheck\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9F5522-0209-47CC-8C76-40909F14BE6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="37680" windowHeight="18465" tabRatio="912" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="912" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="de-DE.com_srccheck.sys.ini" sheetId="7" r:id="rId1"/>
@@ -16,12 +22,22 @@
     <sheet name="sys.ini" sheetId="1" r:id="rId7"/>
     <sheet name="ini" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="202">
   <si>
     <t>key</t>
   </si>
@@ -518,9 +534,6 @@
     <t>Source Check ist eine Komponente, die überprüft, ob Joomla-Systemdateien geändert wurden.</t>
   </si>
   <si>
-    <t>Die Source Check-Komponente wurde deinstalliert. Dein Joomla ist gefährdet !!!</t>
-  </si>
-  <si>
     <t>Die erste Dateiverifizierung wird ausgeführt.</t>
   </si>
   <si>
@@ -603,12 +616,39 @@
   </si>
   <si>
     <t>Initialisierungsskript für die Überprüfung der Quelldateien.</t>
+  </si>
+  <si>
+    <t>Weryfikacja zależności.</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION</t>
+  </si>
+  <si>
+    <t>Environment verification.</t>
+  </si>
+  <si>
+    <t>Umweltüberprüfung.</t>
+  </si>
+  <si>
+    <t>Die Source Check-Komponente wurde deinstalliert. Dein Joomla ist gefährdet!!!</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION_ZIP_PRESENT</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION_ZIP_ABSENT</t>
+  </si>
+  <si>
+    <t>Zapewniona obsługa zip przez PHP</t>
+  </si>
+  <si>
+    <t>Brak obsługi zip przez PHP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -663,6 +703,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -709,7 +757,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -741,9 +789,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -775,6 +841,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -950,17 +1034,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="98.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="98.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -971,181 +1055,181 @@
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="str">
         <f>CONCATENATE(sys.ini!A2,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B2+1),"= """,sys.ini!E2,"""")</f>
-        <v>COM_SRCCHECK                         = "Überprüfung der Quelldateien"</v>
+        <v>COM_SRCCHECK                                                = "Überprüfung der Quelldateien"</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="str">
         <f>CONCATENATE(sys.ini!A3,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B3+1),"= """,sys.ini!E3,"""")</f>
-        <v>COM_LICENSE                          = "GNU General Public License Version 3 oder höher."</v>
+        <v>COM_LICENSE                                                 = "GNU General Public License Version 3 oder höher."</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="str">
         <f>CONCATENATE(sys.ini!A4,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B4+1),"= """,sys.ini!E4,"""")</f>
-        <v>COM_COPYRIGHT                        = "Copyright (C) 2020 Green Linie. Alle Rechte vorbehalten."</v>
+        <v>COM_COPYRIGHT                                               = "Copyright (C) 2020 Green Linie. Alle Rechte vorbehalten."</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="str">
         <f>CONCATENATE(sys.ini!A5,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B5+1),"= """,sys.ini!E5,"""")</f>
-        <v>COM_SRCCHECK_DESCRIPTION             = "Source Check ist eine Komponente, die überprüft, ob Joomla-Systemdateien geändert wurden."</v>
+        <v>COM_SRCCHECK_DESCRIPTION                                    = "Source Check ist eine Komponente, die überprüft, ob Joomla-Systemdateien geändert wurden."</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="str">
         <f>CONCATENATE(sys.ini!A6,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B6+1),"= """,sys.ini!E6,"""")</f>
-        <v>COM_SRCCHECK_UNINSTALL_TEXT          = "Die Source Check-Komponente wurde deinstalliert. Dein Joomla ist gefährdet !!!"</v>
+        <v>COM_SRCCHECK_UNINSTALL_TEXT                                 = "Die Source Check-Komponente wurde deinstalliert. Dein Joomla ist gefährdet!!!"</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(sys.ini!A7,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B7+1),"= """,sys.ini!E7,"""")</f>
-        <v>COM_SRCCHECK_UPDATE_TEXT             = "Überprüfung der Quelldateien Komponentenaktualisierung."</v>
+        <v>COM_SRCCHECK_UPDATE_TEXT                                    = "Überprüfung der Quelldateien Komponentenaktualisierung."</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="str">
         <f>CONCATENATE(sys.ini!A8,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B8+1),"= """,sys.ini!E8,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_INSTALL_TEXT  = "Die erste Dateiverifizierung wird ausgeführt."</v>
+        <v>COM_SRCCHECK_PREFLIGHT_INSTALL_TEXT                         = "Die erste Dateiverifizierung wird ausgeführt."</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="str">
         <f>CONCATENATE(sys.ini!A9,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B9+1),"= """,sys.ini!E9,"""")</f>
-        <v>COM_SRCCHECK_POSTFLIGHT_INSTALL_TEXT = "Erste Dateiverifizierung abgeschlossen."</v>
+        <v>COM_SRCCHECK_POSTFLIGHT_INSTALL_TEXT                        = "Erste Dateiverifizierung abgeschlossen."</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(sys.ini!A10,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B10+1),"= """,sys.ini!E10,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT   = "Starten des Überprüfung der Quelldateien Upgrades."</v>
+        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT                          = "Starten des Überprüfung der Quelldateien Upgrades."</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(sys.ini!A11,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B11+1),"= """,sys.ini!E11,"""")</f>
-        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT  = "Aktualisierung der Überprüfung der Quelldateien abgeschlossen."</v>
+        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT                         = "Aktualisierung der Überprüfung der Quelldateien abgeschlossen."</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(sys.ini!A12,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B12+1),"= """,sys.ini!E12,"""")</f>
-        <v>COM_SRCCHECK_INSTALL_TEXT            = "Initialisierungsskript für die Überprüfung der Quelldateien."</v>
+        <v>COM_SRCCHECK_INSTALL_TEXT                                   = "Initialisierungsskript für die Überprüfung der Quelldateien."</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(sys.ini!A13,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B13+1),"= """,sys.ini!E13,"""")</f>
-        <v>COM_SRCCHECK_MENU                    = "Überprüfung der Quelldateien"</v>
+        <v>COM_SRCCHECK_MENU                                           = "Überprüfung der Quelldateien"</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="str">
         <f>CONCATENATE(sys.ini!A14,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B14+1),"= """,sys.ini!E14,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION             = "Umweltüberprüfung."</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="str">
         <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B15+1),"= """,sys.ini!E15,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION_ZIP_PRESENT = ""</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="str">
         <f>CONCATENATE(sys.ini!A16,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B16+1),"= """,sys.ini!E16,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION_ZIP_ABSENT  = ""</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
         <f>CONCATENATE(sys.ini!A17,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B17+1),"= """,sys.ini!E17,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
         <f>CONCATENATE(sys.ini!A18,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B18+1),"= """,sys.ini!E18,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="str">
         <f>CONCATENATE(sys.ini!A19,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B19+1),"= """,sys.ini!E19,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="str">
         <f>CONCATENATE(sys.ini!A20,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B20+1),"= """,sys.ini!E20,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="str">
         <f>CONCATENATE(sys.ini!A21,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B21+1),"= """,sys.ini!E21,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="str">
         <f>CONCATENATE(sys.ini!A22,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B22+1),"= """,sys.ini!E22,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="str">
         <f>CONCATENATE(sys.ini!A23,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B23+1),"= """,sys.ini!E23,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="str">
         <f>CONCATENATE(sys.ini!A24,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B24+1),"= """,sys.ini!E24,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="str">
         <f>CONCATENATE(sys.ini!A25,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B25+1),"= """,sys.ini!E25,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="str">
         <f>CONCATENATE(sys.ini!A26,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B26+1),"= """,sys.ini!E26,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="str">
         <f>CONCATENATE(sys.ini!A27,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B27+1),"= """,sys.ini!E27,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="str">
         <f>CONCATENATE(sys.ini!A28,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B28+1),"= """,sys.ini!E28,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="str">
         <f>CONCATENATE(sys.ini!A29,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B29+1),"= """,sys.ini!E29,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="str">
         <f>CONCATENATE(sys.ini!A30,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B30+1),"= """,sys.ini!E30,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="str">
         <f>CONCATENATE(sys.ini!A31,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B31+1),"= """,sys.ini!E31,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
   </sheetData>
@@ -1155,16 +1239,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="105.125" customWidth="1"/>
+    <col min="1" max="1" width="105.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1515,17 +1599,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="98.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="98.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1536,181 +1620,181 @@
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="str">
         <f>CONCATENATE(sys.ini!A2,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B2+1),"= """,sys.ini!C2,"""")</f>
-        <v>COM_SRCCHECK                         = "Source Files Check"</v>
+        <v>COM_SRCCHECK                                                = "Source Files Check"</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="str">
         <f>CONCATENATE(sys.ini!A3,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B3+1),"= """,sys.ini!C3,"""")</f>
-        <v>COM_LICENSE                          = "GNU General Public License version 3, or later."</v>
+        <v>COM_LICENSE                                                 = "GNU General Public License version 3, or later."</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="str">
         <f>CONCATENATE(sys.ini!A4,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B4+1),"= """,sys.ini!C4,"""")</f>
-        <v>COM_COPYRIGHT                        = "Copyright (C) 2020 Green Line. All Rights Reserved."</v>
+        <v>COM_COPYRIGHT                                               = "Copyright (C) 2020 Green Line. All Rights Reserved."</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="str">
         <f>CONCATENATE(sys.ini!A5,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B5+1),"= """,sys.ini!C5,"""")</f>
-        <v>COM_SRCCHECK_DESCRIPTION             = "Source Files Check jest komponentem weryfikującym czy któreś pliki systemu Joomla nie zostału zmienione."</v>
+        <v>COM_SRCCHECK_DESCRIPTION                                    = "Source Files Check jest komponentem weryfikującym czy któreś pliki systemu Joomla nie zostału zmienione."</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="str">
         <f>CONCATENATE(sys.ini!A6,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B6+1),"= """,sys.ini!C6,"""")</f>
-        <v>COM_SRCCHECK_UNINSTALL_TEXT          = "Komponenet Source Files Check został odinstalowany. Twoja Joomla jest zagrożona !!!"</v>
+        <v>COM_SRCCHECK_UNINSTALL_TEXT                                 = "Komponenet Source Files Check został odinstalowany. Twoja Joomla jest zagrożona !!!"</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(sys.ini!A7,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B7+1),"= """,sys.ini!C7,"""")</f>
-        <v>COM_SRCCHECK_UPDATE_TEXT             = "Aktualizacja komponentu Source Check."</v>
+        <v>COM_SRCCHECK_UPDATE_TEXT                                    = "Aktualizacja komponentu Source Check."</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="str">
         <f>CONCATENATE(sys.ini!A8,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B8+1),"= """,sys.ini!C8,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_INSTALL_TEXT  = "Trwa pierwsza weryfikacja plików."</v>
+        <v>COM_SRCCHECK_PREFLIGHT_INSTALL_TEXT                         = "Trwa pierwsza weryfikacja plików."</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="str">
         <f>CONCATENATE(sys.ini!A9,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B9+1),"= """,sys.ini!C9,"""")</f>
-        <v>COM_SRCCHECK_POSTFLIGHT_INSTALL_TEXT = "Zakończona pierwsząweryfikację plików."</v>
+        <v>COM_SRCCHECK_POSTFLIGHT_INSTALL_TEXT                        = "Zakończona pierwsząweryfikację plików."</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(sys.ini!A10,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B10+1),"= """,sys.ini!C10,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT   = "Rozpoczęcie aktualizacji komponentu Source Files Check."</v>
+        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT                          = "Rozpoczęcie aktualizacji komponentu Source Files Check."</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(sys.ini!A11,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B11+1),"= """,sys.ini!C11,"""")</f>
-        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT  = "Zakończono aktualizacji komponentu Source Files Check."</v>
+        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT                         = "Zakończono aktualizacji komponentu Source Files Check."</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(sys.ini!A12,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B12+1),"= """,sys.ini!C12,"""")</f>
-        <v>COM_SRCCHECK_INSTALL_TEXT            = "Skrypt inicjujący komponent Source Files Check."</v>
+        <v>COM_SRCCHECK_INSTALL_TEXT                                   = "Skrypt inicjujący komponent Source Files Check."</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(sys.ini!A13,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B13+1),"= """,sys.ini!C13,"""")</f>
-        <v>COM_SRCCHECK_MENU                    = "Source Files Check"</v>
+        <v>COM_SRCCHECK_MENU                                           = "Source Files Check"</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A14,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B14+1),"= """,sys.ini!C14,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <f>CONCATENATE(sys.ini!A14,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B14+1),"= """,sys.ini!D14,"""")</f>
+        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION             = "Environment verification."</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="str">
         <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B15+1),"= """,sys.ini!C15,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION_ZIP_PRESENT = "Zapewniona obsługa zip przez PHP"</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="str">
         <f>CONCATENATE(sys.ini!A16,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B16+1),"= """,sys.ini!C16,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION_ZIP_ABSENT  = "Brak obsługi zip przez PHP"</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
         <f>CONCATENATE(sys.ini!A17,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B17+1),"= """,sys.ini!C17,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
         <f>CONCATENATE(sys.ini!A18,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B18+1),"= """,sys.ini!C18,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="str">
         <f>CONCATENATE(sys.ini!A19,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B19+1),"= """,sys.ini!C19,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="str">
         <f>CONCATENATE(sys.ini!A20,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B20+1),"= """,sys.ini!C20,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="str">
         <f>CONCATENATE(sys.ini!A21,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B21+1),"= """,sys.ini!C21,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="str">
         <f>CONCATENATE(sys.ini!A22,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B22+1),"= """,sys.ini!C22,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="str">
         <f>CONCATENATE(sys.ini!A23,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B23+1),"= """,sys.ini!C23,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="str">
         <f>CONCATENATE(sys.ini!A24,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B24+1),"= """,sys.ini!C24,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="str">
         <f>CONCATENATE(sys.ini!A25,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B25+1),"= """,sys.ini!C25,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="str">
         <f>CONCATENATE(sys.ini!A26,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B26+1),"= """,sys.ini!C26,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="str">
         <f>CONCATENATE(sys.ini!A27,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B27+1),"= """,sys.ini!C27,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="str">
         <f>CONCATENATE(sys.ini!A28,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B28+1),"= """,sys.ini!C28,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="str">
         <f>CONCATENATE(sys.ini!A29,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B29+1),"= """,sys.ini!C29,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="str">
         <f>CONCATENATE(sys.ini!A30,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B30+1),"= """,sys.ini!C30,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="str">
         <f>CONCATENATE(sys.ini!A31,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B31+1),"= """,sys.ini!C31,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
   </sheetData>
@@ -1720,16 +1804,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="105.125" customWidth="1"/>
+    <col min="1" max="1" width="105.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2080,17 +2164,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="98.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="98.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2101,181 +2185,181 @@
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="str">
         <f>CONCATENATE(sys.ini!A2,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B2+1),"= """,sys.ini!D2,"""")</f>
-        <v>COM_SRCCHECK                         = "Source Files Check"</v>
+        <v>COM_SRCCHECK                                                = "Source Files Check"</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="str">
         <f>CONCATENATE(sys.ini!A3,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B3+1),"= """,sys.ini!D3,"""")</f>
-        <v>COM_LICENSE                          = "GNU General Public License version 3, or later."</v>
+        <v>COM_LICENSE                                                 = "GNU General Public License version 3, or later."</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="str">
         <f>CONCATENATE(sys.ini!A4,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B4+1),"= """,sys.ini!D4,"""")</f>
-        <v>COM_COPYRIGHT                        = "Copyright (C) 2020 Green Line. All Rights Reserved."</v>
+        <v>COM_COPYRIGHT                                               = "Copyright (C) 2020 Green Line. All Rights Reserved."</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="str">
         <f>CONCATENATE(sys.ini!A5,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B5+1),"= """,sys.ini!D5,"""")</f>
-        <v>COM_SRCCHECK_DESCRIPTION             = "Source Files Check is a component that verifies if Joomla files have changed."</v>
+        <v>COM_SRCCHECK_DESCRIPTION                                    = "Source Files Check is a component that verifies if Joomla files have changed."</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="str">
         <f>CONCATENATE(sys.ini!A6,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B6+1),"= """,sys.ini!D6,"""")</f>
-        <v>COM_SRCCHECK_UNINSTALL_TEXT          = "Source Files Check uninstall successful. Your joomla is under threat!!!"</v>
+        <v>COM_SRCCHECK_UNINSTALL_TEXT                                 = "Source Files Check uninstall successful. Your joomla is under threat!!!"</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(sys.ini!A7,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B7+1),"= """,sys.ini!D7,"""")</f>
-        <v>COM_SRCCHECK_UPDATE_TEXT             = "Upgrade Source Files Check component."</v>
+        <v>COM_SRCCHECK_UPDATE_TEXT                                    = "Upgrade Source Files Check component."</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="str">
         <f>CONCATENATE(sys.ini!A8,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B8+1),"= """,sys.ini!D8,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_INSTALL_TEXT  = "The first verification in progress"</v>
+        <v>COM_SRCCHECK_PREFLIGHT_INSTALL_TEXT                         = "The first verification in progress"</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="str">
         <f>CONCATENATE(sys.ini!A9,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B9+1),"= """,sys.ini!D9,"""")</f>
-        <v>COM_SRCCHECK_POSTFLIGHT_INSTALL_TEXT = "The first verification completed"</v>
+        <v>COM_SRCCHECK_POSTFLIGHT_INSTALL_TEXT                        = "The first verification completed"</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(sys.ini!A10,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B10+1),"= """,sys.ini!D10,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT   = "Upgrade Source Files Check component START"</v>
+        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT                          = "Upgrade Source Files Check component START"</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(sys.ini!A11,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B11+1),"= """,sys.ini!D11,"""")</f>
-        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT  = "Upgrade Source Files Check component ENDED"</v>
+        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT                         = "Upgrade Source Files Check component ENDED"</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(sys.ini!A12,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B12+1),"= """,sys.ini!D12,"""")</f>
-        <v>COM_SRCCHECK_INSTALL_TEXT            = "Source Files Check initialization script."</v>
+        <v>COM_SRCCHECK_INSTALL_TEXT                                   = "Source Files Check initialization script."</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(sys.ini!A13,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B13+1),"= """,sys.ini!D13,"""")</f>
-        <v>COM_SRCCHECK_MENU                    = "Source Files Check"</v>
+        <v>COM_SRCCHECK_MENU                                           = "Source Files Check"</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A14,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B14+1),"= """,sys.ini!D14,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+      <c r="A14" s="3" t="e">
+        <f>CONCATENATE(sys.ini!A14,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B14+1),"= """,sys.ini!#REF!,"""")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="str">
         <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B15+1),"= """,sys.ini!D15,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION_ZIP_PRESENT = ""</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="str">
         <f>CONCATENATE(sys.ini!A16,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B16+1),"= """,sys.ini!D16,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION_ZIP_ABSENT  = ""</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
         <f>CONCATENATE(sys.ini!A17,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B17+1),"= """,sys.ini!D17,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
         <f>CONCATENATE(sys.ini!A18,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B18+1),"= """,sys.ini!D18,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="str">
         <f>CONCATENATE(sys.ini!A19,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B19+1),"= """,sys.ini!D19,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="str">
         <f>CONCATENATE(sys.ini!A20,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B20+1),"= """,sys.ini!D20,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="str">
         <f>CONCATENATE(sys.ini!A21,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B21+1),"= """,sys.ini!D21,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="str">
         <f>CONCATENATE(sys.ini!A22,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B22+1),"= """,sys.ini!D22,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="str">
         <f>CONCATENATE(sys.ini!A23,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B23+1),"= """,sys.ini!D23,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="str">
         <f>CONCATENATE(sys.ini!A24,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B24+1),"= """,sys.ini!D24,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="str">
         <f>CONCATENATE(sys.ini!A25,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B25+1),"= """,sys.ini!D25,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="str">
         <f>CONCATENATE(sys.ini!A26,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B26+1),"= """,sys.ini!D26,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="str">
         <f>CONCATENATE(sys.ini!A27,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B27+1),"= """,sys.ini!D27,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="str">
         <f>CONCATENATE(sys.ini!A28,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B28+1),"= """,sys.ini!D28,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="str">
         <f>CONCATENATE(sys.ini!A29,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B29+1),"= """,sys.ini!D29,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="str">
         <f>CONCATENATE(sys.ini!A30,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B30+1),"= """,sys.ini!D30,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="str">
         <f>CONCATENATE(sys.ini!A31,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B31+1),"= """,sys.ini!D31,"""")</f>
-        <v xml:space="preserve">                                     = ""</v>
+        <v xml:space="preserve">                                                            = ""</v>
       </c>
     </row>
   </sheetData>
@@ -2285,16 +2369,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="105.125" customWidth="1"/>
+    <col min="1" max="1" width="105.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2645,23 +2729,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.09765625" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2687,13 +2771,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
         <v>171</v>
-      </c>
-      <c r="D2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2741,10 +2825,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
         <v>164</v>
@@ -2759,13 +2843,13 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2780,10 +2864,10 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2801,7 +2885,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2819,7 +2903,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2831,13 +2915,13 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2849,13 +2933,13 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2867,13 +2951,13 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" t="s">
         <v>183</v>
       </c>
-      <c r="D12" t="s">
-        <v>184</v>
-      </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2885,31 +2969,55 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" t="s">
         <v>171</v>
       </c>
-      <c r="D13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>194</v>
+      </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>198</v>
+      </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>199</v>
+      </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -3050,23 +3158,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.25" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="42.19921875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="47.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3254,13 +3362,13 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" t="s">
         <v>171</v>
-      </c>
-      <c r="D11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3362,13 +3470,13 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3380,13 +3488,13 @@
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3728,7 +3836,7 @@
         <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3764,7 +3872,7 @@
         <v>130</v>
       </c>
       <c r="E39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3800,7 +3908,7 @@
         <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/com_srccheck/translates_pl_en_de.xlsx
+++ b/com_srccheck/translates_pl_en_de.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maciej Bednarski\Documents\NetBeansProjects\com_srccheck\com_srccheck\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9F5522-0209-47CC-8C76-40909F14BE6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="912" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" tabRatio="912" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="de-DE.com_srccheck.sys.ini" sheetId="7" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <sheet name="sys.ini" sheetId="1" r:id="rId7"/>
     <sheet name="ini" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -99,9 +93,6 @@
     <t>Zakończona pierwsząweryfikację plików.</t>
   </si>
   <si>
-    <t>Aktualizacja komponentu Source Check.</t>
-  </si>
-  <si>
     <t>COM_SRCCHECK_TOTALCOUNT_FILES</t>
   </si>
   <si>
@@ -597,18 +588,12 @@
     <t>Upgrade Source Files Check component START</t>
   </si>
   <si>
-    <t>Upgrade Source Files Check component.</t>
-  </si>
-  <si>
     <t>Source Files Check uninstall successful. Your joomla is under threat!!!</t>
   </si>
   <si>
     <t>Source Files Check is a component that verifies if Joomla files have changed.</t>
   </si>
   <si>
-    <t>Überprüfung der Quelldateien Komponentenaktualisierung.</t>
-  </si>
-  <si>
     <t>Starten des Überprüfung der Quelldateien Upgrades.</t>
   </si>
   <si>
@@ -643,12 +628,21 @@
   </si>
   <si>
     <t>Brak obsługi zip przez PHP</t>
+  </si>
+  <si>
+    <t>Aktualizacja komponentu Source Check do Wersji %s.</t>
+  </si>
+  <si>
+    <t>Upgrade Source Files Check component to version %s.</t>
+  </si>
+  <si>
+    <t>Überprüfung der Quelldateien Komponentenaktualisierung auf Version %s.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -757,7 +751,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -789,27 +783,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -841,24 +817,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -1034,22 +992,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="98.19921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="98.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1085,7 +1043,7 @@
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(sys.ini!A7,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B7+1),"= """,sys.ini!E7,"""")</f>
-        <v>COM_SRCCHECK_UPDATE_TEXT                                    = "Überprüfung der Quelldateien Komponentenaktualisierung."</v>
+        <v>COM_SRCCHECK_UPDATE_TEXT                                    = "Überprüfung der Quelldateien Komponentenaktualisierung auf Version %s."</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1234,26 +1192,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="105.09765625" customWidth="1"/>
+    <col min="1" max="1" width="105.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1599,22 +1557,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="98.19921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="98.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1650,7 +1608,7 @@
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(sys.ini!A7,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B7+1),"= """,sys.ini!C7,"""")</f>
-        <v>COM_SRCCHECK_UPDATE_TEXT                                    = "Aktualizacja komponentu Source Check."</v>
+        <v>COM_SRCCHECK_UPDATE_TEXT                                    = "Aktualizacja komponentu Source Check do Wersji %s."</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1799,26 +1757,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="105.09765625" customWidth="1"/>
+    <col min="1" max="1" width="105.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2164,22 +2122,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="98.19921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="98.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2215,7 +2173,7 @@
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(sys.ini!A7,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B7+1),"= """,sys.ini!D7,"""")</f>
-        <v>COM_SRCCHECK_UPDATE_TEXT                                    = "Upgrade Source Files Check component."</v>
+        <v>COM_SRCCHECK_UPDATE_TEXT                                    = "Upgrade Source Files Check component to version %s."</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2364,26 +2322,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A57"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="105.09765625" customWidth="1"/>
+    <col min="1" max="1" width="105.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2729,28 +2687,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="66.09765625" customWidth="1"/>
+    <col min="1" max="1" width="66.125" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2771,13 +2729,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
         <v>170</v>
-      </c>
-      <c r="D2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2789,13 +2747,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2807,13 +2765,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2825,13 +2783,13 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2843,13 +2801,13 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2861,13 +2819,13 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2885,7 +2843,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2903,7 +2861,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2915,13 +2873,13 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2933,13 +2891,13 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2951,13 +2909,13 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" t="s">
         <v>182</v>
       </c>
-      <c r="D12" t="s">
-        <v>183</v>
-      </c>
       <c r="E12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2969,55 +2927,55 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" t="s">
         <v>170</v>
-      </c>
-      <c r="D13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="C14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" t="s">
         <v>193</v>
-      </c>
-      <c r="D14" t="s">
-        <v>195</v>
-      </c>
-      <c r="E14" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -3158,28 +3116,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.19921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="42.25" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="47.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3193,722 +3151,722 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <f>LEN(A2)</f>
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B44" si="0">LEN(A3)</f>
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" t="s">
         <v>170</v>
-      </c>
-      <c r="D11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
         <v>91</v>
       </c>
-      <c r="D13" t="s">
-        <v>92</v>
-      </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
         <v>93</v>
       </c>
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
         <v>35</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
         <v>42</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
         <v>44</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
         <v>46</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
         <v>48</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
         <v>50</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
         <v>52</v>
       </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" t="s">
-        <v>53</v>
-      </c>
       <c r="E25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" t="s">
         <v>54</v>
       </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" t="s">
-        <v>55</v>
-      </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
         <v>56</v>
       </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
         <v>58</v>
       </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" t="s">
         <v>60</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" t="s">
-        <v>61</v>
-      </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" t="s">
         <v>62</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" t="s">
-        <v>63</v>
-      </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
         <v>66</v>
       </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" t="s">
-        <v>67</v>
-      </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
         <v>68</v>
       </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" t="s">
-        <v>69</v>
-      </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
         <v>70</v>
       </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" t="s">
-        <v>71</v>
-      </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
         <v>91</v>
       </c>
-      <c r="D38" t="s">
-        <v>92</v>
-      </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" t="s">
         <v>93</v>
       </c>
-      <c r="D40" t="s">
-        <v>94</v>
-      </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/com_srccheck/translates_pl_en_de.xlsx
+++ b/com_srccheck/translates_pl_en_de.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="198">
   <si>
     <t>key</t>
   </si>
@@ -616,18 +616,6 @@
   </si>
   <si>
     <t>Die Source Check-Komponente wurde deinstalliert. Dein Joomla ist gefährdet!!!</t>
-  </si>
-  <si>
-    <t>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION_ZIP_PRESENT</t>
-  </si>
-  <si>
-    <t>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION_ZIP_ABSENT</t>
-  </si>
-  <si>
-    <t>Zapewniona obsługa zip przez PHP</t>
-  </si>
-  <si>
-    <t>Brak obsługi zip przez PHP</t>
   </si>
   <si>
     <t>Aktualizacja komponentu Source Check do Wersji %s.</t>
@@ -1013,181 +1001,181 @@
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="str">
         <f>CONCATENATE(sys.ini!A2,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B2+1),"= """,sys.ini!E2,"""")</f>
-        <v>COM_SRCCHECK                                                = "Überprüfung der Quelldateien"</v>
+        <v>COM_SRCCHECK                                    = "Überprüfung der Quelldateien"</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="str">
         <f>CONCATENATE(sys.ini!A3,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B3+1),"= """,sys.ini!E3,"""")</f>
-        <v>COM_LICENSE                                                 = "GNU General Public License Version 3 oder höher."</v>
+        <v>COM_LICENSE                                     = "GNU General Public License Version 3 oder höher."</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="str">
         <f>CONCATENATE(sys.ini!A4,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B4+1),"= """,sys.ini!E4,"""")</f>
-        <v>COM_COPYRIGHT                                               = "Copyright (C) 2020 Green Linie. Alle Rechte vorbehalten."</v>
+        <v>COM_COPYRIGHT                                   = "Copyright (C) 2020 Green Linie. Alle Rechte vorbehalten."</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="str">
         <f>CONCATENATE(sys.ini!A5,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B5+1),"= """,sys.ini!E5,"""")</f>
-        <v>COM_SRCCHECK_DESCRIPTION                                    = "Source Check ist eine Komponente, die überprüft, ob Joomla-Systemdateien geändert wurden."</v>
+        <v>COM_SRCCHECK_DESCRIPTION                        = "Source Check ist eine Komponente, die überprüft, ob Joomla-Systemdateien geändert wurden."</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="str">
         <f>CONCATENATE(sys.ini!A6,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B6+1),"= """,sys.ini!E6,"""")</f>
-        <v>COM_SRCCHECK_UNINSTALL_TEXT                                 = "Die Source Check-Komponente wurde deinstalliert. Dein Joomla ist gefährdet!!!"</v>
+        <v>COM_SRCCHECK_UNINSTALL_TEXT                     = "Die Source Check-Komponente wurde deinstalliert. Dein Joomla ist gefährdet!!!"</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(sys.ini!A7,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B7+1),"= """,sys.ini!E7,"""")</f>
-        <v>COM_SRCCHECK_UPDATE_TEXT                                    = "Überprüfung der Quelldateien Komponentenaktualisierung auf Version %s."</v>
+        <v>COM_SRCCHECK_UPDATE_TEXT                        = "Überprüfung der Quelldateien Komponentenaktualisierung auf Version %s."</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="str">
         <f>CONCATENATE(sys.ini!A8,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B8+1),"= """,sys.ini!E8,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_INSTALL_TEXT                         = "Die erste Dateiverifizierung wird ausgeführt."</v>
+        <v>COM_SRCCHECK_PREFLIGHT_INSTALL_TEXT             = "Die erste Dateiverifizierung wird ausgeführt."</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="str">
         <f>CONCATENATE(sys.ini!A9,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B9+1),"= """,sys.ini!E9,"""")</f>
-        <v>COM_SRCCHECK_POSTFLIGHT_INSTALL_TEXT                        = "Erste Dateiverifizierung abgeschlossen."</v>
+        <v>COM_SRCCHECK_POSTFLIGHT_INSTALL_TEXT            = "Erste Dateiverifizierung abgeschlossen."</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(sys.ini!A10,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B10+1),"= """,sys.ini!E10,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT                          = "Starten des Überprüfung der Quelldateien Upgrades."</v>
+        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT              = "Starten des Überprüfung der Quelldateien Upgrades."</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(sys.ini!A11,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B11+1),"= """,sys.ini!E11,"""")</f>
-        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT                         = "Aktualisierung der Überprüfung der Quelldateien abgeschlossen."</v>
+        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT             = "Aktualisierung der Überprüfung der Quelldateien abgeschlossen."</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(sys.ini!A12,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B12+1),"= """,sys.ini!E12,"""")</f>
-        <v>COM_SRCCHECK_INSTALL_TEXT                                   = "Initialisierungsskript für die Überprüfung der Quelldateien."</v>
+        <v>COM_SRCCHECK_INSTALL_TEXT                       = "Initialisierungsskript für die Überprüfung der Quelldateien."</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(sys.ini!A13,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B13+1),"= """,sys.ini!E13,"""")</f>
-        <v>COM_SRCCHECK_MENU                                           = "Überprüfung der Quelldateien"</v>
+        <v>COM_SRCCHECK_MENU                               = "Überprüfung der Quelldateien"</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="str">
         <f>CONCATENATE(sys.ini!A14,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B14+1),"= """,sys.ini!E14,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION             = "Umweltüberprüfung."</v>
+        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION = "Umweltüberprüfung."</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B15+1),"= """,sys.ini!E15,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION_ZIP_PRESENT = ""</v>
+      <c r="A15" s="3" t="e">
+        <f>CONCATENATE(sys.ini!#REF!,REPT(" ",MAX(sys.ini!B:B)-sys.ini!#REF!+1),"= """,sys.ini!#REF!,"""")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A16,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B16+1),"= """,sys.ini!E16,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION_ZIP_ABSENT  = ""</v>
+      <c r="A16" s="3" t="e">
+        <f>CONCATENATE(sys.ini!#REF!,REPT(" ",MAX(sys.ini!B:B)-sys.ini!#REF!+1),"= """,sys.ini!#REF!,"""")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A17,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B17+1),"= """,sys.ini!E17,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B15+1),"= """,sys.ini!E15,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A18,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B18+1),"= """,sys.ini!E18,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A16,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B16+1),"= """,sys.ini!E16,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A19,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B19+1),"= """,sys.ini!E19,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A17,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B17+1),"= """,sys.ini!E17,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A20,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B20+1),"= """,sys.ini!E20,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A18,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B18+1),"= """,sys.ini!E18,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A21,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B21+1),"= """,sys.ini!E21,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A19,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B19+1),"= """,sys.ini!E19,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A22,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B22+1),"= """,sys.ini!E22,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A20,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B20+1),"= """,sys.ini!E20,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A23,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B23+1),"= """,sys.ini!E23,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A21,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B21+1),"= """,sys.ini!E21,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A24,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B24+1),"= """,sys.ini!E24,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A22,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B22+1),"= """,sys.ini!E22,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A25,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B25+1),"= """,sys.ini!E25,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A23,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B23+1),"= """,sys.ini!E23,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A26,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B26+1),"= """,sys.ini!E26,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A24,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B24+1),"= """,sys.ini!E24,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A27,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B27+1),"= """,sys.ini!E27,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A25,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B25+1),"= """,sys.ini!E25,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A28,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B28+1),"= """,sys.ini!E28,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A26,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B26+1),"= """,sys.ini!E26,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A29,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B29+1),"= """,sys.ini!E29,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A27,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B27+1),"= """,sys.ini!E27,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A30,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B30+1),"= """,sys.ini!E30,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A28,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B28+1),"= """,sys.ini!E28,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A31,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B31+1),"= """,sys.ini!E31,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A29,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B29+1),"= """,sys.ini!E29,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
   </sheetData>
@@ -1578,181 +1566,181 @@
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="str">
         <f>CONCATENATE(sys.ini!A2,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B2+1),"= """,sys.ini!C2,"""")</f>
-        <v>COM_SRCCHECK                                                = "Source Files Check"</v>
+        <v>COM_SRCCHECK                                    = "Source Files Check"</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="str">
         <f>CONCATENATE(sys.ini!A3,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B3+1),"= """,sys.ini!C3,"""")</f>
-        <v>COM_LICENSE                                                 = "GNU General Public License version 3, or later."</v>
+        <v>COM_LICENSE                                     = "GNU General Public License version 3, or later."</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="str">
         <f>CONCATENATE(sys.ini!A4,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B4+1),"= """,sys.ini!C4,"""")</f>
-        <v>COM_COPYRIGHT                                               = "Copyright (C) 2020 Green Line. All Rights Reserved."</v>
+        <v>COM_COPYRIGHT                                   = "Copyright (C) 2020 Green Line. All Rights Reserved."</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="str">
         <f>CONCATENATE(sys.ini!A5,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B5+1),"= """,sys.ini!C5,"""")</f>
-        <v>COM_SRCCHECK_DESCRIPTION                                    = "Source Files Check jest komponentem weryfikującym czy któreś pliki systemu Joomla nie zostału zmienione."</v>
+        <v>COM_SRCCHECK_DESCRIPTION                        = "Source Files Check jest komponentem weryfikującym czy któreś pliki systemu Joomla nie zostału zmienione."</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="str">
         <f>CONCATENATE(sys.ini!A6,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B6+1),"= """,sys.ini!C6,"""")</f>
-        <v>COM_SRCCHECK_UNINSTALL_TEXT                                 = "Komponenet Source Files Check został odinstalowany. Twoja Joomla jest zagrożona !!!"</v>
+        <v>COM_SRCCHECK_UNINSTALL_TEXT                     = "Komponenet Source Files Check został odinstalowany. Twoja Joomla jest zagrożona !!!"</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(sys.ini!A7,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B7+1),"= """,sys.ini!C7,"""")</f>
-        <v>COM_SRCCHECK_UPDATE_TEXT                                    = "Aktualizacja komponentu Source Check do Wersji %s."</v>
+        <v>COM_SRCCHECK_UPDATE_TEXT                        = "Aktualizacja komponentu Source Check do Wersji %s."</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="str">
         <f>CONCATENATE(sys.ini!A8,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B8+1),"= """,sys.ini!C8,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_INSTALL_TEXT                         = "Trwa pierwsza weryfikacja plików."</v>
+        <v>COM_SRCCHECK_PREFLIGHT_INSTALL_TEXT             = "Trwa pierwsza weryfikacja plików."</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="str">
         <f>CONCATENATE(sys.ini!A9,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B9+1),"= """,sys.ini!C9,"""")</f>
-        <v>COM_SRCCHECK_POSTFLIGHT_INSTALL_TEXT                        = "Zakończona pierwsząweryfikację plików."</v>
+        <v>COM_SRCCHECK_POSTFLIGHT_INSTALL_TEXT            = "Zakończona pierwsząweryfikację plików."</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(sys.ini!A10,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B10+1),"= """,sys.ini!C10,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT                          = "Rozpoczęcie aktualizacji komponentu Source Files Check."</v>
+        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT              = "Rozpoczęcie aktualizacji komponentu Source Files Check."</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(sys.ini!A11,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B11+1),"= """,sys.ini!C11,"""")</f>
-        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT                         = "Zakończono aktualizacji komponentu Source Files Check."</v>
+        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT             = "Zakończono aktualizacji komponentu Source Files Check."</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(sys.ini!A12,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B12+1),"= """,sys.ini!C12,"""")</f>
-        <v>COM_SRCCHECK_INSTALL_TEXT                                   = "Skrypt inicjujący komponent Source Files Check."</v>
+        <v>COM_SRCCHECK_INSTALL_TEXT                       = "Skrypt inicjujący komponent Source Files Check."</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(sys.ini!A13,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B13+1),"= """,sys.ini!C13,"""")</f>
-        <v>COM_SRCCHECK_MENU                                           = "Source Files Check"</v>
+        <v>COM_SRCCHECK_MENU                               = "Source Files Check"</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="str">
         <f>CONCATENATE(sys.ini!A14,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B14+1),"= """,sys.ini!D14,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION             = "Environment verification."</v>
+        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION = "Environment verification."</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B15+1),"= """,sys.ini!C15,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION_ZIP_PRESENT = "Zapewniona obsługa zip przez PHP"</v>
+      <c r="A15" s="3" t="e">
+        <f>CONCATENATE(sys.ini!#REF!,REPT(" ",MAX(sys.ini!B:B)-sys.ini!#REF!+1),"= """,sys.ini!#REF!,"""")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A16,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B16+1),"= """,sys.ini!C16,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION_ZIP_ABSENT  = "Brak obsługi zip przez PHP"</v>
+      <c r="A16" s="3" t="e">
+        <f>CONCATENATE(sys.ini!#REF!,REPT(" ",MAX(sys.ini!B:B)-sys.ini!#REF!+1),"= """,sys.ini!#REF!,"""")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A17,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B17+1),"= """,sys.ini!C17,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B15+1),"= """,sys.ini!C15,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A18,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B18+1),"= """,sys.ini!C18,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A16,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B16+1),"= """,sys.ini!C16,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A19,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B19+1),"= """,sys.ini!C19,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A17,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B17+1),"= """,sys.ini!C17,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A20,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B20+1),"= """,sys.ini!C20,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A18,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B18+1),"= """,sys.ini!C18,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A21,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B21+1),"= """,sys.ini!C21,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A19,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B19+1),"= """,sys.ini!C19,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A22,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B22+1),"= """,sys.ini!C22,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A20,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B20+1),"= """,sys.ini!C20,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A23,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B23+1),"= """,sys.ini!C23,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A21,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B21+1),"= """,sys.ini!C21,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A24,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B24+1),"= """,sys.ini!C24,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A22,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B22+1),"= """,sys.ini!C22,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A25,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B25+1),"= """,sys.ini!C25,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A23,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B23+1),"= """,sys.ini!C23,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A26,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B26+1),"= """,sys.ini!C26,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A24,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B24+1),"= """,sys.ini!C24,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A27,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B27+1),"= """,sys.ini!C27,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A25,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B25+1),"= """,sys.ini!C25,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A28,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B28+1),"= """,sys.ini!C28,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A26,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B26+1),"= """,sys.ini!C26,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A29,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B29+1),"= """,sys.ini!C29,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A27,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B27+1),"= """,sys.ini!C27,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A30,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B30+1),"= """,sys.ini!C30,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A28,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B28+1),"= """,sys.ini!C28,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A31,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B31+1),"= """,sys.ini!C31,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A29,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B29+1),"= """,sys.ini!C29,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
   </sheetData>
@@ -2143,73 +2131,73 @@
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="str">
         <f>CONCATENATE(sys.ini!A2,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B2+1),"= """,sys.ini!D2,"""")</f>
-        <v>COM_SRCCHECK                                                = "Source Files Check"</v>
+        <v>COM_SRCCHECK                                    = "Source Files Check"</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="str">
         <f>CONCATENATE(sys.ini!A3,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B3+1),"= """,sys.ini!D3,"""")</f>
-        <v>COM_LICENSE                                                 = "GNU General Public License version 3, or later."</v>
+        <v>COM_LICENSE                                     = "GNU General Public License version 3, or later."</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="str">
         <f>CONCATENATE(sys.ini!A4,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B4+1),"= """,sys.ini!D4,"""")</f>
-        <v>COM_COPYRIGHT                                               = "Copyright (C) 2020 Green Line. All Rights Reserved."</v>
+        <v>COM_COPYRIGHT                                   = "Copyright (C) 2020 Green Line. All Rights Reserved."</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="str">
         <f>CONCATENATE(sys.ini!A5,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B5+1),"= """,sys.ini!D5,"""")</f>
-        <v>COM_SRCCHECK_DESCRIPTION                                    = "Source Files Check is a component that verifies if Joomla files have changed."</v>
+        <v>COM_SRCCHECK_DESCRIPTION                        = "Source Files Check is a component that verifies if Joomla files have changed."</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="str">
         <f>CONCATENATE(sys.ini!A6,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B6+1),"= """,sys.ini!D6,"""")</f>
-        <v>COM_SRCCHECK_UNINSTALL_TEXT                                 = "Source Files Check uninstall successful. Your joomla is under threat!!!"</v>
+        <v>COM_SRCCHECK_UNINSTALL_TEXT                     = "Source Files Check uninstall successful. Your joomla is under threat!!!"</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(sys.ini!A7,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B7+1),"= """,sys.ini!D7,"""")</f>
-        <v>COM_SRCCHECK_UPDATE_TEXT                                    = "Upgrade Source Files Check component to version %s."</v>
+        <v>COM_SRCCHECK_UPDATE_TEXT                        = "Upgrade Source Files Check component to version %s."</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="str">
         <f>CONCATENATE(sys.ini!A8,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B8+1),"= """,sys.ini!D8,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_INSTALL_TEXT                         = "The first verification in progress"</v>
+        <v>COM_SRCCHECK_PREFLIGHT_INSTALL_TEXT             = "The first verification in progress"</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="str">
         <f>CONCATENATE(sys.ini!A9,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B9+1),"= """,sys.ini!D9,"""")</f>
-        <v>COM_SRCCHECK_POSTFLIGHT_INSTALL_TEXT                        = "The first verification completed"</v>
+        <v>COM_SRCCHECK_POSTFLIGHT_INSTALL_TEXT            = "The first verification completed"</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(sys.ini!A10,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B10+1),"= """,sys.ini!D10,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT                          = "Upgrade Source Files Check component START"</v>
+        <v>COM_SRCCHECK_PREFLIGHT_UPDATE_TEXT              = "Upgrade Source Files Check component START"</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(sys.ini!A11,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B11+1),"= """,sys.ini!D11,"""")</f>
-        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT                         = "Upgrade Source Files Check component ENDED"</v>
+        <v>COM_SRCCHECK_POSTFLIGHT_UPDATE_TEXT             = "Upgrade Source Files Check component ENDED"</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(sys.ini!A12,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B12+1),"= """,sys.ini!D12,"""")</f>
-        <v>COM_SRCCHECK_INSTALL_TEXT                                   = "Source Files Check initialization script."</v>
+        <v>COM_SRCCHECK_INSTALL_TEXT                       = "Source Files Check initialization script."</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(sys.ini!A13,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B13+1),"= """,sys.ini!D13,"""")</f>
-        <v>COM_SRCCHECK_MENU                                           = "Source Files Check"</v>
+        <v>COM_SRCCHECK_MENU                               = "Source Files Check"</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -2219,105 +2207,105 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B15+1),"= """,sys.ini!D15,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION_ZIP_PRESENT = ""</v>
+      <c r="A15" s="3" t="e">
+        <f>CONCATENATE(sys.ini!#REF!,REPT(" ",MAX(sys.ini!B:B)-sys.ini!#REF!+1),"= """,sys.ini!#REF!,"""")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A16,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B16+1),"= """,sys.ini!D16,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION_ZIP_ABSENT  = ""</v>
+      <c r="A16" s="3" t="e">
+        <f>CONCATENATE(sys.ini!#REF!,REPT(" ",MAX(sys.ini!B:B)-sys.ini!#REF!+1),"= """,sys.ini!#REF!,"""")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A17,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B17+1),"= """,sys.ini!D17,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B15+1),"= """,sys.ini!D15,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A18,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B18+1),"= """,sys.ini!D18,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A16,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B16+1),"= """,sys.ini!D16,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A19,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B19+1),"= """,sys.ini!D19,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A17,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B17+1),"= """,sys.ini!D17,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A20,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B20+1),"= """,sys.ini!D20,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A18,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B18+1),"= """,sys.ini!D18,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A21,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B21+1),"= """,sys.ini!D21,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A19,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B19+1),"= """,sys.ini!D19,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A22,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B22+1),"= """,sys.ini!D22,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A20,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B20+1),"= """,sys.ini!D20,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A23,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B23+1),"= """,sys.ini!D23,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A21,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B21+1),"= """,sys.ini!D21,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A24,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B24+1),"= """,sys.ini!D24,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A22,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B22+1),"= """,sys.ini!D22,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A25,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B25+1),"= """,sys.ini!D25,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A23,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B23+1),"= """,sys.ini!D23,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A26,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B26+1),"= """,sys.ini!D26,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A24,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B24+1),"= """,sys.ini!D24,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A27,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B27+1),"= """,sys.ini!D27,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A25,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B25+1),"= """,sys.ini!D25,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A28,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B28+1),"= """,sys.ini!D28,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A26,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B26+1),"= """,sys.ini!D26,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A29,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B29+1),"= """,sys.ini!D29,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A27,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B27+1),"= """,sys.ini!D27,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A30,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B30+1),"= """,sys.ini!D30,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A28,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B28+1),"= """,sys.ini!D28,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A31,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B31+1),"= """,sys.ini!D31,"""")</f>
-        <v xml:space="preserve">                                                            = ""</v>
+        <f>CONCATENATE(sys.ini!A29,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B29+1),"= """,sys.ini!D29,"""")</f>
+        <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
   </sheetData>
@@ -2688,10 +2676,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2743,7 +2731,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B38" si="0">LEN(A3)</f>
+        <f t="shared" ref="B3:B36" si="0">LEN(A3)</f>
         <v>11</v>
       </c>
       <c r="C3" t="s">
@@ -2819,13 +2807,13 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2955,27 +2943,15 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>195</v>
-      </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>196</v>
-      </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -3094,18 +3070,6 @@
     </row>
     <row r="36" spans="2:2">
       <c r="B36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/com_srccheck/translates_pl_en_de.xlsx
+++ b/com_srccheck/translates_pl_en_de.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" tabRatio="912" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" tabRatio="912" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="de-DE.com_srccheck.sys.ini" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="sys.ini" sheetId="1" r:id="rId7"/>
     <sheet name="ini" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="316">
   <si>
     <t>key</t>
   </si>
@@ -291,15 +291,6 @@
     <t>Data ostatniej weryfikacji:</t>
   </si>
   <si>
-    <t>Identyfikator użytkowniaka który ostatnio weryfikował:</t>
-  </si>
-  <si>
-    <t>Login użytkowniaka który ostatnio weryfikował:</t>
-  </si>
-  <si>
-    <t>Nazwa użytkowniaka który ostatnio weryfikował:</t>
-  </si>
-  <si>
     <t>Weryfikuj</t>
   </si>
   <si>
@@ -408,15 +399,6 @@
     <t xml:space="preserve">COM_SRCCHECK_PERMISSION_DESC_ERASE        </t>
   </si>
   <si>
-    <t>Uprawnienia do operacji akceptujacej poprawność plików.</t>
-  </si>
-  <si>
-    <t>Uprawnienia do operacji uruchamiajacej weryfikację plików.</t>
-  </si>
-  <si>
-    <t>Uprawnienia do operacji usówającej z historii sprawdzeń skasowane pliki.</t>
-  </si>
-  <si>
     <t>Allow users to the operation that runs the file verification.</t>
   </si>
   <si>
@@ -625,12 +607,384 @@
   </si>
   <si>
     <t>Überprüfung der Quelldateien Komponentenaktualisierung auf Version %s.</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_SUBMENU_TRASHCAN</t>
+  </si>
+  <si>
+    <t>Kosz</t>
+  </si>
+  <si>
+    <t>Trashcan</t>
+  </si>
+  <si>
+    <t>Mülleimer</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_ADMINISTRATION_TRASHCAN</t>
+  </si>
+  <si>
+    <t>Source Files Check: Kosz</t>
+  </si>
+  <si>
+    <t>Source Files Check: Trashcan</t>
+  </si>
+  <si>
+    <t>Überprüfung der Quelldateien: Mülleimer</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_PERMISSION_TRASHCAN</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_PERMISSION_DESC_TRASHCAN</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_PERMISSION_MANAGE</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_PERMISSION_DESC_MANAGE</t>
+  </si>
+  <si>
+    <t>Uprawnienia do zakładki "Zarządzaj".</t>
+  </si>
+  <si>
+    <t>Uprawnienia do zakładki "Kosz".</t>
+  </si>
+  <si>
+    <t>Permissions for the "Manage" tab.</t>
+  </si>
+  <si>
+    <t>Permissions for the "Trashcan" tab.</t>
+  </si>
+  <si>
+    <t>Berechtigungen für die Registerkarte "Verwalten".</t>
+  </si>
+  <si>
+    <t>Berechtigungen für die Registerkarte "Mülleimer".</t>
+  </si>
+  <si>
+    <t>Grants permission to the "Manage" view.</t>
+  </si>
+  <si>
+    <t>Grants permission to the "Trashcan" view.</t>
+  </si>
+  <si>
+    <t>Nadaje uprawnienia do widoku "Zarządzaj".</t>
+  </si>
+  <si>
+    <t>Nadaje uprawnienia do widoku "Kosz".</t>
+  </si>
+  <si>
+    <t>Erteilt die Berechtigung für die Ansicht "Verwalten".</t>
+  </si>
+  <si>
+    <t>Erteilt die Berechtigung für die Ansicht "Mülleimer".</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_BTN_ERASE_SELECTED_FILES_FROM_TRASHCAN</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_BTN_ERASE_ALL_FILES_FROM_TRASHCAN</t>
+  </si>
+  <si>
+    <t>Usuń wybrane pliki</t>
+  </si>
+  <si>
+    <t>Usuń wszystkie pliki</t>
+  </si>
+  <si>
+    <t>Erase selected files</t>
+  </si>
+  <si>
+    <t>Erase all files</t>
+  </si>
+  <si>
+    <t>Ausgewählte Dateien löschen</t>
+  </si>
+  <si>
+    <t>Löschen Sie alle Dateien</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_IN_TRASHCAN_STATUS_FILE</t>
+  </si>
+  <si>
+    <t>W koszu</t>
+  </si>
+  <si>
+    <t>In trashcan</t>
+  </si>
+  <si>
+    <t>Im Müll</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_PERMISSION_DESC_ERASE_FROM_TRASHCAN</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_PERMISSION_ERASE_FROM_TRASHCAN</t>
+  </si>
+  <si>
+    <t>Opróżnij kosz</t>
+  </si>
+  <si>
+    <t>Identyfikator użytkownika który ostatnio weryfikował:</t>
+  </si>
+  <si>
+    <t>Login użytkownika który ostatnio weryfikował:</t>
+  </si>
+  <si>
+    <t>Nazwa użytkownika który ostatnio weryfikował:</t>
+  </si>
+  <si>
+    <t>Uprawnienia do operacji uruchamiającej weryfikację plików.</t>
+  </si>
+  <si>
+    <t>Uprawnienia do operacji akceptującej poprawność plików.</t>
+  </si>
+  <si>
+    <t>Uprawnienia do operacji usuwającej z historii sprawdzeń skasowane pliki.</t>
+  </si>
+  <si>
+    <t>Uprawnienia do operacji usuwającej pliki z kosza.</t>
+  </si>
+  <si>
+    <t>Berechtigungen zum Löschen von Dateien aus dem Papierkorb.</t>
+  </si>
+  <si>
+    <t>Leerer Mülleimer</t>
+  </si>
+  <si>
+    <t>Empty Trashcan</t>
+  </si>
+  <si>
+    <t>Allow users to operation remove files from Trashcan.</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_SRCCHECK_VIEW_DEFAULT_TITLE</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_SRCCHECK_VIEW_DEFAULT_DESC</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_MANAGE_VIEW_DEFAULT_TITLE</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_MANAGE_VIEW_DEFAULT_DESC</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_TRASHCAN_VIEW_DEFAULT_TITLE</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_TRASHCAN_VIEW_DEFAULT_DESC</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_MANAGE_FILE_HISTORY</t>
+  </si>
+  <si>
+    <t>Historia pliku:</t>
+  </si>
+  <si>
+    <t>File history:</t>
+  </si>
+  <si>
+    <t>Dateiversionsverlauf:</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_CONFIGURATION</t>
+  </si>
+  <si>
+    <t>Source Check: Options</t>
+  </si>
+  <si>
+    <t>Source Check: Opcje</t>
+  </si>
+  <si>
+    <t>Source Check: Optionen</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_FILE_LOCALISATION</t>
+  </si>
+  <si>
+    <t>Lokalizacja pliku:</t>
+  </si>
+  <si>
+    <t>File location:</t>
+  </si>
+  <si>
+    <t>Speicherort:</t>
+  </si>
+  <si>
+    <t>Data pierwszej weryfikacji:</t>
+  </si>
+  <si>
+    <t>First verification date:</t>
+  </si>
+  <si>
+    <t>Erstes Verifizierungsdatum:</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_FILE_STATUS</t>
+  </si>
+  <si>
+    <t>Status pliku:</t>
+  </si>
+  <si>
+    <t>File Status:</t>
+  </si>
+  <si>
+    <t>Dateistatus:</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_FILE_FIRST_VERYFICATION_TIME</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_FILE_STORED_IN_TA</t>
+  </si>
+  <si>
+    <t>Plik zapisany w archiwum:</t>
+  </si>
+  <si>
+    <t>File stored in the archive:</t>
+  </si>
+  <si>
+    <t>Datei im Archiv gespeichert:</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_FILE_VERSION</t>
+  </si>
+  <si>
+    <t>Wersja</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Ausführung</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_FILE_VERYFICATION_DATE</t>
+  </si>
+  <si>
+    <t>Data weryfikacji</t>
+  </si>
+  <si>
+    <t>Verification date</t>
+  </si>
+  <si>
+    <t>Überprüfungsdatum</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_FILE_IN_TA_LOCALISATION</t>
+  </si>
+  <si>
+    <t>Lokalizacja w archiwum</t>
+  </si>
+  <si>
+    <t>Location in the archive</t>
+  </si>
+  <si>
+    <t>Speicherort im Archiv</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_FILE_VERYFIED_STATUS</t>
+  </si>
+  <si>
+    <t>Status weryfikacji</t>
+  </si>
+  <si>
+    <t>Überprüfungsstatus</t>
+  </si>
+  <si>
+    <t>Verification status</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_BTN_DETAILS</t>
+  </si>
+  <si>
+    <t>Szczegóły</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Einzelheiten</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_ERR_CREATE_ARCHIVE</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_ERR_CREATE_ARCHIVE_CATALOG</t>
+  </si>
+  <si>
+    <t>Problem z utworzeniem nowego archiwum: %s.</t>
+  </si>
+  <si>
+    <t>Problem z utworzeniem folderu dla archiwum: %s.</t>
+  </si>
+  <si>
+    <t>Problem with creating a new archive: %s.</t>
+  </si>
+  <si>
+    <t>Problem creating folder for archive: %s.</t>
+  </si>
+  <si>
+    <t>Problem beim Erstellen eines neuen Archivs: %s.</t>
+  </si>
+  <si>
+    <t>Problem beim Erstellen des Ordners für das Archiv: %s.</t>
+  </si>
+  <si>
+    <t>Problem z kopiowaniem archiwum: %s.</t>
+  </si>
+  <si>
+    <t>Problem z otwarciem archiwum: %s.</t>
+  </si>
+  <si>
+    <t>Das Problem beim Kopieren des Archivs: %s.</t>
+  </si>
+  <si>
+    <t>The problem with copying the archive: %s.</t>
+  </si>
+  <si>
+    <t>Problem with opening the archive: %s.</t>
+  </si>
+  <si>
+    <t>Problem beim Öffnen des Archivs: %s.</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_ERR_COPY_ARCHIVE</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_ERR_OPEN_ARCHIVE</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_ERR_ARC_PUT_TO_TRASHCAN</t>
+  </si>
+  <si>
+    <t>COM_SRCCHECK_ERR_ARC_EMPTY_TRASHCAN</t>
+  </si>
+  <si>
+    <t>Nie mogę przenieść do kosza pliku: %s.</t>
+  </si>
+  <si>
+    <t>Nie mogę usunąć z kosza pliku: %s.</t>
+  </si>
+  <si>
+    <t>Unable to move file:%s to trash.</t>
+  </si>
+  <si>
+    <t>Datei:%s kann nicht in den Papierkorb verschoben werden.</t>
+  </si>
+  <si>
+    <t>Datei:%s kann nicht aus dem Papierkorb entfernt werden.</t>
+  </si>
+  <si>
+    <t>Unable to remove the file:%s from the Trashcan.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -771,6 +1125,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -805,6 +1160,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -980,11 +1336,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -995,7 +1351,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1077,105 +1433,105 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="e">
-        <f>CONCATENATE(sys.ini!#REF!,REPT(" ",MAX(sys.ini!B:B)-sys.ini!#REF!+1),"= """,sys.ini!#REF!,"""")</f>
-        <v>#REF!</v>
+      <c r="A15" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B15+1),"= """,sys.ini!E15,"""")</f>
+        <v>COM_SRCCHECK_ERR_CREATE_ARCHIVE                 = "Problem beim Erstellen eines neuen Archivs: %s."</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="e">
-        <f>CONCATENATE(sys.ini!#REF!,REPT(" ",MAX(sys.ini!B:B)-sys.ini!#REF!+1),"= """,sys.ini!#REF!,"""")</f>
-        <v>#REF!</v>
+      <c r="A16" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A16,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B16+1),"= """,sys.ini!E16,"""")</f>
+        <v>COM_SRCCHECK_ERR_CREATE_ARCHIVE_CATALOG         = "Problem beim Erstellen des Ordners für das Archiv: %s."</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B15+1),"= """,sys.ini!E15,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A17,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B17+1),"= """,sys.ini!E17,"""")</f>
+        <v>COM_SRCCHECK_ERR_COPY_ARCHIVE                   = "Das Problem beim Kopieren des Archivs: %s."</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A16,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B16+1),"= """,sys.ini!E16,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A18,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B18+1),"= """,sys.ini!E18,"""")</f>
+        <v>COM_SRCCHECK_ERR_OPEN_ARCHIVE                   = "Problem beim Öffnen des Archivs: %s."</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A17,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B17+1),"= """,sys.ini!E17,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A19,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B19+1),"= """,sys.ini!E19,"""")</f>
+        <v>COM_SRCCHECK_ERR_ARC_PUT_TO_TRASHCAN            = ""</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A18,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B18+1),"= """,sys.ini!E18,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A20,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B20+1),"= """,sys.ini!E20,"""")</f>
+        <v>COM_SRCCHECK_ERR_ARC_PUT_TO_TRASHCAN            = ""</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A19,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B19+1),"= """,sys.ini!E19,"""")</f>
+        <f>CONCATENATE(sys.ini!A21,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B21+1),"= """,sys.ini!E21,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A20,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B20+1),"= """,sys.ini!E20,"""")</f>
+        <f>CONCATENATE(sys.ini!A22,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B22+1),"= """,sys.ini!E22,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A21,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B21+1),"= """,sys.ini!E21,"""")</f>
+        <f>CONCATENATE(sys.ini!A23,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B23+1),"= """,sys.ini!E23,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A22,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B22+1),"= """,sys.ini!E22,"""")</f>
+        <f>CONCATENATE(sys.ini!A24,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B24+1),"= """,sys.ini!E24,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A23,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B23+1),"= """,sys.ini!E23,"""")</f>
+        <f>CONCATENATE(sys.ini!A25,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B25+1),"= """,sys.ini!E25,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A24,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B24+1),"= """,sys.ini!E24,"""")</f>
+        <f>CONCATENATE(sys.ini!A26,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B26+1),"= """,sys.ini!E26,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A25,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B25+1),"= """,sys.ini!E25,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A29,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B29+1),"= """,sys.ini!E29,"""")</f>
+        <v>COM_SRCCHECK_SRCCHECK_VIEW_DEFAULT_DESC         = ""</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A26,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B26+1),"= """,sys.ini!E26,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A30,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B30+1),"= """,sys.ini!E30,"""")</f>
+        <v>COM_SRCCHECK_MANAGE_VIEW_DEFAULT_TITLE          = ""</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A27,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B27+1),"= """,sys.ini!E27,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A31,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B31+1),"= """,sys.ini!E31,"""")</f>
+        <v>COM_SRCCHECK_MANAGE_VIEW_DEFAULT_DESC           = ""</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A28,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B28+1),"= """,sys.ini!E28,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A32,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B32+1),"= """,sys.ini!E32,"""")</f>
+        <v>COM_SRCCHECK_TRASHCAN_VIEW_DEFAULT_TITLE        = ""</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A29,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B29+1),"= """,sys.ini!E29,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A33,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B33+1),"= """,sys.ini!E33,"""")</f>
+        <v>COM_SRCCHECK_TRASHCAN_VIEW_DEFAULT_DESC         = ""</v>
       </c>
     </row>
   </sheetData>
@@ -1185,11 +1541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A41"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1199,357 +1555,435 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="str">
         <f>CONCATENATE(ini!A2,REPT(" ",MAX(ini!B:B)-ini!B2+1),"= """,ini!E2,"""")</f>
-        <v>COM_SRCCHECK_TOTALCOUNT_FILES              = "Anzahl der verifizierten Dateien:"</v>
+        <v>COM_SRCCHECK_TOTALCOUNT_FILES                       = "Anzahl der verifizierten Dateien:"</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="str">
         <f>CONCATENATE(ini!A3,REPT(" ",MAX(ini!B:B)-ini!B3+1),"= """,ini!E3,"""")</f>
-        <v>COM_SRCCHECK_NEW_FILES                     = "Anzahl neuer Dateien:"</v>
+        <v>COM_SRCCHECK_NEW_FILES                              = "Anzahl neuer Dateien:"</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="str">
         <f>CONCATENATE(ini!A4,REPT(" ",MAX(ini!B:B)-ini!B4+1),"= """,ini!E4,"""")</f>
-        <v>COM_SRCCHECK_DELETED_FILES                 = "Anzahl der gelöschten Dateien:"</v>
+        <v>COM_SRCCHECK_DELETED_FILES                          = "Anzahl der gelöschten Dateien:"</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="str">
         <f>CONCATENATE(ini!A5,REPT(" ",MAX(ini!B:B)-ini!B5+1),"= """,ini!E5,"""")</f>
-        <v>COM_SRCCHECK_COUNT_VERYFIED_POSITIVE       = "Anzahl der korrekt überprüften Dateien:"</v>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_POSITIVE                = "Anzahl der korrekt überprüften Dateien:"</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="str">
         <f>CONCATENATE(ini!A6,REPT(" ",MAX(ini!B:B)-ini!B6+1),"= """,ini!E6,"""")</f>
-        <v>COM_SRCCHECK_COUNT_VERYFIED_NEGATIVE       = "Anzahl der falsch verifizierten Dateien:"</v>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_NEGATIVE                = "Anzahl der falsch verifizierten Dateien:"</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(ini!A7,REPT(" ",MAX(ini!B:B)-ini!B7+1),"= """,ini!E7,"""")</f>
-        <v>COM_SRCCHECK_LAST_CHECK_TIME               = "Datum der letzten Überprüfung:"</v>
+        <v>COM_SRCCHECK_LAST_CHECK_TIME                        = "Datum der letzten Überprüfung:"</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="str">
         <f>CONCATENATE(ini!A8,REPT(" ",MAX(ini!B:B)-ini!B8+1),"= """,ini!E8,"""")</f>
-        <v>COM_SRCCHECK_USER_ID                       = "Zuletzt überprüfte Benutzer-ID:"</v>
+        <v>COM_SRCCHECK_USER_ID                                = "Zuletzt überprüfte Benutzer-ID:"</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="str">
         <f>CONCATENATE(ini!A9,REPT(" ",MAX(ini!B:B)-ini!B9+1),"= """,ini!E9,"""")</f>
-        <v>COM_SRCCHECK_USER_LOGIN                    = "Das Login des Benutzers, der kürzlich überprüft hat:"</v>
+        <v>COM_SRCCHECK_USER_LOGIN                             = "Das Login des Benutzers, der kürzlich überprüft hat:"</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(ini!A10,REPT(" ",MAX(ini!B:B)-ini!B10+1),"= """,ini!E10,"""")</f>
-        <v>COM_SRCCHECK_USER_NAME                     = "Name des Benutzers, der kürzlich überprüft hat:"</v>
+        <v>COM_SRCCHECK_USER_NAME                              = "Name des Benutzers, der kürzlich überprüft hat:"</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(ini!A11,REPT(" ",MAX(ini!B:B)-ini!B11+1),"= """,ini!E11,"""")</f>
-        <v>COM_SRCCHECH_MANAGER_TITLE                 = "Überprüfung der Quelldateien"</v>
+        <v>COM_SRCCHECH_MANAGER_TITLE                          = "Überprüfung der Quelldateien"</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(ini!A12,REPT(" ",MAX(ini!B:B)-ini!B12+1),"= """,ini!E12,"""")</f>
-        <v>COM_SRCCHECK_BTN_VERIFY                    = "Überprüfen"</v>
+        <v>COM_SRCCHECK_BTN_VERIFY                             = "Überprüfen"</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(ini!A13,REPT(" ",MAX(ini!B:B)-ini!B13+1),"= """,ini!E13,"""")</f>
-        <v>COM_SRCCHECK_BTN_VALID                     = "Datei (en) akzeptieren"</v>
+        <v>COM_SRCCHECK_BTN_VALID                              = "Datei (en) akzeptieren"</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="str">
         <f>CONCATENATE(ini!A14,REPT(" ",MAX(ini!B:B)-ini!B14+1),"= """,ini!E14,"""")</f>
-        <v>COM_SRCCHECK_BTN_ERASE                     = "Datei (en) löschen"</v>
+        <v>COM_SRCCHECK_BTN_ERASE                              = "Datei (en) löschen"</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="str">
         <f>CONCATENATE(ini!A15,REPT(" ",MAX(ini!B:B)-ini!B15+1),"= """,ini!E15,"""")</f>
-        <v>COM_SRCCHECK_SUBMENU_SUMMARY               = "Zusammenfassung"</v>
+        <v>COM_SRCCHECK_BTN_ERASE_SELECTED_FILES_FROM_TRASHCAN = "Ausgewählte Dateien löschen"</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="str">
         <f>CONCATENATE(ini!A16,REPT(" ",MAX(ini!B:B)-ini!B16+1),"= """,ini!E16,"""")</f>
-        <v>COM_SRCCHECK_SUBMENU_MANAGE                = "Verwalten"</v>
+        <v>COM_SRCCHECK_BTN_ERASE_ALL_FILES_FROM_TRASHCAN      = "Löschen Sie alle Dateien"</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
         <f>CONCATENATE(ini!A17,REPT(" ",MAX(ini!B:B)-ini!B17+1),"= """,ini!E17,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION                = "Überprüfung der Quelldateien: Zusammenfassung"</v>
+        <v>COM_SRCCHECK_BTN_DETAILS                            = "Einzelheiten"</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
         <f>CONCATENATE(ini!A18,REPT(" ",MAX(ini!B:B)-ini!B18+1),"= """,ini!E18,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE         = "Überprüfung der Quelldateien: Verwalten"</v>
+        <v>COM_SRCCHECK_SUBMENU_SUMMARY                        = "Zusammenfassung"</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="str">
         <f>CONCATENATE(ini!A19,REPT(" ",MAX(ini!B:B)-ini!B19+1),"= """,ini!E19,"""")</f>
-        <v>COM_SRECCHECK_NUM                          = "#"</v>
+        <v>COM_SRCCHECK_SUBMENU_MANAGE                         = "Verwalten"</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="str">
         <f>CONCATENATE(ini!A20,REPT(" ",MAX(ini!B:B)-ini!B20+1),"= """,ini!E20,"""")</f>
-        <v>COM_SRCCHECK_PATH                          = "Dateipfad"</v>
+        <v>COM_SRCCHECK_SUBMENU_TRASHCAN                       = "Mülleimer"</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="str">
         <f>CONCATENATE(ini!A21,REPT(" ",MAX(ini!B:B)-ini!B21+1),"= """,ini!E21,"""")</f>
-        <v>COM_SRCCHECK_FILENAME                      = "Dateiname"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION                         = "Überprüfung der Quelldateien: Zusammenfassung"</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="str">
         <f>CONCATENATE(ini!A22,REPT(" ",MAX(ini!B:B)-ini!B22+1),"= """,ini!E22,"""")</f>
-        <v>COM_SRCCHECK_STATUS                        = "Dateistatus"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE                  = "Überprüfung der Quelldateien: Verwalten"</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="str">
         <f>CONCATENATE(ini!A23,REPT(" ",MAX(ini!B:B)-ini!B23+1),"= """,ini!E23,"""")</f>
-        <v>COM_SRCCHECK_VERYFIED_STATUS_FILE          = "Geprüft"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION_TRASHCAN                = "Überprüfung der Quelldateien: Mülleimer"</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="str">
         <f>CONCATENATE(ini!A24,REPT(" ",MAX(ini!B:B)-ini!B24+1),"= """,ini!E24,"""")</f>
-        <v>COM_SRCCHECK_NEW_STATUS_FILE               = "Neue Datei"</v>
+        <v>COM_SRECCHECK_NUM                                   = "#"</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="str">
         <f>CONCATENATE(ini!A25,REPT(" ",MAX(ini!B:B)-ini!B25+1),"= """,ini!E25,"""")</f>
-        <v>COM_SRCCHECK_VALID_STATUS_FILE             = "Richtig"</v>
+        <v>COM_SRCCHECK_PATH                                   = "Dateipfad"</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="str">
         <f>CONCATENATE(ini!A26,REPT(" ",MAX(ini!B:B)-ini!B26+1),"= """,ini!E26,"""")</f>
-        <v>COM_SRCCHECK_DELETED_STATUS_FILE           = "Gelöschte Datei"</v>
+        <v>COM_SRCCHECK_FILENAME                               = "Dateiname"</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="str">
         <f>CONCATENATE(ini!A27,REPT(" ",MAX(ini!B:B)-ini!B27+1),"= """,ini!E27,"""")</f>
-        <v>COM_SRCCHECK_INVALID_STATUS_FILE           = "Falsch"</v>
+        <v>COM_SRCCHECK_STATUS                                 = "Dateistatus"</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="str">
         <f>CONCATENATE(ini!A28,REPT(" ",MAX(ini!B:B)-ini!B28+1),"= """,ini!E28,"""")</f>
-        <v>COM_SRCCHECK_VERYFIED                      = "Ergebnis der Überprüfung"</v>
+        <v>COM_SRCCHECK_VERYFIED_STATUS_FILE                   = "Geprüft"</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="str">
         <f>CONCATENATE(ini!A29,REPT(" ",MAX(ini!B:B)-ini!B29+1),"= """,ini!E29,"""")</f>
-        <v>COM_SRCCHECK_UNEXPECTED_STATUS_FILE        = "Unerwartet"</v>
+        <v>COM_SRCCHECK_NEW_STATUS_FILE                        = "Neue Datei"</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="str">
         <f>CONCATENATE(ini!A30,REPT(" ",MAX(ini!B:B)-ini!B30+1),"= """,ini!E30,"""")</f>
-        <v>COM_SRCCHECK_MANAGE_FILTER                 = "Filter"</v>
+        <v>COM_SRCCHECK_VALID_STATUS_FILE                      = "Richtig"</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="str">
         <f>CONCATENATE(ini!A31,REPT(" ",MAX(ini!B:B)-ini!B31+1),"= """,ini!E31,"""")</f>
-        <v>COM_SRCCHECK_FILTER_SELECT_STATUS_FILE     = "- Wählen Sie den Dateistatus -"</v>
+        <v>COM_SRCCHECK_DELETED_STATUS_FILE                    = "Gelöschte Datei"</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="str">
         <f>CONCATENATE(ini!A32,REPT(" ",MAX(ini!B:B)-ini!B32+1),"= """,ini!E32,"""")</f>
-        <v>COM_SRCCHECK_FILTER_SELECT_VERYFIED        = "- Wählen Sie das Ergebnis von Veryfication aus. -"</v>
+        <v>COM_SRCCHECK_INVALID_STATUS_FILE                    = "Falsch"</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="str">
         <f>CONCATENATE(ini!A33,REPT(" ",MAX(ini!B:B)-ini!B33+1),"= """,ini!E33,"""")</f>
-        <v>COM_SRCCHECK_SEARCH_PATH_FILE              = "Suchen Sie in Pfaden und Dateinamen"</v>
+        <v>COM_SRCCHECK_VERYFIED                               = "Ergebnis der Überprüfung"</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="str">
         <f>CONCATENATE(ini!A34,REPT(" ",MAX(ini!B:B)-ini!B34+1),"= """,ini!E34,"""")</f>
-        <v>COM_SRCCHECK_FILTER_FILE_STATUS            = "Nach Dateistatus filtern"</v>
+        <v>COM_SRCCHECK_IN_TRASHCAN_STATUS_FILE                = "Im Müll"</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="str">
         <f>CONCATENATE(ini!A35,REPT(" ",MAX(ini!B:B)-ini!B35+1),"= """,ini!E35,"""")</f>
-        <v>COM_SRCCHECK_FILTER_FILE_VERYFIED          = "Filtern nach Dateifunktionierungsergebnis"</v>
+        <v>COM_SRCCHECK_UNEXPECTED_STATUS_FILE                 = "Unerwartet"</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3" t="str">
         <f>CONCATENATE(ini!A36,REPT(" ",MAX(ini!B:B)-ini!B36+1),"= """,ini!E36,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_VERIFY             = "Überprüfen"</v>
+        <v>COM_SRCCHECK_MANAGE_FILTER                          = "Filter"</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="str">
         <f>CONCATENATE(ini!A37,REPT(" ",MAX(ini!B:B)-ini!B37+1),"= """,ini!E37,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_DESC_VERIFY        = "Berechtigung für den Vorgang, der die Dateiverifizierung ausführt."</v>
+        <v>COM_SRCCHECK_FILTER_SELECT_STATUS_FILE              = "- Wählen Sie den Dateistatus -"</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="str">
         <f>CONCATENATE(ini!A38,REPT(" ",MAX(ini!B:B)-ini!B38+1),"= """,ini!E38,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_VALID              = "Datei (en) akzeptieren"</v>
+        <v>COM_SRCCHECK_FILTER_SELECT_VERYFIED                 = "- Wählen Sie das Ergebnis von Veryfication aus. -"</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="str">
         <f>CONCATENATE(ini!A39,REPT(" ",MAX(ini!B:B)-ini!B39+1),"= """,ini!E39,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_DESC_VALID         = "Berechtigungen für den Vorgang, die die Richtigkeit von Dateien akzeptieren."</v>
+        <v>COM_SRCCHECK_SEARCH_PATH_FILE                       = "Suchen Sie in Pfaden und Dateinamen"</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="str">
         <f>CONCATENATE(ini!A40,REPT(" ",MAX(ini!B:B)-ini!B40+1),"= """,ini!E40,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_ERASE              = "Datei (en) löschen"</v>
+        <v>COM_SRCCHECK_FILTER_FILE_STATUS                     = "Nach Dateistatus filtern"</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="str">
         <f>CONCATENATE(ini!A41,REPT(" ",MAX(ini!B:B)-ini!B41+1),"= """,ini!E41,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_DESC_ERASE         = "Berechtigung für den Vorgang zum Löschen gelöschter Dateien aus dem Prüfverlauf."</v>
+        <v>COM_SRCCHECK_FILTER_FILE_VERYFIED                   = "Filtern nach Dateifunktionierungsergebnis"</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="str">
         <f>CONCATENATE(ini!A42,REPT(" ",MAX(ini!B:B)-ini!B42+1),"= """,ini!E42,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_VERIFY                      = "Überprüfen"</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="str">
         <f>CONCATENATE(ini!A43,REPT(" ",MAX(ini!B:B)-ini!B43+1),"= """,ini!E43,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_VERIFY                 = "Berechtigung für den Vorgang, der die Dateiverifizierung ausführt."</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="str">
         <f>CONCATENATE(ini!A44,REPT(" ",MAX(ini!B:B)-ini!B44+1),"= """,ini!E44,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_VALID                       = "Datei (en) akzeptieren"</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3" t="str">
         <f>CONCATENATE(ini!A45,REPT(" ",MAX(ini!B:B)-ini!B45+1),"= """,ini!E45,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_VALID                  = "Berechtigungen für den Vorgang, die die Richtigkeit von Dateien akzeptieren."</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="str">
         <f>CONCATENATE(ini!A46,REPT(" ",MAX(ini!B:B)-ini!B46+1),"= """,ini!E46,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_ERASE                       = "Datei (en) löschen"</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="3" t="str">
         <f>CONCATENATE(ini!A47,REPT(" ",MAX(ini!B:B)-ini!B47+1),"= """,ini!E47,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_ERASE                  = "Berechtigung für den Vorgang zum Löschen gelöschter Dateien aus dem Prüfverlauf."</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="3" t="str">
         <f>CONCATENATE(ini!A48,REPT(" ",MAX(ini!B:B)-ini!B48+1),"= """,ini!E48,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_MANAGE                      = "Berechtigungen für die Registerkarte "Verwalten"."</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="3" t="str">
         <f>CONCATENATE(ini!A49,REPT(" ",MAX(ini!B:B)-ini!B49+1),"= """,ini!E49,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_MANAGE                 = "Erteilt die Berechtigung für die Ansicht "Verwalten"."</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="3" t="str">
         <f>CONCATENATE(ini!A50,REPT(" ",MAX(ini!B:B)-ini!B50+1),"= """,ini!E50,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_TRASHCAN                    = "Berechtigungen für die Registerkarte "Mülleimer"."</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="3" t="str">
         <f>CONCATENATE(ini!A51,REPT(" ",MAX(ini!B:B)-ini!B51+1),"= """,ini!E51,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_TRASHCAN               = "Erteilt die Berechtigung für die Ansicht "Mülleimer"."</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="3" t="str">
         <f>CONCATENATE(ini!A52,REPT(" ",MAX(ini!B:B)-ini!B52+1),"= """,ini!E52,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_ERASE_FROM_TRASHCAN         = "Leerer Mülleimer"</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="3" t="str">
         <f>CONCATENATE(ini!A53,REPT(" ",MAX(ini!B:B)-ini!B53+1),"= """,ini!E53,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_ERASE_FROM_TRASHCAN    = "Berechtigungen zum Löschen von Dateien aus dem Papierkorb."</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="3" t="str">
         <f>CONCATENATE(ini!A54,REPT(" ",MAX(ini!B:B)-ini!B54+1),"= """,ini!E54,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_MANAGE_FILE_HISTORY                    = "Dateiversionsverlauf:"</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="3" t="str">
         <f>CONCATENATE(ini!A55,REPT(" ",MAX(ini!B:B)-ini!B55+1),"= """,ini!E55,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_CONFIGURATION                          = "Source Check: Optionen"</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="3" t="str">
         <f>CONCATENATE(ini!A56,REPT(" ",MAX(ini!B:B)-ini!B56+1),"= """,ini!E56,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_FILE_LOCALISATION                      = "Speicherort:"</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="3" t="str">
         <f>CONCATENATE(ini!A57,REPT(" ",MAX(ini!B:B)-ini!B57+1),"= """,ini!E57,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_FILE_FIRST_VERYFICATION_TIME           = "Erstes Verifizierungsdatum:"</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="3" t="str">
+        <f>CONCATENATE(ini!A58,REPT(" ",MAX(ini!B:B)-ini!B58+1),"= """,ini!E58,"""")</f>
+        <v>COM_SRCCHECK_FILE_STATUS                            = "Dateistatus:"</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="3" t="str">
+        <f>CONCATENATE(ini!A59,REPT(" ",MAX(ini!B:B)-ini!B59+1),"= """,ini!E59,"""")</f>
+        <v>COM_SRCCHECK_FILE_STORED_IN_TA                      = "Datei im Archiv gespeichert:"</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="3" t="str">
+        <f>CONCATENATE(ini!A60,REPT(" ",MAX(ini!B:B)-ini!B60+1),"= """,ini!E60,"""")</f>
+        <v>COM_SRCCHECK_FILE_VERSION                           = "Ausführung"</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="3" t="str">
+        <f>CONCATENATE(ini!A61,REPT(" ",MAX(ini!B:B)-ini!B61+1),"= """,ini!E61,"""")</f>
+        <v>COM_SRCCHECK_FILE_VERYFICATION_DATE                 = "Überprüfungsdatum"</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="3" t="str">
+        <f>CONCATENATE(ini!A62,REPT(" ",MAX(ini!B:B)-ini!B62+1),"= """,ini!E62,"""")</f>
+        <v>COM_SRCCHECK_FILE_IN_TA_LOCALISATION                = "Speicherort im Archiv"</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="3" t="str">
+        <f>CONCATENATE(ini!A63,REPT(" ",MAX(ini!B:B)-ini!B63+1),"= """,ini!E63,"""")</f>
+        <v>COM_SRCCHECK_FILE_VERYFIED_STATUS                   = "Überprüfungsstatus"</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="3" t="str">
+        <f>CONCATENATE(ini!A64,REPT(" ",MAX(ini!B:B)-ini!B64+1),"= """,ini!E64,"""")</f>
+        <v>COM_SRCCHECK_ERR_ARC_PUT_TO_TRASHCAN                = "Datei:%s kann nicht in den Papierkorb verschoben werden."</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="3" t="str">
+        <f>CONCATENATE(ini!A65,REPT(" ",MAX(ini!B:B)-ini!B65+1),"= """,ini!E65,"""")</f>
+        <v>COM_SRCCHECK_ERR_ARC_EMPTY_TRASHCAN                 = "Datei:%s kann nicht aus dem Papierkorb entfernt werden."</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="3" t="str">
+        <f>CONCATENATE(ini!A66,REPT(" ",MAX(ini!B:B)-ini!B66+1),"= """,ini!E66,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="3" t="str">
+        <f>CONCATENATE(ini!A67,REPT(" ",MAX(ini!B:B)-ini!B67+1),"= """,ini!E67,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="3" t="str">
+        <f>CONCATENATE(ini!A68,REPT(" ",MAX(ini!B:B)-ini!B68+1),"= """,ini!E68,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="3" t="str">
+        <f>CONCATENATE(ini!A70,REPT(" ",MAX(ini!B:B)-ini!B70+1),"= """,ini!E70,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="3" t="str">
+        <f>CONCATENATE(ini!A71,REPT(" ",MAX(ini!B:B)-ini!B71+1),"= """,ini!E71,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="A18" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1560,7 +1994,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1637,110 +2071,110 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A14,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B14+1),"= """,sys.ini!D14,"""")</f>
-        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION = "Environment verification."</v>
+        <f>CONCATENATE(sys.ini!A14,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B14+1),"= """,sys.ini!C14,"""")</f>
+        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION = "Weryfikacja zależności."</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="e">
-        <f>CONCATENATE(sys.ini!#REF!,REPT(" ",MAX(sys.ini!B:B)-sys.ini!#REF!+1),"= """,sys.ini!#REF!,"""")</f>
-        <v>#REF!</v>
+      <c r="A15" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B15+1),"= """,sys.ini!C15,"""")</f>
+        <v>COM_SRCCHECK_ERR_CREATE_ARCHIVE                 = "Problem z utworzeniem nowego archiwum: %s."</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="e">
-        <f>CONCATENATE(sys.ini!#REF!,REPT(" ",MAX(sys.ini!B:B)-sys.ini!#REF!+1),"= """,sys.ini!#REF!,"""")</f>
-        <v>#REF!</v>
+      <c r="A16" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A16,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B16+1),"= """,sys.ini!C16,"""")</f>
+        <v>COM_SRCCHECK_ERR_CREATE_ARCHIVE_CATALOG         = "Problem z utworzeniem folderu dla archiwum: %s."</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B15+1),"= """,sys.ini!C15,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A17,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B17+1),"= """,sys.ini!C17,"""")</f>
+        <v>COM_SRCCHECK_ERR_COPY_ARCHIVE                   = "Problem z kopiowaniem archiwum: %s."</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A16,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B16+1),"= """,sys.ini!C16,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A18,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B18+1),"= """,sys.ini!C18,"""")</f>
+        <v>COM_SRCCHECK_ERR_OPEN_ARCHIVE                   = "Problem z otwarciem archiwum: %s."</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A17,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B17+1),"= """,sys.ini!C17,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A19,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B19+1),"= """,sys.ini!C19,"""")</f>
+        <v>COM_SRCCHECK_ERR_ARC_PUT_TO_TRASHCAN            = ""</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A18,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B18+1),"= """,sys.ini!C18,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A20,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B20+1),"= """,sys.ini!C20,"""")</f>
+        <v>COM_SRCCHECK_ERR_ARC_PUT_TO_TRASHCAN            = ""</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A19,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B19+1),"= """,sys.ini!C19,"""")</f>
+        <f>CONCATENATE(sys.ini!A21,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B21+1),"= """,sys.ini!C21,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A20,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B20+1),"= """,sys.ini!C20,"""")</f>
+        <f>CONCATENATE(sys.ini!A22,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B22+1),"= """,sys.ini!C22,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A21,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B21+1),"= """,sys.ini!C21,"""")</f>
+        <f>CONCATENATE(sys.ini!A23,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B23+1),"= """,sys.ini!C23,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A22,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B22+1),"= """,sys.ini!C22,"""")</f>
+        <f>CONCATENATE(sys.ini!A24,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B24+1),"= """,sys.ini!C24,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A23,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B23+1),"= """,sys.ini!C23,"""")</f>
+        <f>CONCATENATE(sys.ini!A25,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B25+1),"= """,sys.ini!C25,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A24,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B24+1),"= """,sys.ini!C24,"""")</f>
+        <f>CONCATENATE(sys.ini!A26,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B26+1),"= """,sys.ini!C26,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A25,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B25+1),"= """,sys.ini!C25,"""")</f>
+        <f>CONCATENATE(sys.ini!A27,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B27+1),"= """,sys.ini!C27,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A26,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B26+1),"= """,sys.ini!C26,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A28,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B28+1),"= """,sys.ini!C28,"""")</f>
+        <v>COM_SRCCHECK_SRCCHECK_VIEW_DEFAULT_TITLE        = ""</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A27,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B27+1),"= """,sys.ini!C27,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A29,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B29+1),"= """,sys.ini!C29,"""")</f>
+        <v>COM_SRCCHECK_SRCCHECK_VIEW_DEFAULT_DESC         = ""</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A28,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B28+1),"= """,sys.ini!C28,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A30,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B30+1),"= """,sys.ini!C30,"""")</f>
+        <v>COM_SRCCHECK_MANAGE_VIEW_DEFAULT_TITLE          = ""</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A29,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B29+1),"= """,sys.ini!C29,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A33,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B33+1),"= """,sys.ini!C33,"""")</f>
+        <v>COM_SRCCHECK_TRASHCAN_VIEW_DEFAULT_DESC         = ""</v>
       </c>
     </row>
   </sheetData>
@@ -1750,11 +2184,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1764,357 +2198,453 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="str">
         <f>CONCATENATE(ini!A2,REPT(" ",MAX(ini!B:B)-ini!B2+1),"= """,ini!C2,"""")</f>
-        <v>COM_SRCCHECK_TOTALCOUNT_FILES              = "Ilość zweryfikowanych plików:"</v>
+        <v>COM_SRCCHECK_TOTALCOUNT_FILES                       = "Ilość zweryfikowanych plików:"</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="str">
         <f>CONCATENATE(ini!A3,REPT(" ",MAX(ini!B:B)-ini!B3+1),"= """,ini!C3,"""")</f>
-        <v>COM_SRCCHECK_NEW_FILES                     = "Ilość nowych plików:"</v>
+        <v>COM_SRCCHECK_NEW_FILES                              = "Ilość nowych plików:"</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="str">
         <f>CONCATENATE(ini!A4,REPT(" ",MAX(ini!B:B)-ini!B4+1),"= """,ini!C4,"""")</f>
-        <v>COM_SRCCHECK_DELETED_FILES                 = "Ilość usuniętych plików:"</v>
+        <v>COM_SRCCHECK_DELETED_FILES                          = "Ilość usuniętych plików:"</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="str">
         <f>CONCATENATE(ini!A5,REPT(" ",MAX(ini!B:B)-ini!B5+1),"= """,ini!C5,"""")</f>
-        <v>COM_SRCCHECK_COUNT_VERYFIED_POSITIVE       = "Ilość plików zweryfikowanych poprawnie:"</v>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_POSITIVE                = "Ilość plików zweryfikowanych poprawnie:"</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="str">
         <f>CONCATENATE(ini!A6,REPT(" ",MAX(ini!B:B)-ini!B6+1),"= """,ini!C6,"""")</f>
-        <v>COM_SRCCHECK_COUNT_VERYFIED_NEGATIVE       = "Ilość plików zweryfikowanych niepoprawnie:"</v>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_NEGATIVE                = "Ilość plików zweryfikowanych niepoprawnie:"</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(ini!A7,REPT(" ",MAX(ini!B:B)-ini!B7+1),"= """,ini!C7,"""")</f>
-        <v>COM_SRCCHECK_LAST_CHECK_TIME               = "Data ostatniej weryfikacji:"</v>
+        <v>COM_SRCCHECK_LAST_CHECK_TIME                        = "Data ostatniej weryfikacji:"</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="str">
         <f>CONCATENATE(ini!A8,REPT(" ",MAX(ini!B:B)-ini!B8+1),"= """,ini!C8,"""")</f>
-        <v>COM_SRCCHECK_USER_ID                       = "Identyfikator użytkowniaka który ostatnio weryfikował:"</v>
+        <v>COM_SRCCHECK_USER_ID                                = "Identyfikator użytkownika który ostatnio weryfikował:"</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="str">
         <f>CONCATENATE(ini!A9,REPT(" ",MAX(ini!B:B)-ini!B9+1),"= """,ini!C9,"""")</f>
-        <v>COM_SRCCHECK_USER_LOGIN                    = "Login użytkowniaka który ostatnio weryfikował:"</v>
+        <v>COM_SRCCHECK_USER_LOGIN                             = "Login użytkownika który ostatnio weryfikował:"</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(ini!A10,REPT(" ",MAX(ini!B:B)-ini!B10+1),"= """,ini!C10,"""")</f>
-        <v>COM_SRCCHECK_USER_NAME                     = "Nazwa użytkowniaka który ostatnio weryfikował:"</v>
+        <v>COM_SRCCHECK_USER_NAME                              = "Nazwa użytkownika który ostatnio weryfikował:"</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(ini!A11,REPT(" ",MAX(ini!B:B)-ini!B11+1),"= """,ini!C11,"""")</f>
-        <v>COM_SRCCHECH_MANAGER_TITLE                 = "Source Files Check"</v>
+        <v>COM_SRCCHECH_MANAGER_TITLE                          = "Source Files Check"</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(ini!A12,REPT(" ",MAX(ini!B:B)-ini!B12+1),"= """,ini!C12,"""")</f>
-        <v>COM_SRCCHECK_BTN_VERIFY                    = "Weryfikuj"</v>
+        <v>COM_SRCCHECK_BTN_VERIFY                             = "Weryfikuj"</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(ini!A13,REPT(" ",MAX(ini!B:B)-ini!B13+1),"= """,ini!C13,"""")</f>
-        <v>COM_SRCCHECK_BTN_VALID                     = "Zaakceptuj plik[i]"</v>
+        <v>COM_SRCCHECK_BTN_VALID                              = "Zaakceptuj plik[i]"</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="str">
         <f>CONCATENATE(ini!A14,REPT(" ",MAX(ini!B:B)-ini!B14+1),"= """,ini!C14,"""")</f>
-        <v>COM_SRCCHECK_BTN_ERASE                     = "Usuń plik[i]"</v>
+        <v>COM_SRCCHECK_BTN_ERASE                              = "Usuń plik[i]"</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="str">
         <f>CONCATENATE(ini!A15,REPT(" ",MAX(ini!B:B)-ini!B15+1),"= """,ini!C15,"""")</f>
-        <v>COM_SRCCHECK_SUBMENU_SUMMARY               = "Podsumowanie"</v>
+        <v>COM_SRCCHECK_BTN_ERASE_SELECTED_FILES_FROM_TRASHCAN = "Usuń wybrane pliki"</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="str">
         <f>CONCATENATE(ini!A16,REPT(" ",MAX(ini!B:B)-ini!B16+1),"= """,ini!C16,"""")</f>
-        <v>COM_SRCCHECK_SUBMENU_MANAGE                = "Zarządzaj"</v>
+        <v>COM_SRCCHECK_BTN_ERASE_ALL_FILES_FROM_TRASHCAN      = "Usuń wszystkie pliki"</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
         <f>CONCATENATE(ini!A17,REPT(" ",MAX(ini!B:B)-ini!B17+1),"= """,ini!C17,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION                = "Source Files Check: Podsumowanie"</v>
+        <v>COM_SRCCHECK_BTN_DETAILS                            = "Szczegóły"</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
         <f>CONCATENATE(ini!A18,REPT(" ",MAX(ini!B:B)-ini!B18+1),"= """,ini!C18,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE         = "Source Files Check: Zarządzaj"</v>
+        <v>COM_SRCCHECK_SUBMENU_SUMMARY                        = "Podsumowanie"</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="str">
         <f>CONCATENATE(ini!A19,REPT(" ",MAX(ini!B:B)-ini!B19+1),"= """,ini!C19,"""")</f>
-        <v>COM_SRECCHECK_NUM                          = "#"</v>
+        <v>COM_SRCCHECK_SUBMENU_MANAGE                         = "Zarządzaj"</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="str">
         <f>CONCATENATE(ini!A20,REPT(" ",MAX(ini!B:B)-ini!B20+1),"= """,ini!C20,"""")</f>
-        <v>COM_SRCCHECK_PATH                          = "Ścieżka pliku"</v>
+        <v>COM_SRCCHECK_SUBMENU_TRASHCAN                       = "Kosz"</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="str">
         <f>CONCATENATE(ini!A21,REPT(" ",MAX(ini!B:B)-ini!B21+1),"= """,ini!C21,"""")</f>
-        <v>COM_SRCCHECK_FILENAME                      = "Nazwa pliku"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION                         = "Source Files Check: Podsumowanie"</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="str">
         <f>CONCATENATE(ini!A22,REPT(" ",MAX(ini!B:B)-ini!B22+1),"= """,ini!C22,"""")</f>
-        <v>COM_SRCCHECK_STATUS                        = "Status pliku"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE                  = "Source Files Check: Zarządzaj"</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="str">
         <f>CONCATENATE(ini!A23,REPT(" ",MAX(ini!B:B)-ini!B23+1),"= """,ini!C23,"""")</f>
-        <v>COM_SRCCHECK_VERYFIED_STATUS_FILE          = "Zweryfikowany"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION_TRASHCAN                = "Source Files Check: Kosz"</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="str">
         <f>CONCATENATE(ini!A24,REPT(" ",MAX(ini!B:B)-ini!B24+1),"= """,ini!C24,"""")</f>
-        <v>COM_SRCCHECK_NEW_STATUS_FILE               = "Nowy plik"</v>
+        <v>COM_SRECCHECK_NUM                                   = "#"</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="str">
         <f>CONCATENATE(ini!A25,REPT(" ",MAX(ini!B:B)-ini!B25+1),"= """,ini!C25,"""")</f>
-        <v>COM_SRCCHECK_VALID_STATUS_FILE             = "Poprawny"</v>
+        <v>COM_SRCCHECK_PATH                                   = "Ścieżka pliku"</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="str">
         <f>CONCATENATE(ini!A26,REPT(" ",MAX(ini!B:B)-ini!B26+1),"= """,ini!C26,"""")</f>
-        <v>COM_SRCCHECK_DELETED_STATUS_FILE           = "Usunięty plik"</v>
+        <v>COM_SRCCHECK_FILENAME                               = "Nazwa pliku"</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="str">
         <f>CONCATENATE(ini!A27,REPT(" ",MAX(ini!B:B)-ini!B27+1),"= """,ini!C27,"""")</f>
-        <v>COM_SRCCHECK_INVALID_STATUS_FILE           = "Niepoprawny"</v>
+        <v>COM_SRCCHECK_STATUS                                 = "Status pliku"</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="str">
         <f>CONCATENATE(ini!A28,REPT(" ",MAX(ini!B:B)-ini!B28+1),"= """,ini!C28,"""")</f>
-        <v>COM_SRCCHECK_VERYFIED                      = "Rezultat weryfikacji"</v>
+        <v>COM_SRCCHECK_VERYFIED_STATUS_FILE                   = "Zweryfikowany"</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="str">
         <f>CONCATENATE(ini!A29,REPT(" ",MAX(ini!B:B)-ini!B29+1),"= """,ini!C29,"""")</f>
-        <v>COM_SRCCHECK_UNEXPECTED_STATUS_FILE        = "Nieoczekiwany"</v>
+        <v>COM_SRCCHECK_NEW_STATUS_FILE                        = "Nowy plik"</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="str">
         <f>CONCATENATE(ini!A30,REPT(" ",MAX(ini!B:B)-ini!B30+1),"= """,ini!C30,"""")</f>
-        <v>COM_SRCCHECK_MANAGE_FILTER                 = "Filtry"</v>
+        <v>COM_SRCCHECK_VALID_STATUS_FILE                      = "Poprawny"</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="str">
         <f>CONCATENATE(ini!A31,REPT(" ",MAX(ini!B:B)-ini!B31+1),"= """,ini!C31,"""")</f>
-        <v>COM_SRCCHECK_FILTER_SELECT_STATUS_FILE     = "- Wybierz status pliku -"</v>
+        <v>COM_SRCCHECK_DELETED_STATUS_FILE                    = "Usunięty plik"</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="str">
         <f>CONCATENATE(ini!A32,REPT(" ",MAX(ini!B:B)-ini!B32+1),"= """,ini!C32,"""")</f>
-        <v>COM_SRCCHECK_FILTER_SELECT_VERYFIED        = "- Wybierz rezultat weryfikacji -"</v>
+        <v>COM_SRCCHECK_INVALID_STATUS_FILE                    = "Niepoprawny"</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="str">
         <f>CONCATENATE(ini!A33,REPT(" ",MAX(ini!B:B)-ini!B33+1),"= """,ini!C33,"""")</f>
-        <v>COM_SRCCHECK_SEARCH_PATH_FILE              = "Szukaj w ścieżkach dostępu i nazwach plików"</v>
+        <v>COM_SRCCHECK_VERYFIED                               = "Rezultat weryfikacji"</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="str">
         <f>CONCATENATE(ini!A34,REPT(" ",MAX(ini!B:B)-ini!B34+1),"= """,ini!C34,"""")</f>
-        <v>COM_SRCCHECK_FILTER_FILE_STATUS            = "Filtruj po statusie pliku"</v>
+        <v>COM_SRCCHECK_IN_TRASHCAN_STATUS_FILE                = "W koszu"</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="str">
         <f>CONCATENATE(ini!A35,REPT(" ",MAX(ini!B:B)-ini!B35+1),"= """,ini!C35,"""")</f>
-        <v>COM_SRCCHECK_FILTER_FILE_VERYFIED          = "Filtruj po rezultacie weryfikacji"</v>
+        <v>COM_SRCCHECK_UNEXPECTED_STATUS_FILE                 = "Nieoczekiwany"</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3" t="str">
         <f>CONCATENATE(ini!A36,REPT(" ",MAX(ini!B:B)-ini!B36+1),"= """,ini!C36,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_VERIFY             = "Weryfikuj"</v>
+        <v>COM_SRCCHECK_MANAGE_FILTER                          = "Filtry"</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="str">
         <f>CONCATENATE(ini!A37,REPT(" ",MAX(ini!B:B)-ini!B37+1),"= """,ini!C37,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_DESC_VERIFY        = "Uprawnienia do operacji uruchamiajacej weryfikację plików."</v>
+        <v>COM_SRCCHECK_FILTER_SELECT_STATUS_FILE              = "- Wybierz status pliku -"</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="str">
         <f>CONCATENATE(ini!A38,REPT(" ",MAX(ini!B:B)-ini!B38+1),"= """,ini!C38,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_VALID              = "Zaakceptuj plik[i]"</v>
+        <v>COM_SRCCHECK_FILTER_SELECT_VERYFIED                 = "- Wybierz rezultat weryfikacji -"</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="str">
         <f>CONCATENATE(ini!A39,REPT(" ",MAX(ini!B:B)-ini!B39+1),"= """,ini!C39,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_DESC_VALID         = "Uprawnienia do operacji akceptujacej poprawność plików."</v>
+        <v>COM_SRCCHECK_SEARCH_PATH_FILE                       = "Szukaj w ścieżkach dostępu i nazwach plików"</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="str">
         <f>CONCATENATE(ini!A40,REPT(" ",MAX(ini!B:B)-ini!B40+1),"= """,ini!C40,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_ERASE              = "Usuń plik[i]"</v>
+        <v>COM_SRCCHECK_FILTER_FILE_STATUS                     = "Filtruj po statusie pliku"</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="str">
         <f>CONCATENATE(ini!A41,REPT(" ",MAX(ini!B:B)-ini!B41+1),"= """,ini!C41,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_DESC_ERASE         = "Uprawnienia do operacji usówającej z historii sprawdzeń skasowane pliki."</v>
+        <v>COM_SRCCHECK_FILTER_FILE_VERYFIED                   = "Filtruj po rezultacie weryfikacji"</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="str">
         <f>CONCATENATE(ini!A42,REPT(" ",MAX(ini!B:B)-ini!B42+1),"= """,ini!C42,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_VERIFY                      = "Weryfikuj"</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="str">
         <f>CONCATENATE(ini!A43,REPT(" ",MAX(ini!B:B)-ini!B43+1),"= """,ini!C43,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_VERIFY                 = "Uprawnienia do operacji uruchamiającej weryfikację plików."</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="str">
         <f>CONCATENATE(ini!A44,REPT(" ",MAX(ini!B:B)-ini!B44+1),"= """,ini!C44,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_VALID                       = "Zaakceptuj plik[i]"</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3" t="str">
         <f>CONCATENATE(ini!A45,REPT(" ",MAX(ini!B:B)-ini!B45+1),"= """,ini!C45,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_VALID                  = "Uprawnienia do operacji akceptującej poprawność plików."</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="str">
         <f>CONCATENATE(ini!A46,REPT(" ",MAX(ini!B:B)-ini!B46+1),"= """,ini!C46,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_ERASE                       = "Usuń plik[i]"</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="3" t="str">
         <f>CONCATENATE(ini!A47,REPT(" ",MAX(ini!B:B)-ini!B47+1),"= """,ini!C47,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_ERASE                  = "Uprawnienia do operacji usuwającej z historii sprawdzeń skasowane pliki."</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="3" t="str">
         <f>CONCATENATE(ini!A48,REPT(" ",MAX(ini!B:B)-ini!B48+1),"= """,ini!C48,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_MANAGE                      = "Uprawnienia do zakładki "Zarządzaj"."</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="3" t="str">
         <f>CONCATENATE(ini!A49,REPT(" ",MAX(ini!B:B)-ini!B49+1),"= """,ini!C49,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_MANAGE                 = "Nadaje uprawnienia do widoku "Zarządzaj"."</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="3" t="str">
         <f>CONCATENATE(ini!A50,REPT(" ",MAX(ini!B:B)-ini!B50+1),"= """,ini!C50,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_TRASHCAN                    = "Uprawnienia do zakładki "Kosz"."</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="3" t="str">
         <f>CONCATENATE(ini!A51,REPT(" ",MAX(ini!B:B)-ini!B51+1),"= """,ini!C51,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_TRASHCAN               = "Nadaje uprawnienia do widoku "Kosz"."</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="3" t="str">
         <f>CONCATENATE(ini!A52,REPT(" ",MAX(ini!B:B)-ini!B52+1),"= """,ini!C52,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_ERASE_FROM_TRASHCAN         = "Opróżnij kosz"</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="3" t="str">
         <f>CONCATENATE(ini!A53,REPT(" ",MAX(ini!B:B)-ini!B53+1),"= """,ini!C53,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_ERASE_FROM_TRASHCAN    = "Uprawnienia do operacji usuwającej pliki z kosza."</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="3" t="str">
         <f>CONCATENATE(ini!A54,REPT(" ",MAX(ini!B:B)-ini!B54+1),"= """,ini!C54,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_MANAGE_FILE_HISTORY                    = "Historia pliku:"</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="3" t="str">
         <f>CONCATENATE(ini!A55,REPT(" ",MAX(ini!B:B)-ini!B55+1),"= """,ini!C55,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_CONFIGURATION                          = "Source Check: Opcje"</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="3" t="str">
         <f>CONCATENATE(ini!A56,REPT(" ",MAX(ini!B:B)-ini!B56+1),"= """,ini!C56,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_FILE_LOCALISATION                      = "Lokalizacja pliku:"</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="3" t="str">
         <f>CONCATENATE(ini!A57,REPT(" ",MAX(ini!B:B)-ini!B57+1),"= """,ini!C57,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_FILE_FIRST_VERYFICATION_TIME           = "Data pierwszej weryfikacji:"</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="3" t="str">
+        <f>CONCATENATE(ini!A58,REPT(" ",MAX(ini!B:B)-ini!B58+1),"= """,ini!C58,"""")</f>
+        <v>COM_SRCCHECK_FILE_STATUS                            = "Status pliku:"</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="3" t="str">
+        <f>CONCATENATE(ini!A59,REPT(" ",MAX(ini!B:B)-ini!B59+1),"= """,ini!C59,"""")</f>
+        <v>COM_SRCCHECK_FILE_STORED_IN_TA                      = "Plik zapisany w archiwum:"</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="3" t="str">
+        <f>CONCATENATE(ini!A60,REPT(" ",MAX(ini!B:B)-ini!B60+1),"= """,ini!C60,"""")</f>
+        <v>COM_SRCCHECK_FILE_VERSION                           = "Wersja"</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="3" t="str">
+        <f>CONCATENATE(ini!A61,REPT(" ",MAX(ini!B:B)-ini!B61+1),"= """,ini!C61,"""")</f>
+        <v>COM_SRCCHECK_FILE_VERYFICATION_DATE                 = "Data weryfikacji"</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="3" t="str">
+        <f>CONCATENATE(ini!A62,REPT(" ",MAX(ini!B:B)-ini!B62+1),"= """,ini!C62,"""")</f>
+        <v>COM_SRCCHECK_FILE_IN_TA_LOCALISATION                = "Lokalizacja w archiwum"</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="3" t="str">
+        <f>CONCATENATE(ini!A63,REPT(" ",MAX(ini!B:B)-ini!B63+1),"= """,ini!C63,"""")</f>
+        <v>COM_SRCCHECK_FILE_VERYFIED_STATUS                   = "Status weryfikacji"</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(ini!B:B)-sys.ini!B15+1),"= """,sys.ini!C15,"""")</f>
+        <v>COM_SRCCHECK_ERR_CREATE_ARCHIVE                     = "Problem z utworzeniem nowego archiwum: %s."</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="3" t="str">
+        <f>CONCATENATE(ini!A65,REPT(" ",MAX(ini!B:B)-ini!B65+1),"= """,ini!C65,"""")</f>
+        <v>COM_SRCCHECK_ERR_ARC_EMPTY_TRASHCAN                 = "Nie mogę usunąć z kosza pliku: %s."</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="3" t="str">
+        <f>CONCATENATE(ini!A67,REPT(" ",MAX(ini!B:B)-ini!B67+1),"= """,ini!C67,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="3" t="str">
+        <f>CONCATENATE(ini!A68,REPT(" ",MAX(ini!B:B)-ini!B68+1),"= """,ini!C68,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="3" t="str">
+        <f>CONCATENATE(ini!A69,REPT(" ",MAX(ini!B:B)-ini!B69+1),"= """,ini!C69,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="3" t="str">
+        <f>CONCATENATE(ini!A70,REPT(" ",MAX(ini!B:B)-ini!B70+1),"= """,ini!C70,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="3" t="str">
+        <f>CONCATENATE(ini!A71,REPT(" ",MAX(ini!B:B)-ini!B71+1),"= """,ini!C71,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="3" t="str">
+        <f>CONCATENATE(ini!A72,REPT(" ",MAX(ini!B:B)-ini!B72+1),"= """,ini!C72,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="3" t="str">
+        <f>CONCATENATE(ini!A73,REPT(" ",MAX(ini!B:B)-ini!B73+1),"= """,ini!C73,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="3" t="str">
+        <f>CONCATENATE(ini!A74,REPT(" ",MAX(ini!B:B)-ini!B74+1),"= """,ini!C74,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A18" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2125,7 +2655,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2201,111 +2731,111 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3" t="e">
-        <f>CONCATENATE(sys.ini!A14,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B14+1),"= """,sys.ini!#REF!,"""")</f>
-        <v>#REF!</v>
+      <c r="A14" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A14,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B14+1),"= """,sys.ini!D14,"""")</f>
+        <v>COM_SRCCHECK_PREFLIGHT_ENVIRONMENT_VERIFICATION = "Environment verification."</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="e">
-        <f>CONCATENATE(sys.ini!#REF!,REPT(" ",MAX(sys.ini!B:B)-sys.ini!#REF!+1),"= """,sys.ini!#REF!,"""")</f>
-        <v>#REF!</v>
+      <c r="A15" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B15+1),"= """,sys.ini!D15,"""")</f>
+        <v>COM_SRCCHECK_ERR_CREATE_ARCHIVE                 = "Problem with creating a new archive: %s."</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="e">
-        <f>CONCATENATE(sys.ini!#REF!,REPT(" ",MAX(sys.ini!B:B)-sys.ini!#REF!+1),"= """,sys.ini!#REF!,"""")</f>
-        <v>#REF!</v>
+      <c r="A16" s="3" t="str">
+        <f>CONCATENATE(sys.ini!A16,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B16+1),"= """,sys.ini!D16,"""")</f>
+        <v>COM_SRCCHECK_ERR_CREATE_ARCHIVE_CATALOG         = "Problem creating folder for archive: %s."</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A15,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B15+1),"= """,sys.ini!D15,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A17,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B17+1),"= """,sys.ini!D17,"""")</f>
+        <v>COM_SRCCHECK_ERR_COPY_ARCHIVE                   = "The problem with copying the archive: %s."</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A16,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B16+1),"= """,sys.ini!D16,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A18,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B18+1),"= """,sys.ini!D18,"""")</f>
+        <v>COM_SRCCHECK_ERR_OPEN_ARCHIVE                   = "Problem with opening the archive: %s."</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A17,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B17+1),"= """,sys.ini!D17,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A19,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B19+1),"= """,sys.ini!D19,"""")</f>
+        <v>COM_SRCCHECK_ERR_ARC_PUT_TO_TRASHCAN            = ""</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A18,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B18+1),"= """,sys.ini!D18,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A20,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B20+1),"= """,sys.ini!D20,"""")</f>
+        <v>COM_SRCCHECK_ERR_ARC_PUT_TO_TRASHCAN            = ""</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A19,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B19+1),"= """,sys.ini!D19,"""")</f>
+        <f>CONCATENATE(sys.ini!A21,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B21+1),"= """,sys.ini!D21,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A20,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B20+1),"= """,sys.ini!D20,"""")</f>
+        <f>CONCATENATE(sys.ini!A22,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B22+1),"= """,sys.ini!D22,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A21,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B21+1),"= """,sys.ini!D21,"""")</f>
+        <f>CONCATENATE(sys.ini!A23,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B23+1),"= """,sys.ini!D23,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A22,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B22+1),"= """,sys.ini!D22,"""")</f>
+        <f>CONCATENATE(sys.ini!A24,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B24+1),"= """,sys.ini!D24,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A23,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B23+1),"= """,sys.ini!D23,"""")</f>
+        <f>CONCATENATE(sys.ini!A25,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B25+1),"= """,sys.ini!D25,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A24,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B24+1),"= """,sys.ini!D24,"""")</f>
+        <f>CONCATENATE(sys.ini!A26,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B26+1),"= """,sys.ini!D26,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A25,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B25+1),"= """,sys.ini!D25,"""")</f>
+        <f>CONCATENATE(sys.ini!A27,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B27+1),"= """,sys.ini!D27,"""")</f>
         <v xml:space="preserve">                                                = ""</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A26,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B26+1),"= """,sys.ini!D26,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A28,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B28+1),"= """,sys.ini!D28,"""")</f>
+        <v>COM_SRCCHECK_SRCCHECK_VIEW_DEFAULT_TITLE        = ""</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A27,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B27+1),"= """,sys.ini!D27,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A31,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B31+1),"= """,sys.ini!D31,"""")</f>
+        <v>COM_SRCCHECK_MANAGE_VIEW_DEFAULT_DESC           = ""</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A28,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B28+1),"= """,sys.ini!D28,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A33,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B33+1),"= """,sys.ini!D33,"""")</f>
+        <v>COM_SRCCHECK_TRASHCAN_VIEW_DEFAULT_DESC         = ""</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="str">
-        <f>CONCATENATE(sys.ini!A29,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B29+1),"= """,sys.ini!D29,"""")</f>
-        <v xml:space="preserve">                                                = ""</v>
+        <f>CONCATENATE(sys.ini!A33,REPT(" ",MAX(sys.ini!B:B)-sys.ini!B33+1),"= """,sys.ini!D33,"""")</f>
+        <v>COM_SRCCHECK_TRASHCAN_VIEW_DEFAULT_DESC         = ""</v>
       </c>
     </row>
   </sheetData>
@@ -2315,11 +2845,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A130"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A65" sqref="A2:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2329,357 +2859,795 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="str">
         <f>CONCATENATE(ini!A2,REPT(" ",MAX(ini!B:B)-ini!B2+1),"= """,ini!D2,"""")</f>
-        <v>COM_SRCCHECK_TOTALCOUNT_FILES              = "Number of verified files:"</v>
+        <v>COM_SRCCHECK_TOTALCOUNT_FILES                       = "Number of verified files:"</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="str">
         <f>CONCATENATE(ini!A3,REPT(" ",MAX(ini!B:B)-ini!B3+1),"= """,ini!D3,"""")</f>
-        <v>COM_SRCCHECK_NEW_FILES                     = "Number of new files:"</v>
+        <v>COM_SRCCHECK_NEW_FILES                              = "Number of new files:"</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="str">
         <f>CONCATENATE(ini!A4,REPT(" ",MAX(ini!B:B)-ini!B4+1),"= """,ini!D4,"""")</f>
-        <v>COM_SRCCHECK_DELETED_FILES                 = "Number of deleted files:"</v>
+        <v>COM_SRCCHECK_DELETED_FILES                          = "Number of deleted files:"</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="str">
         <f>CONCATENATE(ini!A5,REPT(" ",MAX(ini!B:B)-ini!B5+1),"= """,ini!D5,"""")</f>
-        <v>COM_SRCCHECK_COUNT_VERYFIED_POSITIVE       = "Number of files verified correctly:"</v>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_POSITIVE                = "Number of files verified correctly:"</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="str">
         <f>CONCATENATE(ini!A6,REPT(" ",MAX(ini!B:B)-ini!B6+1),"= """,ini!D6,"""")</f>
-        <v>COM_SRCCHECK_COUNT_VERYFIED_NEGATIVE       = "Number of files verified incorrectly:"</v>
+        <v>COM_SRCCHECK_COUNT_VERYFIED_NEGATIVE                = "Number of files verified incorrectly:"</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="str">
         <f>CONCATENATE(ini!A7,REPT(" ",MAX(ini!B:B)-ini!B7+1),"= """,ini!D7,"""")</f>
-        <v>COM_SRCCHECK_LAST_CHECK_TIME               = "Date of last check:"</v>
+        <v>COM_SRCCHECK_LAST_CHECK_TIME                        = "Date of last check:"</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="str">
         <f>CONCATENATE(ini!A8,REPT(" ",MAX(ini!B:B)-ini!B8+1),"= """,ini!D8,"""")</f>
-        <v>COM_SRCCHECK_USER_ID                       = "Last checked user ID:"</v>
+        <v>COM_SRCCHECK_USER_ID                                = "Last checked user ID:"</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="str">
         <f>CONCATENATE(ini!A9,REPT(" ",MAX(ini!B:B)-ini!B9+1),"= """,ini!D9,"""")</f>
-        <v>COM_SRCCHECK_USER_LOGIN                    = "Last checked user login:"</v>
+        <v>COM_SRCCHECK_USER_LOGIN                             = "Last checked user login:"</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(ini!A10,REPT(" ",MAX(ini!B:B)-ini!B10+1),"= """,ini!D10,"""")</f>
-        <v>COM_SRCCHECK_USER_NAME                     = "Last checked user name:"</v>
+        <v>COM_SRCCHECK_USER_NAME                              = "Last checked user name:"</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(ini!A11,REPT(" ",MAX(ini!B:B)-ini!B11+1),"= """,ini!D11,"""")</f>
-        <v>COM_SRCCHECH_MANAGER_TITLE                 = "Source Files Check"</v>
+        <v>COM_SRCCHECH_MANAGER_TITLE                          = "Source Files Check"</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(ini!A12,REPT(" ",MAX(ini!B:B)-ini!B12+1),"= """,ini!D12,"""")</f>
-        <v>COM_SRCCHECK_BTN_VERIFY                    = "Verify"</v>
+        <v>COM_SRCCHECK_BTN_VERIFY                             = "Verify"</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(ini!A13,REPT(" ",MAX(ini!B:B)-ini!B13+1),"= """,ini!D13,"""")</f>
-        <v>COM_SRCCHECK_BTN_VALID                     = "Accept file[s]"</v>
+        <v>COM_SRCCHECK_BTN_VALID                              = "Accept file[s]"</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="str">
         <f>CONCATENATE(ini!A14,REPT(" ",MAX(ini!B:B)-ini!B14+1),"= """,ini!D14,"""")</f>
-        <v>COM_SRCCHECK_BTN_ERASE                     = "Erase file[s]"</v>
+        <v>COM_SRCCHECK_BTN_ERASE                              = "Erase file[s]"</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="str">
         <f>CONCATENATE(ini!A15,REPT(" ",MAX(ini!B:B)-ini!B15+1),"= """,ini!D15,"""")</f>
-        <v>COM_SRCCHECK_SUBMENU_SUMMARY               = "Summary"</v>
+        <v>COM_SRCCHECK_BTN_ERASE_SELECTED_FILES_FROM_TRASHCAN = "Erase selected files"</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="str">
         <f>CONCATENATE(ini!A16,REPT(" ",MAX(ini!B:B)-ini!B16+1),"= """,ini!D16,"""")</f>
-        <v>COM_SRCCHECK_SUBMENU_MANAGE                = "Manage"</v>
+        <v>COM_SRCCHECK_BTN_ERASE_ALL_FILES_FROM_TRASHCAN      = "Erase all files"</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="str">
         <f>CONCATENATE(ini!A17,REPT(" ",MAX(ini!B:B)-ini!B17+1),"= """,ini!D17,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION                = "Source Files Check: Summary"</v>
+        <v>COM_SRCCHECK_BTN_DETAILS                            = "Details"</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="str">
         <f>CONCATENATE(ini!A18,REPT(" ",MAX(ini!B:B)-ini!B18+1),"= """,ini!D18,"""")</f>
-        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE         = "Source Files Check: Manage"</v>
+        <v>COM_SRCCHECK_SUBMENU_SUMMARY                        = "Summary"</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="str">
         <f>CONCATENATE(ini!A19,REPT(" ",MAX(ini!B:B)-ini!B19+1),"= """,ini!D19,"""")</f>
-        <v>COM_SRECCHECK_NUM                          = "#"</v>
+        <v>COM_SRCCHECK_SUBMENU_MANAGE                         = "Manage"</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="str">
         <f>CONCATENATE(ini!A20,REPT(" ",MAX(ini!B:B)-ini!B20+1),"= """,ini!D20,"""")</f>
-        <v>COM_SRCCHECK_PATH                          = "Path"</v>
+        <v>COM_SRCCHECK_SUBMENU_TRASHCAN                       = "Trashcan"</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="str">
         <f>CONCATENATE(ini!A21,REPT(" ",MAX(ini!B:B)-ini!B21+1),"= """,ini!D21,"""")</f>
-        <v>COM_SRCCHECK_FILENAME                      = "File Name"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION                         = "Source Files Check: Summary"</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="str">
         <f>CONCATENATE(ini!A22,REPT(" ",MAX(ini!B:B)-ini!B22+1),"= """,ini!D22,"""")</f>
-        <v>COM_SRCCHECK_STATUS                        = "File Status"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION_MANAGE                  = "Source Files Check: Manage"</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="str">
         <f>CONCATENATE(ini!A23,REPT(" ",MAX(ini!B:B)-ini!B23+1),"= """,ini!D23,"""")</f>
-        <v>COM_SRCCHECK_VERYFIED_STATUS_FILE          = "Veryfied"</v>
+        <v>COM_SRCCHECK_ADMINISTRATION_TRASHCAN                = "Source Files Check: Trashcan"</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="str">
         <f>CONCATENATE(ini!A24,REPT(" ",MAX(ini!B:B)-ini!B24+1),"= """,ini!D24,"""")</f>
-        <v>COM_SRCCHECK_NEW_STATUS_FILE               = "New file"</v>
+        <v>COM_SRECCHECK_NUM                                   = "#"</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="str">
         <f>CONCATENATE(ini!A25,REPT(" ",MAX(ini!B:B)-ini!B25+1),"= """,ini!D25,"""")</f>
-        <v>COM_SRCCHECK_VALID_STATUS_FILE             = "Valid"</v>
+        <v>COM_SRCCHECK_PATH                                   = "Path"</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="str">
         <f>CONCATENATE(ini!A26,REPT(" ",MAX(ini!B:B)-ini!B26+1),"= """,ini!D26,"""")</f>
-        <v>COM_SRCCHECK_DELETED_STATUS_FILE           = "Deleted file"</v>
+        <v>COM_SRCCHECK_FILENAME                               = "File Name"</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="str">
         <f>CONCATENATE(ini!A27,REPT(" ",MAX(ini!B:B)-ini!B27+1),"= """,ini!D27,"""")</f>
-        <v>COM_SRCCHECK_INVALID_STATUS_FILE           = "Invalid"</v>
+        <v>COM_SRCCHECK_STATUS                                 = "File Status"</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="str">
         <f>CONCATENATE(ini!A28,REPT(" ",MAX(ini!B:B)-ini!B28+1),"= """,ini!D28,"""")</f>
-        <v>COM_SRCCHECK_VERYFIED                      = "Veryfication's Result"</v>
+        <v>COM_SRCCHECK_VERYFIED_STATUS_FILE                   = "Veryfied"</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="str">
         <f>CONCATENATE(ini!A29,REPT(" ",MAX(ini!B:B)-ini!B29+1),"= """,ini!D29,"""")</f>
-        <v>COM_SRCCHECK_UNEXPECTED_STATUS_FILE        = "Unexpected"</v>
+        <v>COM_SRCCHECK_NEW_STATUS_FILE                        = "New file"</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="str">
         <f>CONCATENATE(ini!A30,REPT(" ",MAX(ini!B:B)-ini!B30+1),"= """,ini!D30,"""")</f>
-        <v>COM_SRCCHECK_MANAGE_FILTER                 = "Filters"</v>
+        <v>COM_SRCCHECK_VALID_STATUS_FILE                      = "Valid"</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="str">
         <f>CONCATENATE(ini!A31,REPT(" ",MAX(ini!B:B)-ini!B31+1),"= """,ini!D31,"""")</f>
-        <v>COM_SRCCHECK_FILTER_SELECT_STATUS_FILE     = "- Select File Status -"</v>
+        <v>COM_SRCCHECK_DELETED_STATUS_FILE                    = "Deleted file"</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="str">
         <f>CONCATENATE(ini!A32,REPT(" ",MAX(ini!B:B)-ini!B32+1),"= """,ini!D32,"""")</f>
-        <v>COM_SRCCHECK_FILTER_SELECT_VERYFIED        = "- Select Veryfication's Result -"</v>
+        <v>COM_SRCCHECK_INVALID_STATUS_FILE                    = "Invalid"</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="str">
         <f>CONCATENATE(ini!A33,REPT(" ",MAX(ini!B:B)-ini!B33+1),"= """,ini!D33,"""")</f>
-        <v>COM_SRCCHECK_SEARCH_PATH_FILE              = "Search in Paths and Filenames"</v>
+        <v>COM_SRCCHECK_VERYFIED                               = "Veryfication's Result"</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="str">
         <f>CONCATENATE(ini!A34,REPT(" ",MAX(ini!B:B)-ini!B34+1),"= """,ini!D34,"""")</f>
-        <v>COM_SRCCHECK_FILTER_FILE_STATUS            = "Filter by file status"</v>
+        <v>COM_SRCCHECK_IN_TRASHCAN_STATUS_FILE                = "In trashcan"</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="str">
         <f>CONCATENATE(ini!A35,REPT(" ",MAX(ini!B:B)-ini!B35+1),"= """,ini!D35,"""")</f>
-        <v>COM_SRCCHECK_FILTER_FILE_VERYFIED          = "Filter by file veryfication result"</v>
+        <v>COM_SRCCHECK_UNEXPECTED_STATUS_FILE                 = "Unexpected"</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3" t="str">
         <f>CONCATENATE(ini!A36,REPT(" ",MAX(ini!B:B)-ini!B36+1),"= """,ini!D36,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_VERIFY             = "Verify"</v>
+        <v>COM_SRCCHECK_MANAGE_FILTER                          = "Filters"</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="str">
         <f>CONCATENATE(ini!A37,REPT(" ",MAX(ini!B:B)-ini!B37+1),"= """,ini!D37,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_DESC_VERIFY        = "Allow users to the operation that runs the file verification."</v>
+        <v>COM_SRCCHECK_FILTER_SELECT_STATUS_FILE              = "- Select File Status -"</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="str">
         <f>CONCATENATE(ini!A38,REPT(" ",MAX(ini!B:B)-ini!B38+1),"= """,ini!D38,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_VALID              = "Accept file[s]"</v>
+        <v>COM_SRCCHECK_FILTER_SELECT_VERYFIED                 = "- Select Veryfication's Result -"</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="str">
         <f>CONCATENATE(ini!A39,REPT(" ",MAX(ini!B:B)-ini!B39+1),"= """,ini!D39,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_DESC_VALID         = "Allow users to the operation accepting the correctness of files."</v>
+        <v>COM_SRCCHECK_SEARCH_PATH_FILE                       = "Search in Paths and Filenames"</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="str">
         <f>CONCATENATE(ini!A40,REPT(" ",MAX(ini!B:B)-ini!B40+1),"= """,ini!D40,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_ERASE              = "Erase file[s]"</v>
+        <v>COM_SRCCHECK_FILTER_FILE_STATUS                     = "Filter by file status"</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="str">
         <f>CONCATENATE(ini!A41,REPT(" ",MAX(ini!B:B)-ini!B41+1),"= """,ini!D41,"""")</f>
-        <v>COM_SRCCHECK_PERMISSION_DESC_ERASE         = "Allow users to the operation to erase deleted files from the check history."</v>
+        <v>COM_SRCCHECK_FILTER_FILE_VERYFIED                   = "Filter by file veryfication result"</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="str">
         <f>CONCATENATE(ini!A42,REPT(" ",MAX(ini!B:B)-ini!B42+1),"= """,ini!D42,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_VERIFY                      = "Verify"</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="str">
         <f>CONCATENATE(ini!A43,REPT(" ",MAX(ini!B:B)-ini!B43+1),"= """,ini!D43,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_VERIFY                 = "Allow users to the operation that runs the file verification."</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="str">
         <f>CONCATENATE(ini!A44,REPT(" ",MAX(ini!B:B)-ini!B44+1),"= """,ini!D44,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_VALID                       = "Accept file[s]"</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3" t="str">
         <f>CONCATENATE(ini!A45,REPT(" ",MAX(ini!B:B)-ini!B45+1),"= """,ini!D45,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_VALID                  = "Allow users to the operation accepting the correctness of files."</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="str">
         <f>CONCATENATE(ini!A46,REPT(" ",MAX(ini!B:B)-ini!B46+1),"= """,ini!D46,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_ERASE                       = "Erase file[s]"</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="3" t="str">
         <f>CONCATENATE(ini!A47,REPT(" ",MAX(ini!B:B)-ini!B47+1),"= """,ini!D47,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_ERASE                  = "Allow users to the operation to erase deleted files from the check history."</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="3" t="str">
         <f>CONCATENATE(ini!A48,REPT(" ",MAX(ini!B:B)-ini!B48+1),"= """,ini!D48,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_MANAGE                      = "Permissions for the "Manage" tab."</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="3" t="str">
         <f>CONCATENATE(ini!A49,REPT(" ",MAX(ini!B:B)-ini!B49+1),"= """,ini!D49,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_MANAGE                 = "Grants permission to the "Manage" view."</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="3" t="str">
         <f>CONCATENATE(ini!A50,REPT(" ",MAX(ini!B:B)-ini!B50+1),"= """,ini!D50,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_TRASHCAN                    = "Permissions for the "Trashcan" tab."</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="3" t="str">
         <f>CONCATENATE(ini!A51,REPT(" ",MAX(ini!B:B)-ini!B51+1),"= """,ini!D51,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_TRASHCAN               = "Grants permission to the "Trashcan" view."</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="3" t="str">
         <f>CONCATENATE(ini!A52,REPT(" ",MAX(ini!B:B)-ini!B52+1),"= """,ini!D52,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_ERASE_FROM_TRASHCAN         = "Empty Trashcan"</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="3" t="str">
         <f>CONCATENATE(ini!A53,REPT(" ",MAX(ini!B:B)-ini!B53+1),"= """,ini!D53,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_PERMISSION_DESC_ERASE_FROM_TRASHCAN    = "Allow users to operation remove files from Trashcan."</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="3" t="str">
         <f>CONCATENATE(ini!A54,REPT(" ",MAX(ini!B:B)-ini!B54+1),"= """,ini!D54,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_MANAGE_FILE_HISTORY                    = "File history:"</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="3" t="str">
         <f>CONCATENATE(ini!A55,REPT(" ",MAX(ini!B:B)-ini!B55+1),"= """,ini!D55,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_CONFIGURATION                          = "Source Check: Options"</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="3" t="str">
         <f>CONCATENATE(ini!A56,REPT(" ",MAX(ini!B:B)-ini!B56+1),"= """,ini!D56,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_FILE_LOCALISATION                      = "File location:"</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="3" t="str">
         <f>CONCATENATE(ini!A57,REPT(" ",MAX(ini!B:B)-ini!B57+1),"= """,ini!D57,"""")</f>
-        <v xml:space="preserve">                                           = ""</v>
+        <v>COM_SRCCHECK_FILE_FIRST_VERYFICATION_TIME           = "First verification date:"</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="3" t="str">
+        <f>CONCATENATE(ini!A58,REPT(" ",MAX(ini!B:B)-ini!B58+1),"= """,ini!D58,"""")</f>
+        <v>COM_SRCCHECK_FILE_STATUS                            = "File Status:"</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="3" t="str">
+        <f>CONCATENATE(ini!A59,REPT(" ",MAX(ini!B:B)-ini!B59+1),"= """,ini!D59,"""")</f>
+        <v>COM_SRCCHECK_FILE_STORED_IN_TA                      = "File stored in the archive:"</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="3" t="str">
+        <f>CONCATENATE(ini!A60,REPT(" ",MAX(ini!B:B)-ini!B60+1),"= """,ini!D60,"""")</f>
+        <v>COM_SRCCHECK_FILE_VERSION                           = "Version"</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="3" t="str">
+        <f>CONCATENATE(ini!A61,REPT(" ",MAX(ini!B:B)-ini!B61+1),"= """,ini!D61,"""")</f>
+        <v>COM_SRCCHECK_FILE_VERYFICATION_DATE                 = "Verification date"</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="3" t="str">
+        <f>CONCATENATE(ini!A62,REPT(" ",MAX(ini!B:B)-ini!B62+1),"= """,ini!D62,"""")</f>
+        <v>COM_SRCCHECK_FILE_IN_TA_LOCALISATION                = "Location in the archive"</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="3" t="str">
+        <f>CONCATENATE(ini!A63,REPT(" ",MAX(ini!B:B)-ini!B63+1),"= """,ini!D63,"""")</f>
+        <v>COM_SRCCHECK_FILE_VERYFIED_STATUS                   = "Verification status"</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="3" t="str">
+        <f>CONCATENATE(ini!A64,REPT(" ",MAX(ini!B:B)-ini!B64+1),"= """,ini!D64,"""")</f>
+        <v>COM_SRCCHECK_ERR_ARC_PUT_TO_TRASHCAN                = "Unable to move file:%s to trash."</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="3" t="str">
+        <f>CONCATENATE(ini!A65,REPT(" ",MAX(ini!B:B)-ini!B65+1),"= """,ini!D65,"""")</f>
+        <v>COM_SRCCHECK_ERR_ARC_EMPTY_TRASHCAN                 = "Unable to remove the file:%s from the Trashcan."</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="3" t="str">
+        <f>CONCATENATE(ini!A66,REPT(" ",MAX(ini!B:B)-ini!B66+1),"= """,ini!D66,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="3" t="str">
+        <f>CONCATENATE(ini!A67,REPT(" ",MAX(ini!B:B)-ini!B67+1),"= """,ini!D67,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="3" t="str">
+        <f>CONCATENATE(ini!A68,REPT(" ",MAX(ini!B:B)-ini!B68+1),"= """,ini!D68,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="3" t="str">
+        <f>CONCATENATE(ini!A69,REPT(" ",MAX(ini!B:B)-ini!B69+1),"= """,ini!D69,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="3" t="str">
+        <f>CONCATENATE(ini!A70,REPT(" ",MAX(ini!B:B)-ini!B70+1),"= """,ini!D70,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="3" t="str">
+        <f>CONCATENATE(ini!A71,REPT(" ",MAX(ini!B:B)-ini!B71+1),"= """,ini!D71,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="3" t="str">
+        <f>CONCATENATE(ini!A73,REPT(" ",MAX(ini!B:B)-ini!B73+1),"= """,ini!D73,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="3" t="str">
+        <f>CONCATENATE(ini!A74,REPT(" ",MAX(ini!B:B)-ini!B74+1),"= """,ini!D74,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="3" t="str">
+        <f>CONCATENATE(ini!A75,REPT(" ",MAX(ini!B:B)-ini!B75+1),"= """,ini!D75,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="3" t="str">
+        <f>CONCATENATE(ini!A76,REPT(" ",MAX(ini!B:B)-ini!B76+1),"= """,ini!D76,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="3" t="str">
+        <f>CONCATENATE(ini!A77,REPT(" ",MAX(ini!B:B)-ini!B77+1),"= """,ini!D77,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="3" t="str">
+        <f>CONCATENATE(ini!A78,REPT(" ",MAX(ini!B:B)-ini!B78+1),"= """,ini!D78,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="3" t="str">
+        <f>CONCATENATE(ini!A79,REPT(" ",MAX(ini!B:B)-ini!B79+1),"= """,ini!D79,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="3" t="str">
+        <f>CONCATENATE(ini!A80,REPT(" ",MAX(ini!B:B)-ini!B80+1),"= """,ini!D80,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="3" t="str">
+        <f>CONCATENATE(ini!A81,REPT(" ",MAX(ini!B:B)-ini!B81+1),"= """,ini!D81,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="3" t="str">
+        <f>CONCATENATE(ini!A82,REPT(" ",MAX(ini!B:B)-ini!B82+1),"= """,ini!D82,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="3" t="str">
+        <f>CONCATENATE(ini!A83,REPT(" ",MAX(ini!B:B)-ini!B83+1),"= """,ini!D83,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="3" t="str">
+        <f>CONCATENATE(ini!A84,REPT(" ",MAX(ini!B:B)-ini!B84+1),"= """,ini!D84,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="3" t="str">
+        <f>CONCATENATE(ini!A85,REPT(" ",MAX(ini!B:B)-ini!B85+1),"= """,ini!D85,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="3" t="str">
+        <f>CONCATENATE(ini!A86,REPT(" ",MAX(ini!B:B)-ini!B86+1),"= """,ini!D86,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="3" t="str">
+        <f>CONCATENATE(ini!A87,REPT(" ",MAX(ini!B:B)-ini!B87+1),"= """,ini!D87,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="3" t="str">
+        <f>CONCATENATE(ini!A88,REPT(" ",MAX(ini!B:B)-ini!B88+1),"= """,ini!D88,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="3" t="str">
+        <f>CONCATENATE(ini!A89,REPT(" ",MAX(ini!B:B)-ini!B89+1),"= """,ini!D89,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="3" t="str">
+        <f>CONCATENATE(ini!A90,REPT(" ",MAX(ini!B:B)-ini!B90+1),"= """,ini!D90,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="3" t="str">
+        <f>CONCATENATE(ini!A91,REPT(" ",MAX(ini!B:B)-ini!B91+1),"= """,ini!D91,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="3" t="str">
+        <f>CONCATENATE(ini!A92,REPT(" ",MAX(ini!B:B)-ini!B92+1),"= """,ini!D92,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="3" t="str">
+        <f>CONCATENATE(ini!A93,REPT(" ",MAX(ini!B:B)-ini!B93+1),"= """,ini!D93,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="3" t="str">
+        <f>CONCATENATE(ini!A94,REPT(" ",MAX(ini!B:B)-ini!B94+1),"= """,ini!D94,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="3" t="str">
+        <f>CONCATENATE(ini!A95,REPT(" ",MAX(ini!B:B)-ini!B95+1),"= """,ini!D95,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="3" t="str">
+        <f>CONCATENATE(ini!A96,REPT(" ",MAX(ini!B:B)-ini!B96+1),"= """,ini!D96,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="3" t="str">
+        <f>CONCATENATE(ini!A97,REPT(" ",MAX(ini!B:B)-ini!B97+1),"= """,ini!D97,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="3" t="str">
+        <f>CONCATENATE(ini!A98,REPT(" ",MAX(ini!B:B)-ini!B98+1),"= """,ini!D98,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="3" t="str">
+        <f>CONCATENATE(ini!A99,REPT(" ",MAX(ini!B:B)-ini!B99+1),"= """,ini!D99,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="3" t="str">
+        <f>CONCATENATE(ini!A100,REPT(" ",MAX(ini!B:B)-ini!B100+1),"= """,ini!D100,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="3" t="str">
+        <f>CONCATENATE(ini!A101,REPT(" ",MAX(ini!B:B)-ini!B101+1),"= """,ini!D101,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="3" t="str">
+        <f>CONCATENATE(ini!A102,REPT(" ",MAX(ini!B:B)-ini!B102+1),"= """,ini!D102,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="3" t="str">
+        <f>CONCATENATE(ini!A103,REPT(" ",MAX(ini!B:B)-ini!B103+1),"= """,ini!D103,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="3" t="str">
+        <f>CONCATENATE(ini!A104,REPT(" ",MAX(ini!B:B)-ini!B104+1),"= """,ini!D104,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="3" t="str">
+        <f>CONCATENATE(ini!A105,REPT(" ",MAX(ini!B:B)-ini!B105+1),"= """,ini!D105,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="3" t="str">
+        <f>CONCATENATE(ini!A106,REPT(" ",MAX(ini!B:B)-ini!B106+1),"= """,ini!D106,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="3" t="str">
+        <f>CONCATENATE(ini!A107,REPT(" ",MAX(ini!B:B)-ini!B107+1),"= """,ini!D107,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="3" t="str">
+        <f>CONCATENATE(ini!A108,REPT(" ",MAX(ini!B:B)-ini!B108+1),"= """,ini!D108,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="3" t="str">
+        <f>CONCATENATE(ini!A109,REPT(" ",MAX(ini!B:B)-ini!B109+1),"= """,ini!D109,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="3" t="str">
+        <f>CONCATENATE(ini!A110,REPT(" ",MAX(ini!B:B)-ini!B110+1),"= """,ini!D110,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="3" t="str">
+        <f>CONCATENATE(ini!A111,REPT(" ",MAX(ini!B:B)-ini!B111+1),"= """,ini!D111,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="3" t="str">
+        <f>CONCATENATE(ini!A112,REPT(" ",MAX(ini!B:B)-ini!B112+1),"= """,ini!D112,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="3" t="str">
+        <f>CONCATENATE(ini!A113,REPT(" ",MAX(ini!B:B)-ini!B113+1),"= """,ini!D113,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="3" t="str">
+        <f>CONCATENATE(ini!A114,REPT(" ",MAX(ini!B:B)-ini!B114+1),"= """,ini!D114,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="3" t="str">
+        <f>CONCATENATE(ini!A115,REPT(" ",MAX(ini!B:B)-ini!B115+1),"= """,ini!D115,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="3" t="str">
+        <f>CONCATENATE(ini!A116,REPT(" ",MAX(ini!B:B)-ini!B116+1),"= """,ini!D116,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="3" t="str">
+        <f>CONCATENATE(ini!A117,REPT(" ",MAX(ini!B:B)-ini!B117+1),"= """,ini!D117,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="3" t="str">
+        <f>CONCATENATE(ini!A118,REPT(" ",MAX(ini!B:B)-ini!B118+1),"= """,ini!D118,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="3" t="str">
+        <f>CONCATENATE(ini!A119,REPT(" ",MAX(ini!B:B)-ini!B119+1),"= """,ini!D119,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="3" t="str">
+        <f>CONCATENATE(ini!A120,REPT(" ",MAX(ini!B:B)-ini!B120+1),"= """,ini!D120,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="3" t="str">
+        <f>CONCATENATE(ini!A121,REPT(" ",MAX(ini!B:B)-ini!B121+1),"= """,ini!D121,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="3" t="str">
+        <f>CONCATENATE(ini!A122,REPT(" ",MAX(ini!B:B)-ini!B122+1),"= """,ini!D122,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="3" t="str">
+        <f>CONCATENATE(ini!A123,REPT(" ",MAX(ini!B:B)-ini!B123+1),"= """,ini!D123,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="3" t="str">
+        <f>CONCATENATE(ini!A124,REPT(" ",MAX(ini!B:B)-ini!B124+1),"= """,ini!D124,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="3" t="str">
+        <f>CONCATENATE(ini!A125,REPT(" ",MAX(ini!B:B)-ini!B125+1),"= """,ini!D125,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="3" t="str">
+        <f>CONCATENATE(ini!A126,REPT(" ",MAX(ini!B:B)-ini!B126+1),"= """,ini!D126,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="3" t="str">
+        <f>CONCATENATE(ini!A127,REPT(" ",MAX(ini!B:B)-ini!B127+1),"= """,ini!D127,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="3" t="str">
+        <f>CONCATENATE(ini!A128,REPT(" ",MAX(ini!B:B)-ini!B128+1),"= """,ini!D128,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="3" t="str">
+        <f>CONCATENATE(ini!A129,REPT(" ",MAX(ini!B:B)-ini!B129+1),"= """,ini!D129,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="3" t="str">
+        <f>CONCATENATE(ini!A130,REPT(" ",MAX(ini!B:B)-ini!B130+1),"= """,ini!D130,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="3" t="str">
+        <f>CONCATENATE(ini!A131,REPT(" ",MAX(ini!B:B)-ini!B131+1),"= """,ini!D131,"""")</f>
+        <v xml:space="preserve">                                                    = ""</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2696,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2717,13 +3685,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2731,17 +3699,17 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B36" si="0">LEN(A3)</f>
+        <f t="shared" ref="B3:B40" si="0">LEN(A3)</f>
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2753,13 +3721,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2771,13 +3739,13 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2789,13 +3757,13 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2807,13 +3775,13 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2831,7 +3799,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2849,7 +3817,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2861,13 +3829,13 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2879,13 +3847,13 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2897,13 +3865,13 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2915,176 +3883,273 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>292</v>
+      </c>
       <c r="B15">
         <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D17" t="s">
+        <v>303</v>
+      </c>
+      <c r="E17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="B16">
+    <row r="22" spans="1:5">
+      <c r="B22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17">
+    <row r="23" spans="1:5">
+      <c r="B23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18">
+    <row r="24" spans="1:5">
+      <c r="B24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19">
+    <row r="25" spans="1:5">
+      <c r="B25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20">
+    <row r="26" spans="1:5">
+      <c r="B26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21">
+    <row r="27" spans="1:5">
+      <c r="B27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22">
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23">
+    <row r="35" spans="1:2">
+      <c r="B35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24">
+    <row r="36" spans="1:2">
+      <c r="B36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25">
+    <row r="37" spans="1:2">
+      <c r="B37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26">
+    <row r="38" spans="1:2">
+      <c r="B38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27">
+    <row r="39" spans="1:2">
+      <c r="B39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36">
+    <row r="40" spans="1:2">
+      <c r="B40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.25" defaultRowHeight="14.25"/>
@@ -3101,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3118,7 +4183,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <f>LEN(A2)</f>
+        <f t="shared" ref="B2:B33" si="0">LEN(A2)</f>
         <v>29</v>
       </c>
       <c r="C2" t="s">
@@ -3128,7 +4193,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3136,7 +4201,7 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B44" si="0">LEN(A3)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C3" t="s">
@@ -3146,7 +4211,7 @@
         <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3164,7 +4229,7 @@
         <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3182,7 +4247,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3200,7 +4265,7 @@
         <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3218,7 +4283,7 @@
         <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3230,13 +4295,13 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3248,13 +4313,13 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>232</v>
       </c>
       <c r="D9" t="s">
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3266,13 +4331,13 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>233</v>
       </c>
       <c r="D10" t="s">
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3284,13 +4349,13 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3302,13 +4367,13 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3320,13 +4385,13 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3338,516 +4403,954 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>289</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="E23" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>111</v>
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>224</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f t="shared" ref="B34:B69" si="1">LEN(A34)</f>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>126</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" t="s">
         <v>124</v>
       </c>
-      <c r="B41">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42">
-        <f t="shared" si="0"/>
+      <c r="E47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" t="s">
+        <v>206</v>
+      </c>
+      <c r="E48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C49" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C50" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E50" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C51" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" t="s">
+        <v>240</v>
+      </c>
+      <c r="E52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C53" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53" t="s">
+        <v>241</v>
+      </c>
+      <c r="E53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C54" t="s">
+        <v>249</v>
+      </c>
+      <c r="D54" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" t="s">
+        <v>253</v>
+      </c>
+      <c r="E55" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>256</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C56" t="s">
+        <v>257</v>
+      </c>
+      <c r="D56" t="s">
+        <v>258</v>
+      </c>
+      <c r="E56" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C57" t="s">
+        <v>260</v>
+      </c>
+      <c r="D57" t="s">
+        <v>261</v>
+      </c>
+      <c r="E57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>263</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>264</v>
+      </c>
+      <c r="D58" t="s">
+        <v>265</v>
+      </c>
+      <c r="E58" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>268</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" t="s">
+        <v>270</v>
+      </c>
+      <c r="E59" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>272</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>273</v>
+      </c>
+      <c r="D60" t="s">
+        <v>274</v>
+      </c>
+      <c r="E60" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C61" t="s">
+        <v>277</v>
+      </c>
+      <c r="D61" t="s">
+        <v>278</v>
+      </c>
+      <c r="E61" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>280</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C62" t="s">
+        <v>281</v>
+      </c>
+      <c r="D62" t="s">
+        <v>282</v>
+      </c>
+      <c r="E62" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>285</v>
+      </c>
+      <c r="D63" t="s">
+        <v>287</v>
+      </c>
+      <c r="E63" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>308</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C64" t="s">
+        <v>310</v>
+      </c>
+      <c r="D64" t="s">
+        <v>312</v>
+      </c>
+      <c r="E64" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>309</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C65" t="s">
+        <v>311</v>
+      </c>
+      <c r="D65" t="s">
+        <v>315</v>
+      </c>
+      <c r="E65" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="B43">
-        <f t="shared" si="0"/>
+    <row r="67" spans="1:5">
+      <c r="B67">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="B44">
-        <f t="shared" si="0"/>
+    <row r="68" spans="1:5">
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="B69">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
